--- a/Tamizaje Los Rios 2024.xlsx
+++ b/Tamizaje Los Rios 2024.xlsx
@@ -1,16 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/5de704bf7d1604c2/Escritorio/mia =)/digit/digitador/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="2" documentId="11_FDD7CC6AD50F5452AAA71E8E9103FEF2E1ECA253" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8D882B52-43EE-4400-A92E-2CA9FC286764}"/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView xWindow="7872" yWindow="1092" windowWidth="14688" windowHeight="11148" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="LAGO RANCO" sheetId="1" state="visible" r:id="rId3"/>
+    <sheet name="LAGO RANCO" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
+  <calcPr calcId="0" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="CalcA1ExcelA1"/>
@@ -22,1194 +27,1181 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1006" uniqueCount="379">
   <si>
-    <t xml:space="preserve">RUT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DV</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NOMBRES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PRIMER APELLIDO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SEGUNDO APELLIDO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RBD</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ESTABLECIMIENTO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CURSO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PESO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TALLA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MENARQUIA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DIAGNOSTICO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FECHA EVALUACION</t>
-  </si>
-  <si>
-    <t xml:space="preserve">JUAN ALBERTO ANTONIO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ALMENDRAS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ALDERETE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ESCUELA RURAL ILIHUE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7° básico</t>
-  </si>
-  <si>
-    <t xml:space="preserve">nc</t>
-  </si>
-  <si>
-    <t xml:space="preserve">escoliosis</t>
-  </si>
-  <si>
-    <t xml:space="preserve">K</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ANITA BELÉN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GONZALEZ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PÉREZ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">normal</t>
-  </si>
-  <si>
-    <t xml:space="preserve">JAVIER ALEJANDRO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NAHUELPÁN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VALENCIA</t>
+    <t>RUT</t>
+  </si>
+  <si>
+    <t>DV</t>
+  </si>
+  <si>
+    <t>NOMBRES</t>
+  </si>
+  <si>
+    <t>PRIMER APELLIDO</t>
+  </si>
+  <si>
+    <t>SEGUNDO APELLIDO</t>
+  </si>
+  <si>
+    <t>RBD</t>
+  </si>
+  <si>
+    <t>ESTABLECIMIENTO</t>
+  </si>
+  <si>
+    <t>CURSO</t>
+  </si>
+  <si>
+    <t>PESO</t>
+  </si>
+  <si>
+    <t>TALLA</t>
+  </si>
+  <si>
+    <t>MENARQUIA</t>
+  </si>
+  <si>
+    <t>DIAGNOSTICO</t>
+  </si>
+  <si>
+    <t>FECHA EVALUACION</t>
+  </si>
+  <si>
+    <t>JUAN ALBERTO ANTONIO</t>
+  </si>
+  <si>
+    <t>ALMENDRAS</t>
+  </si>
+  <si>
+    <t>ALDERETE</t>
+  </si>
+  <si>
+    <t>ESCUELA RURAL ILIHUE</t>
+  </si>
+  <si>
+    <t>7° básico</t>
+  </si>
+  <si>
+    <t>nc</t>
+  </si>
+  <si>
+    <t>escoliosis</t>
+  </si>
+  <si>
+    <t>K</t>
+  </si>
+  <si>
+    <t>ANITA BELÉN</t>
+  </si>
+  <si>
+    <t>GONZALEZ</t>
+  </si>
+  <si>
+    <t>PÉREZ</t>
+  </si>
+  <si>
+    <t>normal</t>
+  </si>
+  <si>
+    <t>JAVIER ALEJANDRO</t>
+  </si>
+  <si>
+    <t>NAHUELPÁN</t>
+  </si>
+  <si>
+    <t>VALENCIA</t>
   </si>
   <si>
     <t xml:space="preserve">escoliosis </t>
   </si>
   <si>
-    <t xml:space="preserve">DIEGO ALEJANDRO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SOLÍS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">REYES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dorsocurvo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FABIANO ALONSO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FERREIRA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ESPINOZA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ESCUELA RURAL RIÑINAHUE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SOFÍA CONSTANZA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MORALES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CARIHUANTE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MAITE ANAÍS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">QUEZADA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GÓMEZ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ALAN JOSUE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MAUREIRA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ALEJANDRO ALBERTO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VILLANUEVA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BARRIENTOS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SOFÍA ANTONELLA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CORTÉS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HADA LILIANA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MANCILLA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MUÑOZ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">no</t>
-  </si>
-  <si>
-    <t xml:space="preserve">JAVIERA LISETT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NANCO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GALLEGOS</t>
+    <t>DIEGO ALEJANDRO</t>
+  </si>
+  <si>
+    <t>SOLÍS</t>
+  </si>
+  <si>
+    <t>REYES</t>
+  </si>
+  <si>
+    <t>dorsocurvo</t>
+  </si>
+  <si>
+    <t>FABIANO ALONSO</t>
+  </si>
+  <si>
+    <t>FERREIRA</t>
+  </si>
+  <si>
+    <t>ESPINOZA</t>
+  </si>
+  <si>
+    <t>ESCUELA RURAL RIÑINAHUE</t>
+  </si>
+  <si>
+    <t>SOFÍA CONSTANZA</t>
+  </si>
+  <si>
+    <t>MORALES</t>
+  </si>
+  <si>
+    <t>CARIHUANTE</t>
+  </si>
+  <si>
+    <t>MAITE ANAÍS</t>
+  </si>
+  <si>
+    <t>QUEZADA</t>
+  </si>
+  <si>
+    <t>GÓMEZ</t>
+  </si>
+  <si>
+    <t>ALAN JOSUE</t>
+  </si>
+  <si>
+    <t>MAUREIRA</t>
+  </si>
+  <si>
+    <t>ALEJANDRO ALBERTO</t>
+  </si>
+  <si>
+    <t>VILLANUEVA</t>
+  </si>
+  <si>
+    <t>BARRIENTOS</t>
+  </si>
+  <si>
+    <t>SOFÍA ANTONELLA</t>
+  </si>
+  <si>
+    <t>CORTÉS</t>
+  </si>
+  <si>
+    <t>HADA LILIANA</t>
+  </si>
+  <si>
+    <t>MANCILLA</t>
+  </si>
+  <si>
+    <t>MUÑOZ</t>
+  </si>
+  <si>
+    <t>no</t>
+  </si>
+  <si>
+    <t>JAVIERA LISETT</t>
+  </si>
+  <si>
+    <t>NANCO</t>
+  </si>
+  <si>
+    <t>GALLEGOS</t>
   </si>
   <si>
     <t xml:space="preserve">dorsocurvo </t>
   </si>
   <si>
-    <t xml:space="preserve">FRANCHESCA IVONNE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NEIRA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HUENCHUÑIR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LUIS ANGEL MATEO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SANTANDER</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CALCUMIL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BENLLAMIN OLIVER</t>
-  </si>
-  <si>
-    <t xml:space="preserve">JAVIER ALEXIS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ASENJO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VIDAL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AMANDA YAMILETT ANDREA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BURGOS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GONZÁLEZ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GAMALIEL GEDEON</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CUYAN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DIANA MARCELA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">JARAMILLO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VICENTE LUCIANO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LUKSIC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ZEPEDA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BAIRON MIGUEL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">OJEDA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MAGDALENA TABITA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CIFUENTES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LOUMARY VALENTINA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PEREZ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LUZARDO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">JAIRO ABRAHAM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ANCACURA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SALINAS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ESCUELA PARTICULAR CARRÁN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BENJAMÍN ALEXIS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ARROYO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MIRANDA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FERNANDO TOMÁS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VARGAS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">escoliosis-dorsocurvo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ROBERTO IGNACIO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CATRIHUAL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BRANA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FRANCISCO MAXIMILIANO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LUCAS DAMIAN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CORTEZ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">YAZMIN ELIZABETH</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CUPRA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MENDOZA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MATÍAS ANDRÉS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CURIFIL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RODRIGUEZ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SARAY ANGELINA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FERNÁNDEZ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">KARINA JASMIN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DELGADO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EDUARDO IGNACIO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ROJAS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CÁRCAMO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ISAAC HARDY</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VILLEGAS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MARDONEZ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TOMÁS MISAEL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ZÚÑIGA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AÑICOY</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FÉLIX LEONARDO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CÁRDENAS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LAV</t>
-  </si>
-  <si>
-    <t xml:space="preserve">JOSHUAN ALEJANDRO HERNÁN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LEPICHEO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EMILIA ISABELLA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BRAVO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SERRANO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BELÉN RAYEN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RAMÍREZ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AMAYA YOHANDRA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RUIZ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">COMULAY</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SIMÓN ALONSO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GUTIÉRREZ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DÍAZ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MARÍA JESÚS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">URRA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RÍOS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AILYN AMANDA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HUAIQUI</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SEBASTIÁN DAVID ALEXANDER</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CALFUEQUE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VILLA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TOMÁS VICENTE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">escoliosis diagnosticada con corse</t>
-  </si>
-  <si>
-    <t xml:space="preserve">JEREMÍAS ISAAC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ALEXANDER MAXIMILIANO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AGUIRRE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GRACIELA EDUARDA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">YUZET ANDREA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ANTIHUAL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CALFULEF</t>
-  </si>
-  <si>
-    <t xml:space="preserve">nornal</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EMANUEL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ARANGO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TABORDA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CRISTÓBAL HERNÁN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RIQUELME</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FRANCO GABRIEL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SEBASTIÁN IGNACIO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VIVAR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BASTIÁN EDUARDO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FOITZICK</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ALIQUINTUE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NICOLÁS ALEJANDRO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CARRILLO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GABRIEL ADOLFO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DURÁN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SOFÍA CATALINA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RUDOLPH</t>
-  </si>
-  <si>
-    <t xml:space="preserve">URIBE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VALERIA ESTHER</t>
-  </si>
-  <si>
-    <t xml:space="preserve">JEFFERSON</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NO AUTORIZADA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ASTRID BELÉN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VEGA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MEZA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SAMUEL IGNACIO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VERA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FARÍAS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ISIDORA ALINE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">COSSIO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LEBNY LUCAS BENJAMÍN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">QUIJADA</t>
+    <t>FRANCHESCA IVONNE</t>
+  </si>
+  <si>
+    <t>NEIRA</t>
+  </si>
+  <si>
+    <t>HUENCHUÑIR</t>
+  </si>
+  <si>
+    <t>LUIS ANGEL MATEO</t>
+  </si>
+  <si>
+    <t>SANTANDER</t>
+  </si>
+  <si>
+    <t>CALCUMIL</t>
+  </si>
+  <si>
+    <t>BENLLAMIN OLIVER</t>
+  </si>
+  <si>
+    <t>JAVIER ALEXIS</t>
+  </si>
+  <si>
+    <t>ASENJO</t>
+  </si>
+  <si>
+    <t>VIDAL</t>
+  </si>
+  <si>
+    <t>AMANDA YAMILETT ANDREA</t>
+  </si>
+  <si>
+    <t>BURGOS</t>
+  </si>
+  <si>
+    <t>GONZÁLEZ</t>
+  </si>
+  <si>
+    <t>GAMALIEL GEDEON</t>
+  </si>
+  <si>
+    <t>CUYAN</t>
+  </si>
+  <si>
+    <t>DIANA MARCELA</t>
+  </si>
+  <si>
+    <t>JARAMILLO</t>
+  </si>
+  <si>
+    <t>VICENTE LUCIANO</t>
+  </si>
+  <si>
+    <t>LUKSIC</t>
+  </si>
+  <si>
+    <t>ZEPEDA</t>
+  </si>
+  <si>
+    <t>BAIRON MIGUEL</t>
+  </si>
+  <si>
+    <t>OJEDA</t>
+  </si>
+  <si>
+    <t>MAGDALENA TABITA</t>
+  </si>
+  <si>
+    <t>CIFUENTES</t>
+  </si>
+  <si>
+    <t>LOUMARY VALENTINA</t>
+  </si>
+  <si>
+    <t>PEREZ</t>
+  </si>
+  <si>
+    <t>LUZARDO</t>
+  </si>
+  <si>
+    <t>JAIRO ABRAHAM</t>
+  </si>
+  <si>
+    <t>ANCACURA</t>
+  </si>
+  <si>
+    <t>SALINAS</t>
+  </si>
+  <si>
+    <t>ESCUELA PARTICULAR CARRÁN</t>
+  </si>
+  <si>
+    <t>BENJAMÍN ALEXIS</t>
+  </si>
+  <si>
+    <t>ARROYO</t>
+  </si>
+  <si>
+    <t>MIRANDA</t>
+  </si>
+  <si>
+    <t>FERNANDO TOMÁS</t>
+  </si>
+  <si>
+    <t>VARGAS</t>
+  </si>
+  <si>
+    <t>escoliosis-dorsocurvo</t>
+  </si>
+  <si>
+    <t>ROBERTO IGNACIO</t>
+  </si>
+  <si>
+    <t>CATRIHUAL</t>
+  </si>
+  <si>
+    <t>BRANA</t>
+  </si>
+  <si>
+    <t>FRANCISCO MAXIMILIANO</t>
+  </si>
+  <si>
+    <t>LUCAS DAMIAN</t>
+  </si>
+  <si>
+    <t>CORTEZ</t>
+  </si>
+  <si>
+    <t>YAZMIN ELIZABETH</t>
+  </si>
+  <si>
+    <t>CUPRA</t>
+  </si>
+  <si>
+    <t>MENDOZA</t>
+  </si>
+  <si>
+    <t>MATÍAS ANDRÉS</t>
+  </si>
+  <si>
+    <t>CURIFIL</t>
+  </si>
+  <si>
+    <t>RODRIGUEZ</t>
+  </si>
+  <si>
+    <t>SARAY ANGELINA</t>
+  </si>
+  <si>
+    <t>FERNÁNDEZ</t>
+  </si>
+  <si>
+    <t>KARINA JASMIN</t>
+  </si>
+  <si>
+    <t>DELGADO</t>
+  </si>
+  <si>
+    <t>EDUARDO IGNACIO</t>
+  </si>
+  <si>
+    <t>ROJAS</t>
+  </si>
+  <si>
+    <t>CÁRCAMO</t>
+  </si>
+  <si>
+    <t>ISAAC HARDY</t>
+  </si>
+  <si>
+    <t>VILLEGAS</t>
+  </si>
+  <si>
+    <t>MARDONEZ</t>
+  </si>
+  <si>
+    <t>TOMÁS MISAEL</t>
+  </si>
+  <si>
+    <t>ZÚÑIGA</t>
+  </si>
+  <si>
+    <t>AÑICOY</t>
+  </si>
+  <si>
+    <t>FÉLIX LEONARDO</t>
+  </si>
+  <si>
+    <t>CÁRDENAS</t>
+  </si>
+  <si>
+    <t>LAV</t>
+  </si>
+  <si>
+    <t>JOSHUAN ALEJANDRO HERNÁN</t>
+  </si>
+  <si>
+    <t>LEPICHEO</t>
+  </si>
+  <si>
+    <t>EMILIA ISABELLA</t>
+  </si>
+  <si>
+    <t>BRAVO</t>
+  </si>
+  <si>
+    <t>SERRANO</t>
+  </si>
+  <si>
+    <t>BELÉN RAYEN</t>
+  </si>
+  <si>
+    <t>RAMÍREZ</t>
+  </si>
+  <si>
+    <t>AMAYA YOHANDRA</t>
+  </si>
+  <si>
+    <t>RUIZ</t>
+  </si>
+  <si>
+    <t>COMULAY</t>
+  </si>
+  <si>
+    <t>SIMÓN ALONSO</t>
+  </si>
+  <si>
+    <t>GUTIÉRREZ</t>
+  </si>
+  <si>
+    <t>DÍAZ</t>
+  </si>
+  <si>
+    <t>MARÍA JESÚS</t>
+  </si>
+  <si>
+    <t>URRA</t>
+  </si>
+  <si>
+    <t>RÍOS</t>
+  </si>
+  <si>
+    <t>AILYN AMANDA</t>
+  </si>
+  <si>
+    <t>HUAIQUI</t>
+  </si>
+  <si>
+    <t>SEBASTIÁN DAVID ALEXANDER</t>
+  </si>
+  <si>
+    <t>CALFUEQUE</t>
+  </si>
+  <si>
+    <t>VILLA</t>
+  </si>
+  <si>
+    <t>TOMÁS VICENTE</t>
+  </si>
+  <si>
+    <t>escoliosis diagnosticada con corse</t>
+  </si>
+  <si>
+    <t>JEREMÍAS ISAAC</t>
+  </si>
+  <si>
+    <t>ALEXANDER MAXIMILIANO</t>
+  </si>
+  <si>
+    <t>AGUIRRE</t>
+  </si>
+  <si>
+    <t>GRACIELA EDUARDA</t>
+  </si>
+  <si>
+    <t>YUZET ANDREA</t>
+  </si>
+  <si>
+    <t>ANTIHUAL</t>
+  </si>
+  <si>
+    <t>CALFULEF</t>
+  </si>
+  <si>
+    <t>nornal</t>
+  </si>
+  <si>
+    <t>EMANUEL</t>
+  </si>
+  <si>
+    <t>ARANGO</t>
+  </si>
+  <si>
+    <t>TABORDA</t>
+  </si>
+  <si>
+    <t>CRISTÓBAL HERNÁN</t>
+  </si>
+  <si>
+    <t>RIQUELME</t>
+  </si>
+  <si>
+    <t>FRANCO GABRIEL</t>
+  </si>
+  <si>
+    <t>SEBASTIÁN IGNACIO</t>
+  </si>
+  <si>
+    <t>VIVAR</t>
+  </si>
+  <si>
+    <t>BASTIÁN EDUARDO</t>
+  </si>
+  <si>
+    <t>FOITZICK</t>
+  </si>
+  <si>
+    <t>ALIQUINTUE</t>
+  </si>
+  <si>
+    <t>NICOLÁS ALEJANDRO</t>
+  </si>
+  <si>
+    <t>CARRILLO</t>
+  </si>
+  <si>
+    <t>GABRIEL ADOLFO</t>
+  </si>
+  <si>
+    <t>DURÁN</t>
+  </si>
+  <si>
+    <t>SOFÍA CATALINA</t>
+  </si>
+  <si>
+    <t>RUDOLPH</t>
+  </si>
+  <si>
+    <t>URIBE</t>
+  </si>
+  <si>
+    <t>VALERIA ESTHER</t>
+  </si>
+  <si>
+    <t>JEFFERSON</t>
+  </si>
+  <si>
+    <t>NO AUTORIZADA</t>
+  </si>
+  <si>
+    <t>ASTRID BELÉN</t>
+  </si>
+  <si>
+    <t>VEGA</t>
+  </si>
+  <si>
+    <t>MEZA</t>
+  </si>
+  <si>
+    <t>SAMUEL IGNACIO</t>
+  </si>
+  <si>
+    <t>VERA</t>
+  </si>
+  <si>
+    <t>FARÍAS</t>
+  </si>
+  <si>
+    <t>ISIDORA ALINE</t>
+  </si>
+  <si>
+    <t>COSSIO</t>
+  </si>
+  <si>
+    <t>LEBNY LUCAS BENJAMÍN</t>
+  </si>
+  <si>
+    <t>QUIJADA</t>
   </si>
   <si>
     <t xml:space="preserve">normal </t>
   </si>
   <si>
-    <t xml:space="preserve">ANAHIS DANIELA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LOPETEGUI</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TRONCOSO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">JAVIERA AILYNNE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MELIÁN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AVILÉS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SEBASTIÁN ALEXIS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MELLA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VEJAR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">YULIANA SOFÍA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MEZAS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">OVANDO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">KONSTANZA ALEXANDRA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NAVARRETE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ORMEÑO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">JAIME FÉLIX</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RAILLANCA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">JORGE JEREMÍAS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ÁVILA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NAILLANCA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CAROLINA TAMARA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">URRUTIA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LUCAS IGNACIO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">OSORIO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PEZO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ARANTZA ANTONIA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CUBILLOS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PAREDES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FERNANDO LIONEL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">REQUENA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GALLARDO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MARTÍN LEÓN IGNACIO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ARIAS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MONTECINOS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AIXA JAVIERA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CARES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MILLAFILO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LEÓN IGNACIO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ALMENDRA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SOFÍA MARIANEE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">QUILLAPAN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FREDERICKSEN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ALONSO ZADQUIEL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MENESES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MARTÍN IGNACIO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CORONADO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LEMUS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SANTIAGO EMILIO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GAJARDO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AMPUERO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ausente</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FABIANA IGNACIA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">POBLETE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ESTRADA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AMARILIZ ANMARIE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TORRES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ANCAO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RENATO AUGUSTO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SUÁREZ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BAHAMONDES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GABRIEL EMILIO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ALTAMIRANO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MAIRA ANGELINA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SALGADO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SILVA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DILAN ALEJANDRO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GUENTREPAN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ALEXIS DANIEL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HORMAZÁBAL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SARA MARISOL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HOTT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VICUÑA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ALEXIS ANDRÉS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HUENTREPAN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ROA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CLAUDIO JOSÉ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HUEQUELEF</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FLORENCIA NOEMÍ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SIMÓN IGNACIO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MONSALVE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NÚÑEZ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CARLOS FELIPE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GABRIEL ALEJANDRO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PICHICONA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LLANCAN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ANTONELLA ISIDORA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PRADINES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">JOSÉ DAVID</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RAILÉN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VALENTINA PAZ ANTONIA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RODRÍGUEZ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DAIANA ALEXANDRA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ROMERO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">JAVIERA DEL PILAR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SAN MARTÍN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MANUEL ANTONIO VICENTE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LARA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BERNARDITA ELENA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ARRIAGADA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MOLINA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ANTONIA LETICIA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VELÁSQUEZ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VICENTE IGNACIO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MARIANA EDITH</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LOBOS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CRISTÓBAL FRANCISCO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GENESIS CAMILA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FUENTES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MAYTE JENNIFER</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ALVIAL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">KEVIN ESTEBAN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CUMILA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CASTRO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SOTO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">JAVIER VALENTÍN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MATEO IGNACIO ALEJANDRO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LBCEI</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BENJAMÍN ALEXANDER</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BENAVIDES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MARTINA AMARAL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CALZADILLAS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CATALINA ANTONIA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ALEJANDRO IGNACIO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DARÍO ALEJANDRO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">JARA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PÍA PASKAL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CELEDÓN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AROS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CAROLINA PAZ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DAMIÁN ANDRÉS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">INGAR ADELEN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BENJAMÍN ALONSO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MEDINA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FELIPE ANDRÉS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MARTINEZ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MÁRQUEZ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">JOSÉ IGNACIO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MARTÍNEZ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CRISTÓBAL ALEJANDRO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">OBANDO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PALMA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MATÍAS IGNACIO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CUMPLIDO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SAYD OCTAVIO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ALARCON</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MASIEL ESTEFANÍA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ASTORGA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LÓPEZ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">no autorizada</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AILHEN PASCAL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ANGELA AYLEEN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ANGELINA DE JESÚS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RAFAELA IGNACIA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">OYARCE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CAMILO ANTONIO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TRANAMIL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CASTILLO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FRANCO IGNACIO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GARCÉS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VICENTE ANTONIO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MALDONADO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">09-05-0204</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DOMINIQUE ESTEFANÍA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">QUIÑONES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BASTIÁN IGNACIO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RIVAS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VIVANCO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">normal.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">JOSEPHT ALBERTO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VALENTINA FERNANDA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ROXANI DEL CARMEN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SANTANA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">JEREMÍAS ALFONSO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">JOSEFINA ANTONIA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FERNANDO ANDRES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LABBÉ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AYLIN ISAMAR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PINEDA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">JOSÉ TOMÁS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">QUICHEL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">YESSENIA ALEXANDRA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">COÑAPI</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LONCOMILLA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DAVID MATÍAS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CUEVAS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CATALINA BELÉN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HUINCA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SOFÍA ANDREA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CATALÁN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EDUARDO JAVIER</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SANHUEZA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LEAL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">JADEN ALEXANDER</t>
+    <t>ANAHIS DANIELA</t>
+  </si>
+  <si>
+    <t>LOPETEGUI</t>
+  </si>
+  <si>
+    <t>TRONCOSO</t>
+  </si>
+  <si>
+    <t>JAVIERA AILYNNE</t>
+  </si>
+  <si>
+    <t>MELIÁN</t>
+  </si>
+  <si>
+    <t>AVILÉS</t>
+  </si>
+  <si>
+    <t>SEBASTIÁN ALEXIS</t>
+  </si>
+  <si>
+    <t>MELLA</t>
+  </si>
+  <si>
+    <t>VEJAR</t>
+  </si>
+  <si>
+    <t>YULIANA SOFÍA</t>
+  </si>
+  <si>
+    <t>MEZAS</t>
+  </si>
+  <si>
+    <t>OVANDO</t>
+  </si>
+  <si>
+    <t>KONSTANZA ALEXANDRA</t>
+  </si>
+  <si>
+    <t>NAVARRETE</t>
+  </si>
+  <si>
+    <t>ORMEÑO</t>
+  </si>
+  <si>
+    <t>JAIME FÉLIX</t>
+  </si>
+  <si>
+    <t>RAILLANCA</t>
+  </si>
+  <si>
+    <t>JORGE JEREMÍAS</t>
+  </si>
+  <si>
+    <t>ÁVILA</t>
+  </si>
+  <si>
+    <t>NAILLANCA</t>
+  </si>
+  <si>
+    <t>CAROLINA TAMARA</t>
+  </si>
+  <si>
+    <t>URRUTIA</t>
+  </si>
+  <si>
+    <t>LUCAS IGNACIO</t>
+  </si>
+  <si>
+    <t>OSORIO</t>
+  </si>
+  <si>
+    <t>PEZO</t>
+  </si>
+  <si>
+    <t>ARANTZA ANTONIA</t>
+  </si>
+  <si>
+    <t>CUBILLOS</t>
+  </si>
+  <si>
+    <t>PAREDES</t>
+  </si>
+  <si>
+    <t>FERNANDO LIONEL</t>
+  </si>
+  <si>
+    <t>REQUENA</t>
+  </si>
+  <si>
+    <t>GALLARDO</t>
+  </si>
+  <si>
+    <t>MARTÍN LEÓN IGNACIO</t>
+  </si>
+  <si>
+    <t>ARIAS</t>
+  </si>
+  <si>
+    <t>MONTECINOS</t>
+  </si>
+  <si>
+    <t>AIXA JAVIERA</t>
+  </si>
+  <si>
+    <t>CARES</t>
+  </si>
+  <si>
+    <t>MILLAFILO</t>
+  </si>
+  <si>
+    <t>LEÓN IGNACIO</t>
+  </si>
+  <si>
+    <t>ALMENDRA</t>
+  </si>
+  <si>
+    <t>SOFÍA MARIANEE</t>
+  </si>
+  <si>
+    <t>QUILLAPAN</t>
+  </si>
+  <si>
+    <t>FREDERICKSEN</t>
+  </si>
+  <si>
+    <t>ALONSO ZADQUIEL</t>
+  </si>
+  <si>
+    <t>MENESES</t>
+  </si>
+  <si>
+    <t>MARTÍN IGNACIO</t>
+  </si>
+  <si>
+    <t>CORONADO</t>
+  </si>
+  <si>
+    <t>LEMUS</t>
+  </si>
+  <si>
+    <t>SANTIAGO EMILIO</t>
+  </si>
+  <si>
+    <t>GAJARDO</t>
+  </si>
+  <si>
+    <t>AMPUERO</t>
+  </si>
+  <si>
+    <t>ausente</t>
+  </si>
+  <si>
+    <t>FABIANA IGNACIA</t>
+  </si>
+  <si>
+    <t>POBLETE</t>
+  </si>
+  <si>
+    <t>ESTRADA</t>
+  </si>
+  <si>
+    <t>AMARILIZ ANMARIE</t>
+  </si>
+  <si>
+    <t>TORRES</t>
+  </si>
+  <si>
+    <t>ANCAO</t>
+  </si>
+  <si>
+    <t>RENATO AUGUSTO</t>
+  </si>
+  <si>
+    <t>SUÁREZ</t>
+  </si>
+  <si>
+    <t>BAHAMONDES</t>
+  </si>
+  <si>
+    <t>GABRIEL EMILIO</t>
+  </si>
+  <si>
+    <t>ALTAMIRANO</t>
+  </si>
+  <si>
+    <t>MAIRA ANGELINA</t>
+  </si>
+  <si>
+    <t>SALGADO</t>
+  </si>
+  <si>
+    <t>SILVA</t>
+  </si>
+  <si>
+    <t>DILAN ALEJANDRO</t>
+  </si>
+  <si>
+    <t>GUENTREPAN</t>
+  </si>
+  <si>
+    <t>ALEXIS DANIEL</t>
+  </si>
+  <si>
+    <t>HORMAZÁBAL</t>
+  </si>
+  <si>
+    <t>SARA MARISOL</t>
+  </si>
+  <si>
+    <t>HOTT</t>
+  </si>
+  <si>
+    <t>VICUÑA</t>
+  </si>
+  <si>
+    <t>ALEXIS ANDRÉS</t>
+  </si>
+  <si>
+    <t>HUENTREPAN</t>
+  </si>
+  <si>
+    <t>ROA</t>
+  </si>
+  <si>
+    <t>CLAUDIO JOSÉ</t>
+  </si>
+  <si>
+    <t>HUEQUELEF</t>
+  </si>
+  <si>
+    <t>FLORENCIA NOEMÍ</t>
+  </si>
+  <si>
+    <t>SIMÓN IGNACIO</t>
+  </si>
+  <si>
+    <t>MONSALVE</t>
+  </si>
+  <si>
+    <t>NÚÑEZ</t>
+  </si>
+  <si>
+    <t>CARLOS FELIPE</t>
+  </si>
+  <si>
+    <t>GABRIEL ALEJANDRO</t>
+  </si>
+  <si>
+    <t>PICHICONA</t>
+  </si>
+  <si>
+    <t>LLANCAN</t>
+  </si>
+  <si>
+    <t>ANTONELLA ISIDORA</t>
+  </si>
+  <si>
+    <t>PRADINES</t>
+  </si>
+  <si>
+    <t>JOSÉ DAVID</t>
+  </si>
+  <si>
+    <t>RAILÉN</t>
+  </si>
+  <si>
+    <t>VALENTINA PAZ ANTONIA</t>
+  </si>
+  <si>
+    <t>RODRÍGUEZ</t>
+  </si>
+  <si>
+    <t>DAIANA ALEXANDRA</t>
+  </si>
+  <si>
+    <t>ROMERO</t>
+  </si>
+  <si>
+    <t>JAVIERA DEL PILAR</t>
+  </si>
+  <si>
+    <t>SAN MARTÍN</t>
+  </si>
+  <si>
+    <t>MANUEL ANTONIO VICENTE</t>
+  </si>
+  <si>
+    <t>LARA</t>
+  </si>
+  <si>
+    <t>BERNARDITA ELENA</t>
+  </si>
+  <si>
+    <t>ARRIAGADA</t>
+  </si>
+  <si>
+    <t>MOLINA</t>
+  </si>
+  <si>
+    <t>ANTONIA LETICIA</t>
+  </si>
+  <si>
+    <t>VELÁSQUEZ</t>
+  </si>
+  <si>
+    <t>VICENTE IGNACIO</t>
+  </si>
+  <si>
+    <t>MARIANA EDITH</t>
+  </si>
+  <si>
+    <t>LOBOS</t>
+  </si>
+  <si>
+    <t>CRISTÓBAL FRANCISCO</t>
+  </si>
+  <si>
+    <t>GENESIS CAMILA</t>
+  </si>
+  <si>
+    <t>FUENTES</t>
+  </si>
+  <si>
+    <t>MAYTE JENNIFER</t>
+  </si>
+  <si>
+    <t>ALVIAL</t>
+  </si>
+  <si>
+    <t>KEVIN ESTEBAN</t>
+  </si>
+  <si>
+    <t>CUMILA</t>
+  </si>
+  <si>
+    <t>CASTRO</t>
+  </si>
+  <si>
+    <t>SOTO</t>
+  </si>
+  <si>
+    <t>JAVIER VALENTÍN</t>
+  </si>
+  <si>
+    <t>MATEO IGNACIO ALEJANDRO</t>
+  </si>
+  <si>
+    <t>LBCEI</t>
+  </si>
+  <si>
+    <t>BENJAMÍN ALEXANDER</t>
+  </si>
+  <si>
+    <t>BENAVIDES</t>
+  </si>
+  <si>
+    <t>MARTINA AMARAL</t>
+  </si>
+  <si>
+    <t>CALZADILLAS</t>
+  </si>
+  <si>
+    <t>CATALINA ANTONIA</t>
+  </si>
+  <si>
+    <t>ALEJANDRO IGNACIO</t>
+  </si>
+  <si>
+    <t>DARÍO ALEJANDRO</t>
+  </si>
+  <si>
+    <t>JARA</t>
+  </si>
+  <si>
+    <t>PÍA PASKAL</t>
+  </si>
+  <si>
+    <t>CELEDÓN</t>
+  </si>
+  <si>
+    <t>AROS</t>
+  </si>
+  <si>
+    <t>CAROLINA PAZ</t>
+  </si>
+  <si>
+    <t>DAMIÁN ANDRÉS</t>
+  </si>
+  <si>
+    <t>INGAR ADELEN</t>
+  </si>
+  <si>
+    <t>BENJAMÍN ALONSO</t>
+  </si>
+  <si>
+    <t>MEDINA</t>
+  </si>
+  <si>
+    <t>FELIPE ANDRÉS</t>
+  </si>
+  <si>
+    <t>MARTINEZ</t>
+  </si>
+  <si>
+    <t>MÁRQUEZ</t>
+  </si>
+  <si>
+    <t>JOSÉ IGNACIO</t>
+  </si>
+  <si>
+    <t>MARTÍNEZ</t>
+  </si>
+  <si>
+    <t>CRISTÓBAL ALEJANDRO</t>
+  </si>
+  <si>
+    <t>OBANDO</t>
+  </si>
+  <si>
+    <t>PALMA</t>
+  </si>
+  <si>
+    <t>MATÍAS IGNACIO</t>
+  </si>
+  <si>
+    <t>CUMPLIDO</t>
+  </si>
+  <si>
+    <t>SAYD OCTAVIO</t>
+  </si>
+  <si>
+    <t>ALARCON</t>
+  </si>
+  <si>
+    <t>MASIEL ESTEFANÍA</t>
+  </si>
+  <si>
+    <t>ASTORGA</t>
+  </si>
+  <si>
+    <t>LÓPEZ</t>
+  </si>
+  <si>
+    <t>no autorizada</t>
+  </si>
+  <si>
+    <t>AILHEN PASCAL</t>
+  </si>
+  <si>
+    <t>ANGELA AYLEEN</t>
+  </si>
+  <si>
+    <t>ANGELINA DE JESÚS</t>
+  </si>
+  <si>
+    <t>RAFAELA IGNACIA</t>
+  </si>
+  <si>
+    <t>OYARCE</t>
+  </si>
+  <si>
+    <t>CAMILO ANTONIO</t>
+  </si>
+  <si>
+    <t>TRANAMIL</t>
+  </si>
+  <si>
+    <t>CASTILLO</t>
+  </si>
+  <si>
+    <t>FRANCO IGNACIO</t>
+  </si>
+  <si>
+    <t>GARCÉS</t>
+  </si>
+  <si>
+    <t>VICENTE ANTONIO</t>
+  </si>
+  <si>
+    <t>MALDONADO</t>
+  </si>
+  <si>
+    <t>09-05-0204</t>
+  </si>
+  <si>
+    <t>DOMINIQUE ESTEFANÍA</t>
+  </si>
+  <si>
+    <t>QUIÑONES</t>
+  </si>
+  <si>
+    <t>BASTIÁN IGNACIO</t>
+  </si>
+  <si>
+    <t>RIVAS</t>
+  </si>
+  <si>
+    <t>VIVANCO</t>
+  </si>
+  <si>
+    <t>normal.</t>
+  </si>
+  <si>
+    <t>JOSEPHT ALBERTO</t>
+  </si>
+  <si>
+    <t>VALENTINA FERNANDA</t>
+  </si>
+  <si>
+    <t>ROXANI DEL CARMEN</t>
+  </si>
+  <si>
+    <t>SANTANA</t>
+  </si>
+  <si>
+    <t>JEREMÍAS ALFONSO</t>
+  </si>
+  <si>
+    <t>JOSEFINA ANTONIA</t>
+  </si>
+  <si>
+    <t>FERNANDO ANDRES</t>
+  </si>
+  <si>
+    <t>LABBÉ</t>
+  </si>
+  <si>
+    <t>AYLIN ISAMAR</t>
+  </si>
+  <si>
+    <t>PINEDA</t>
+  </si>
+  <si>
+    <t>JOSÉ TOMÁS</t>
+  </si>
+  <si>
+    <t>QUICHEL</t>
+  </si>
+  <si>
+    <t>YESSENIA ALEXANDRA</t>
+  </si>
+  <si>
+    <t>COÑAPI</t>
+  </si>
+  <si>
+    <t>LONCOMILLA</t>
+  </si>
+  <si>
+    <t>DAVID MATÍAS</t>
+  </si>
+  <si>
+    <t>CUEVAS</t>
+  </si>
+  <si>
+    <t>CATALINA BELÉN</t>
+  </si>
+  <si>
+    <t>HUINCA</t>
+  </si>
+  <si>
+    <t>SOFÍA ANDREA</t>
+  </si>
+  <si>
+    <t>CATALÁN</t>
+  </si>
+  <si>
+    <t>EDUARDO JAVIER</t>
+  </si>
+  <si>
+    <t>SANHUEZA</t>
+  </si>
+  <si>
+    <t>LEAL</t>
+  </si>
+  <si>
+    <t>JADEN ALEXANDER</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="3">
-    <numFmt numFmtId="164" formatCode="General"/>
-    <numFmt numFmtId="165" formatCode="dd\-mm\-yyyy"/>
-    <numFmt numFmtId="166" formatCode="dd\-mm\-yyyy\."/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="dd\-mm\-yyyy"/>
+    <numFmt numFmtId="165" formatCode="dd\-mm\-yyyy\."/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="5">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
-      <family val="0"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="&quot;Aptos Narrow&quot;"/>
-      <family val="0"/>
       <charset val="1"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Arial"/>
-      <family val="0"/>
       <charset val="1"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="&quot;Aptos Narrow&quot;"/>
-      <family val="0"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="&quot;Aptos Narrow&quot;"/>
       <charset val="1"/>
     </font>
   </fonts>
@@ -1222,146 +1214,116 @@
     </fill>
   </fills>
   <borders count="2">
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="20">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="9">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
-  <cellStyles count="6">
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
         <a:srgbClr val="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:srgbClr val="ffffff"/>
+        <a:srgbClr val="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="000000"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="ffffff"/>
+        <a:srgbClr val="FFFFFF"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4285f4"/>
+        <a:srgbClr val="4285F4"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="ea4335"/>
+        <a:srgbClr val="EA4335"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="fbbc04"/>
+        <a:srgbClr val="FBBC04"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="34a853"/>
+        <a:srgbClr val="34A853"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="ff6d01"/>
+        <a:srgbClr val="FF6D01"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="46bdc6"/>
+        <a:srgbClr val="46BDC6"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="1155cc"/>
+        <a:srgbClr val="1155CC"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="1155cc"/>
+        <a:srgbClr val="1155CC"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Sheets">
       <a:majorFont>
-        <a:latin typeface="Arial" pitchFamily="0" charset="1"/>
-        <a:ea typeface="Arial" pitchFamily="0" charset="1"/>
-        <a:cs typeface="Arial" pitchFamily="0" charset="1"/>
+        <a:latin typeface="Arial"/>
+        <a:ea typeface="Arial"/>
+        <a:cs typeface="Arial"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Arial" pitchFamily="0" charset="1"/>
-        <a:ea typeface="Arial" pitchFamily="0" charset="1"/>
-        <a:cs typeface="Arial" pitchFamily="0" charset="1"/>
+        <a:latin typeface="Arial"/>
+        <a:ea typeface="Arial"/>
+        <a:cs typeface="Arial"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme>
@@ -1391,7 +1353,7 @@
             </a:gs>
           </a:gsLst>
           <a:lin ang="5400000" scaled="0"/>
-          <a:tileRect l="0" t="0" r="0" b="0"/>
+          <a:tileRect/>
         </a:gradFill>
         <a:gradFill>
           <a:gsLst>
@@ -1415,7 +1377,7 @@
             </a:gs>
           </a:gsLst>
           <a:lin ang="5400000" scaled="0"/>
-          <a:tileRect l="0" t="0" r="0" b="0"/>
+          <a:tileRect/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
@@ -1475,38 +1437,37 @@
             </a:gs>
           </a:gsLst>
           <a:lin ang="5400000" scaled="0"/>
-          <a:tileRect l="0" t="0" r="0" b="0"/>
+          <a:tileRect/>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M153"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="M1" activeCellId="0" sqref="M1"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="13.2"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="10.13"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="3.5"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="6.12"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="8.5"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="5.63"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="6"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="11.12"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="0" width="17.75"/>
+    <col min="1" max="1" width="10.109375" customWidth="1"/>
+    <col min="2" max="2" width="3.44140625" customWidth="1"/>
+    <col min="6" max="6" width="6.109375" customWidth="1"/>
+    <col min="8" max="8" width="8.44140625" customWidth="1"/>
+    <col min="9" max="9" width="5.6640625" customWidth="1"/>
+    <col min="10" max="10" width="6" customWidth="1"/>
+    <col min="11" max="11" width="11.109375" customWidth="1"/>
+    <col min="13" max="13" width="17.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:13" ht="13.8">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1547,11 +1508,11 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="3" t="n">
+    <row r="2" spans="1:13" ht="13.8">
+      <c r="A2" s="3">
         <v>23808892</v>
       </c>
-      <c r="B2" s="3" t="n">
+      <c r="B2" s="3">
         <v>5</v>
       </c>
       <c r="C2" s="4" t="s">
@@ -1563,8 +1524,8 @@
       <c r="E2" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="F2" s="3" t="n">
-        <v>7301</v>
+      <c r="F2" s="3">
+        <v>3345</v>
       </c>
       <c r="G2" s="4" t="s">
         <v>16</v>
@@ -1572,10 +1533,10 @@
       <c r="H2" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="I2" s="2" t="n">
+      <c r="I2" s="2">
         <v>58</v>
       </c>
-      <c r="J2" s="2" t="n">
+      <c r="J2" s="2">
         <v>162</v>
       </c>
       <c r="K2" s="2" t="s">
@@ -1584,12 +1545,12 @@
       <c r="L2" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="M2" s="5" t="n">
+      <c r="M2" s="5">
         <v>45419</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="3" t="n">
+    <row r="3" spans="1:13" ht="13.8">
+      <c r="A3" s="3">
         <v>23561555</v>
       </c>
       <c r="B3" s="4" t="s">
@@ -1604,7 +1565,7 @@
       <c r="E3" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="F3" s="3" t="n">
+      <c r="F3" s="8">
         <v>7301</v>
       </c>
       <c r="G3" s="4" t="s">
@@ -1613,27 +1574,27 @@
       <c r="H3" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="I3" s="2" t="n">
+      <c r="I3" s="2">
         <v>55</v>
       </c>
-      <c r="J3" s="2" t="n">
+      <c r="J3" s="2">
         <v>157</v>
       </c>
-      <c r="K3" s="2" t="n">
+      <c r="K3" s="2">
         <v>10</v>
       </c>
       <c r="L3" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="M3" s="5" t="n">
+      <c r="M3" s="5">
         <v>45419</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="3" t="n">
+    <row r="4" spans="1:13" ht="13.8">
+      <c r="A4" s="3">
         <v>23761949</v>
       </c>
-      <c r="B4" s="3" t="n">
+      <c r="B4" s="3">
         <v>8</v>
       </c>
       <c r="C4" s="4" t="s">
@@ -1645,7 +1606,7 @@
       <c r="E4" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="F4" s="3" t="n">
+      <c r="F4" s="3">
         <v>7301</v>
       </c>
       <c r="G4" s="4" t="s">
@@ -1654,10 +1615,10 @@
       <c r="H4" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="I4" s="2" t="n">
+      <c r="I4" s="2">
         <v>44</v>
       </c>
-      <c r="J4" s="2" t="n">
+      <c r="J4" s="2">
         <v>154</v>
       </c>
       <c r="K4" s="2" t="s">
@@ -1666,15 +1627,15 @@
       <c r="L4" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="M4" s="5" t="n">
+      <c r="M4" s="5">
         <v>45419</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="3" t="n">
+    <row r="5" spans="1:13" ht="13.8">
+      <c r="A5" s="3">
         <v>23907794</v>
       </c>
-      <c r="B5" s="3" t="n">
+      <c r="B5" s="3">
         <v>3</v>
       </c>
       <c r="C5" s="4" t="s">
@@ -1686,7 +1647,7 @@
       <c r="E5" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="F5" s="3" t="n">
+      <c r="F5" s="3">
         <v>7301</v>
       </c>
       <c r="G5" s="4" t="s">
@@ -1695,10 +1656,10 @@
       <c r="H5" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="I5" s="2" t="n">
+      <c r="I5" s="2">
         <v>66</v>
       </c>
-      <c r="J5" s="2" t="n">
+      <c r="J5" s="2">
         <v>166</v>
       </c>
       <c r="K5" s="2" t="s">
@@ -1707,15 +1668,15 @@
       <c r="L5" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="M5" s="5" t="n">
+      <c r="M5" s="5">
         <v>45419</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="3" t="n">
+    <row r="6" spans="1:13" ht="13.8">
+      <c r="A6" s="3">
         <v>23851451</v>
       </c>
-      <c r="B6" s="3" t="n">
+      <c r="B6" s="3">
         <v>7</v>
       </c>
       <c r="C6" s="4" t="s">
@@ -1727,7 +1688,7 @@
       <c r="E6" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="F6" s="3" t="n">
+      <c r="F6" s="3">
         <v>7303</v>
       </c>
       <c r="G6" s="4" t="s">
@@ -1736,17 +1697,17 @@
       <c r="H6" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="I6" s="6"/>
-      <c r="J6" s="6"/>
-      <c r="K6" s="6"/>
+      <c r="I6" s="2"/>
+      <c r="J6" s="2"/>
+      <c r="K6" s="2"/>
       <c r="L6" s="4"/>
-      <c r="M6" s="6"/>
-    </row>
-    <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="3" t="n">
+      <c r="M6" s="2"/>
+    </row>
+    <row r="7" spans="1:13" ht="13.8">
+      <c r="A7" s="3">
         <v>23688157</v>
       </c>
-      <c r="B7" s="3" t="n">
+      <c r="B7" s="3">
         <v>1</v>
       </c>
       <c r="C7" s="4" t="s">
@@ -1758,7 +1719,7 @@
       <c r="E7" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="F7" s="3" t="n">
+      <c r="F7" s="3">
         <v>7303</v>
       </c>
       <c r="G7" s="4" t="s">
@@ -1767,27 +1728,27 @@
       <c r="H7" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="I7" s="2" t="n">
+      <c r="I7" s="2">
         <v>39</v>
       </c>
-      <c r="J7" s="2" t="n">
+      <c r="J7" s="2">
         <v>154</v>
       </c>
-      <c r="K7" s="2" t="n">
+      <c r="K7" s="2">
         <v>10</v>
       </c>
       <c r="L7" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="M7" s="5" t="n">
+      <c r="M7" s="5">
         <v>45419</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="3" t="n">
+    <row r="8" spans="1:13" ht="13.8">
+      <c r="A8" s="3">
         <v>23857934</v>
       </c>
-      <c r="B8" s="3" t="n">
+      <c r="B8" s="3">
         <v>1</v>
       </c>
       <c r="C8" s="4" t="s">
@@ -1799,7 +1760,7 @@
       <c r="E8" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="F8" s="3" t="n">
+      <c r="F8" s="3">
         <v>7303</v>
       </c>
       <c r="G8" s="4" t="s">
@@ -1808,24 +1769,24 @@
       <c r="H8" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="I8" s="2" t="n">
+      <c r="I8" s="2">
         <v>46</v>
       </c>
-      <c r="J8" s="2" t="n">
+      <c r="J8" s="2">
         <v>154</v>
       </c>
-      <c r="K8" s="2" t="n">
+      <c r="K8" s="2">
         <v>11</v>
       </c>
       <c r="L8" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="M8" s="5" t="n">
+      <c r="M8" s="5">
         <v>45419</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="3" t="n">
+    <row r="9" spans="1:13" ht="13.8">
+      <c r="A9" s="3">
         <v>23745278</v>
       </c>
       <c r="B9" s="4" t="s">
@@ -1840,7 +1801,7 @@
       <c r="E9" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="F9" s="3" t="n">
+      <c r="F9" s="3">
         <v>7303</v>
       </c>
       <c r="G9" s="4" t="s">
@@ -1849,10 +1810,10 @@
       <c r="H9" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="I9" s="2" t="n">
+      <c r="I9" s="2">
         <v>54</v>
       </c>
-      <c r="J9" s="2" t="n">
+      <c r="J9" s="2">
         <v>146</v>
       </c>
       <c r="K9" s="2" t="s">
@@ -1861,15 +1822,15 @@
       <c r="L9" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="M9" s="5" t="n">
+      <c r="M9" s="5">
         <v>45419</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="3" t="n">
+    <row r="10" spans="1:13" ht="13.8">
+      <c r="A10" s="3">
         <v>23909604</v>
       </c>
-      <c r="B10" s="3" t="n">
+      <c r="B10" s="3">
         <v>2</v>
       </c>
       <c r="C10" s="4" t="s">
@@ -1881,7 +1842,7 @@
       <c r="E10" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="F10" s="3" t="n">
+      <c r="F10" s="3">
         <v>7303</v>
       </c>
       <c r="G10" s="4" t="s">
@@ -1890,10 +1851,10 @@
       <c r="H10" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="I10" s="2" t="n">
+      <c r="I10" s="2">
         <v>46</v>
       </c>
-      <c r="J10" s="2" t="n">
+      <c r="J10" s="2">
         <v>156</v>
       </c>
       <c r="K10" s="2" t="s">
@@ -1902,12 +1863,12 @@
       <c r="L10" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="M10" s="5" t="n">
+      <c r="M10" s="5">
         <v>45419</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="3" t="n">
+    <row r="11" spans="1:13" ht="13.8">
+      <c r="A11" s="3">
         <v>23918250</v>
       </c>
       <c r="B11" s="4" t="s">
@@ -1922,7 +1883,7 @@
       <c r="E11" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="F11" s="3" t="n">
+      <c r="F11" s="3">
         <v>7303</v>
       </c>
       <c r="G11" s="4" t="s">
@@ -1931,27 +1892,27 @@
       <c r="H11" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="I11" s="2" t="n">
+      <c r="I11" s="2">
         <v>39</v>
       </c>
-      <c r="J11" s="2" t="n">
+      <c r="J11" s="2">
         <v>154</v>
       </c>
-      <c r="K11" s="2" t="n">
+      <c r="K11" s="2">
         <v>10</v>
       </c>
       <c r="L11" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="M11" s="5" t="n">
+      <c r="M11" s="5">
         <v>45419</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="3" t="n">
+    <row r="12" spans="1:13" ht="13.8">
+      <c r="A12" s="3">
         <v>23750703</v>
       </c>
-      <c r="B12" s="3" t="n">
+      <c r="B12" s="3">
         <v>7</v>
       </c>
       <c r="C12" s="4" t="s">
@@ -1963,7 +1924,7 @@
       <c r="E12" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="F12" s="3" t="n">
+      <c r="F12" s="3">
         <v>7303</v>
       </c>
       <c r="G12" s="4" t="s">
@@ -1972,10 +1933,10 @@
       <c r="H12" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="I12" s="2" t="n">
+      <c r="I12" s="2">
         <v>47</v>
       </c>
-      <c r="J12" s="2" t="n">
+      <c r="J12" s="2">
         <v>161</v>
       </c>
       <c r="K12" s="2" t="s">
@@ -1984,15 +1945,15 @@
       <c r="L12" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="M12" s="5" t="n">
+      <c r="M12" s="5">
         <v>45419</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="3" t="n">
+    <row r="13" spans="1:13" ht="13.8">
+      <c r="A13" s="3">
         <v>23786135</v>
       </c>
-      <c r="B13" s="3" t="n">
+      <c r="B13" s="3">
         <v>3</v>
       </c>
       <c r="C13" s="4" t="s">
@@ -2004,7 +1965,7 @@
       <c r="E13" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="F13" s="3" t="n">
+      <c r="F13" s="3">
         <v>7303</v>
       </c>
       <c r="G13" s="4" t="s">
@@ -2013,10 +1974,10 @@
       <c r="H13" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="I13" s="2" t="n">
+      <c r="I13" s="2">
         <v>75</v>
       </c>
-      <c r="J13" s="2" t="n">
+      <c r="J13" s="2">
         <v>156</v>
       </c>
       <c r="K13" s="2" t="s">
@@ -2025,15 +1986,15 @@
       <c r="L13" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="M13" s="5" t="n">
+      <c r="M13" s="5">
         <v>45419</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="3" t="n">
+    <row r="14" spans="1:13" ht="13.8">
+      <c r="A14" s="3">
         <v>23739427</v>
       </c>
-      <c r="B14" s="3" t="n">
+      <c r="B14" s="3">
         <v>5</v>
       </c>
       <c r="C14" s="4" t="s">
@@ -2045,7 +2006,7 @@
       <c r="E14" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="F14" s="3" t="n">
+      <c r="F14" s="3">
         <v>7303</v>
       </c>
       <c r="G14" s="4" t="s">
@@ -2054,27 +2015,27 @@
       <c r="H14" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="I14" s="2" t="n">
+      <c r="I14" s="2">
         <v>63</v>
       </c>
-      <c r="J14" s="2" t="n">
+      <c r="J14" s="2">
         <v>160</v>
       </c>
-      <c r="K14" s="2" t="n">
+      <c r="K14" s="2">
         <v>9</v>
       </c>
       <c r="L14" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="M14" s="5" t="n">
+      <c r="M14" s="5">
         <v>45419</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="3" t="n">
+    <row r="15" spans="1:13" ht="13.8">
+      <c r="A15" s="3">
         <v>23426606</v>
       </c>
-      <c r="B15" s="3" t="n">
+      <c r="B15" s="3">
         <v>3</v>
       </c>
       <c r="C15" s="4" t="s">
@@ -2086,7 +2047,7 @@
       <c r="E15" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="F15" s="3" t="n">
+      <c r="F15" s="3">
         <v>7303</v>
       </c>
       <c r="G15" s="4" t="s">
@@ -2095,14 +2056,14 @@
       <c r="H15" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="I15" s="6"/>
-      <c r="J15" s="6"/>
-      <c r="K15" s="6"/>
+      <c r="I15" s="2"/>
+      <c r="J15" s="2"/>
+      <c r="K15" s="2"/>
       <c r="L15" s="4"/>
-      <c r="M15" s="6"/>
-    </row>
-    <row r="16" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="3" t="n">
+      <c r="M15" s="2"/>
+    </row>
+    <row r="16" spans="1:13" ht="13.8">
+      <c r="A16" s="3">
         <v>23754076</v>
       </c>
       <c r="B16" s="4" t="s">
@@ -2117,7 +2078,7 @@
       <c r="E16" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="F16" s="3" t="n">
+      <c r="F16" s="3">
         <v>7303</v>
       </c>
       <c r="G16" s="4" t="s">
@@ -2126,17 +2087,17 @@
       <c r="H16" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="I16" s="6"/>
-      <c r="J16" s="6"/>
-      <c r="K16" s="6"/>
+      <c r="I16" s="2"/>
+      <c r="J16" s="2"/>
+      <c r="K16" s="2"/>
       <c r="L16" s="4"/>
-      <c r="M16" s="6"/>
-    </row>
-    <row r="17" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="3" t="n">
+      <c r="M16" s="2"/>
+    </row>
+    <row r="17" spans="1:13" ht="13.8">
+      <c r="A17" s="3">
         <v>23738739</v>
       </c>
-      <c r="B17" s="3" t="n">
+      <c r="B17" s="3">
         <v>2</v>
       </c>
       <c r="C17" s="4" t="s">
@@ -2148,7 +2109,7 @@
       <c r="E17" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="F17" s="3" t="n">
+      <c r="F17" s="3">
         <v>7303</v>
       </c>
       <c r="G17" s="4" t="s">
@@ -2157,10 +2118,10 @@
       <c r="H17" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="I17" s="2" t="n">
+      <c r="I17" s="2">
         <v>57</v>
       </c>
-      <c r="J17" s="2" t="n">
+      <c r="J17" s="2">
         <v>165</v>
       </c>
       <c r="K17" s="2" t="s">
@@ -2169,15 +2130,15 @@
       <c r="L17" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="M17" s="5" t="n">
+      <c r="M17" s="5">
         <v>45419</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="3" t="n">
+    <row r="18" spans="1:13" ht="13.8">
+      <c r="A18" s="3">
         <v>23897761</v>
       </c>
-      <c r="B18" s="3" t="n">
+      <c r="B18" s="3">
         <v>4</v>
       </c>
       <c r="C18" s="4" t="s">
@@ -2189,7 +2150,7 @@
       <c r="E18" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="F18" s="3" t="n">
+      <c r="F18" s="3">
         <v>7303</v>
       </c>
       <c r="G18" s="4" t="s">
@@ -2198,17 +2159,17 @@
       <c r="H18" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="I18" s="6"/>
-      <c r="J18" s="6"/>
-      <c r="K18" s="6"/>
+      <c r="I18" s="2"/>
+      <c r="J18" s="2"/>
+      <c r="K18" s="2"/>
       <c r="L18" s="4"/>
-      <c r="M18" s="6"/>
-    </row>
-    <row r="19" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="3" t="n">
+      <c r="M18" s="2"/>
+    </row>
+    <row r="19" spans="1:13" ht="13.8">
+      <c r="A19" s="3">
         <v>23697048</v>
       </c>
-      <c r="B19" s="3" t="n">
+      <c r="B19" s="3">
         <v>5</v>
       </c>
       <c r="C19" s="4" t="s">
@@ -2220,7 +2181,7 @@
       <c r="E19" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="F19" s="3" t="n">
+      <c r="F19" s="3">
         <v>7303</v>
       </c>
       <c r="G19" s="4" t="s">
@@ -2229,10 +2190,10 @@
       <c r="H19" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="I19" s="2" t="n">
+      <c r="I19" s="2">
         <v>63</v>
       </c>
-      <c r="J19" s="2" t="n">
+      <c r="J19" s="2">
         <v>161</v>
       </c>
       <c r="K19" s="2" t="s">
@@ -2241,15 +2202,15 @@
       <c r="L19" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="M19" s="5" t="n">
+      <c r="M19" s="5">
         <v>45419</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="3" t="n">
+    <row r="20" spans="1:13" ht="13.8">
+      <c r="A20" s="3">
         <v>23808638</v>
       </c>
-      <c r="B20" s="3" t="n">
+      <c r="B20" s="3">
         <v>8</v>
       </c>
       <c r="C20" s="4" t="s">
@@ -2261,7 +2222,7 @@
       <c r="E20" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="F20" s="3" t="n">
+      <c r="F20" s="3">
         <v>7303</v>
       </c>
       <c r="G20" s="4" t="s">
@@ -2270,27 +2231,27 @@
       <c r="H20" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="I20" s="2" t="n">
+      <c r="I20" s="2">
         <v>86</v>
       </c>
-      <c r="J20" s="2" t="n">
+      <c r="J20" s="2">
         <v>160</v>
       </c>
-      <c r="K20" s="2" t="n">
+      <c r="K20" s="2">
         <v>10</v>
       </c>
       <c r="L20" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="M20" s="5" t="n">
+      <c r="M20" s="5">
         <v>45419</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="3" t="n">
+    <row r="21" spans="1:13" ht="13.8">
+      <c r="A21" s="3">
         <v>23738603</v>
       </c>
-      <c r="B21" s="3" t="n">
+      <c r="B21" s="3">
         <v>5</v>
       </c>
       <c r="C21" s="4" t="s">
@@ -2302,7 +2263,7 @@
       <c r="E21" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="F21" s="3" t="n">
+      <c r="F21" s="3">
         <v>7303</v>
       </c>
       <c r="G21" s="4" t="s">
@@ -2311,10 +2272,10 @@
       <c r="H21" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="I21" s="2" t="n">
+      <c r="I21" s="2">
         <v>42</v>
       </c>
-      <c r="J21" s="2" t="n">
+      <c r="J21" s="2">
         <v>156</v>
       </c>
       <c r="K21" s="2" t="s">
@@ -2323,15 +2284,15 @@
       <c r="L21" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="M21" s="5" t="n">
+      <c r="M21" s="5">
         <v>45419</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="3" t="n">
+    <row r="22" spans="1:13" ht="13.8">
+      <c r="A22" s="3">
         <v>23773838</v>
       </c>
-      <c r="B22" s="3" t="n">
+      <c r="B22" s="3">
         <v>1</v>
       </c>
       <c r="C22" s="4" t="s">
@@ -2343,7 +2304,7 @@
       <c r="E22" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="F22" s="3" t="n">
+      <c r="F22" s="3">
         <v>7303</v>
       </c>
       <c r="G22" s="4" t="s">
@@ -2352,14 +2313,14 @@
       <c r="H22" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="I22" s="6"/>
-      <c r="J22" s="6"/>
-      <c r="K22" s="6"/>
+      <c r="I22" s="2"/>
+      <c r="J22" s="2"/>
+      <c r="K22" s="2"/>
       <c r="L22" s="4"/>
-      <c r="M22" s="6"/>
-    </row>
-    <row r="23" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="3" t="n">
+      <c r="M22" s="2"/>
+    </row>
+    <row r="23" spans="1:13" ht="13.8">
+      <c r="A23" s="3">
         <v>23940734</v>
       </c>
       <c r="B23" s="4" t="s">
@@ -2374,7 +2335,7 @@
       <c r="E23" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="F23" s="3" t="n">
+      <c r="F23" s="3">
         <v>7303</v>
       </c>
       <c r="G23" s="4" t="s">
@@ -2383,10 +2344,10 @@
       <c r="H23" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="I23" s="2" t="n">
+      <c r="I23" s="2">
         <v>54</v>
       </c>
-      <c r="J23" s="2" t="n">
+      <c r="J23" s="2">
         <v>151</v>
       </c>
       <c r="K23" s="2" t="s">
@@ -2395,15 +2356,15 @@
       <c r="L23" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="M23" s="5" t="n">
+      <c r="M23" s="5">
         <v>45419</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="3" t="n">
+    <row r="24" spans="1:13" ht="13.8">
+      <c r="A24" s="3">
         <v>100560507</v>
       </c>
-      <c r="B24" s="3" t="n">
+      <c r="B24" s="3">
         <v>1</v>
       </c>
       <c r="C24" s="4" t="s">
@@ -2415,7 +2376,7 @@
       <c r="E24" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="F24" s="3" t="n">
+      <c r="F24" s="3">
         <v>7303</v>
       </c>
       <c r="G24" s="4" t="s">
@@ -2424,17 +2385,17 @@
       <c r="H24" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="I24" s="6"/>
-      <c r="J24" s="6"/>
-      <c r="K24" s="6"/>
+      <c r="I24" s="2"/>
+      <c r="J24" s="2"/>
+      <c r="K24" s="2"/>
       <c r="L24" s="4"/>
-      <c r="M24" s="6"/>
-    </row>
-    <row r="25" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="3" t="n">
+      <c r="M24" s="2"/>
+    </row>
+    <row r="25" spans="1:13" ht="13.8">
+      <c r="A25" s="3">
         <v>23797019</v>
       </c>
-      <c r="B25" s="3" t="n">
+      <c r="B25" s="3">
         <v>5</v>
       </c>
       <c r="C25" s="4" t="s">
@@ -2446,7 +2407,7 @@
       <c r="E25" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="F25" s="3" t="n">
+      <c r="F25" s="3">
         <v>7312</v>
       </c>
       <c r="G25" s="4" t="s">
@@ -2455,17 +2416,17 @@
       <c r="H25" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="I25" s="6"/>
-      <c r="J25" s="6"/>
-      <c r="K25" s="6"/>
+      <c r="I25" s="2"/>
+      <c r="J25" s="2"/>
+      <c r="K25" s="2"/>
       <c r="L25" s="4"/>
-      <c r="M25" s="6"/>
-    </row>
-    <row r="26" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="3" t="n">
+      <c r="M25" s="2"/>
+    </row>
+    <row r="26" spans="1:13" ht="13.8">
+      <c r="A26" s="3">
         <v>23872559</v>
       </c>
-      <c r="B26" s="3" t="n">
+      <c r="B26" s="3">
         <v>3</v>
       </c>
       <c r="C26" s="4" t="s">
@@ -2477,7 +2438,7 @@
       <c r="E26" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="F26" s="3" t="n">
+      <c r="F26" s="3">
         <v>7312</v>
       </c>
       <c r="G26" s="4" t="s">
@@ -2486,10 +2447,10 @@
       <c r="H26" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="I26" s="2" t="n">
+      <c r="I26" s="2">
         <v>61</v>
       </c>
-      <c r="J26" s="2" t="n">
+      <c r="J26" s="2">
         <v>163</v>
       </c>
       <c r="K26" s="2" t="s">
@@ -2498,15 +2459,15 @@
       <c r="L26" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="M26" s="5" t="n">
+      <c r="M26" s="5">
         <v>45784</v>
       </c>
     </row>
-    <row r="27" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="3" t="n">
+    <row r="27" spans="1:13" ht="13.8">
+      <c r="A27" s="3">
         <v>23768202</v>
       </c>
-      <c r="B27" s="3" t="n">
+      <c r="B27" s="3">
         <v>5</v>
       </c>
       <c r="C27" s="4" t="s">
@@ -2518,7 +2479,7 @@
       <c r="E27" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="F27" s="3" t="n">
+      <c r="F27" s="3">
         <v>7312</v>
       </c>
       <c r="G27" s="4" t="s">
@@ -2527,10 +2488,10 @@
       <c r="H27" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="I27" s="2" t="n">
+      <c r="I27" s="2">
         <v>72</v>
       </c>
-      <c r="J27" s="2" t="n">
+      <c r="J27" s="2">
         <v>165</v>
       </c>
       <c r="K27" s="2" t="s">
@@ -2539,15 +2500,15 @@
       <c r="L27" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="M27" s="5" t="n">
+      <c r="M27" s="5">
         <v>45419</v>
       </c>
     </row>
-    <row r="28" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="3" t="n">
+    <row r="28" spans="1:13" ht="13.8">
+      <c r="A28" s="3">
         <v>23896050</v>
       </c>
-      <c r="B28" s="3" t="n">
+      <c r="B28" s="3">
         <v>9</v>
       </c>
       <c r="C28" s="4" t="s">
@@ -2559,7 +2520,7 @@
       <c r="E28" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="F28" s="3" t="n">
+      <c r="F28" s="3">
         <v>7312</v>
       </c>
       <c r="G28" s="4" t="s">
@@ -2568,10 +2529,10 @@
       <c r="H28" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="I28" s="2" t="n">
+      <c r="I28" s="2">
         <v>62</v>
       </c>
-      <c r="J28" s="2" t="n">
+      <c r="J28" s="2">
         <v>168</v>
       </c>
       <c r="K28" s="2" t="s">
@@ -2580,15 +2541,15 @@
       <c r="L28" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="M28" s="5" t="n">
+      <c r="M28" s="5">
         <v>45419</v>
       </c>
     </row>
-    <row r="29" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="3" t="n">
+    <row r="29" spans="1:13" ht="13.8">
+      <c r="A29" s="3">
         <v>23883896</v>
       </c>
-      <c r="B29" s="3" t="n">
+      <c r="B29" s="3">
         <v>7</v>
       </c>
       <c r="C29" s="4" t="s">
@@ -2600,7 +2561,7 @@
       <c r="E29" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="F29" s="3" t="n">
+      <c r="F29" s="3">
         <v>7312</v>
       </c>
       <c r="G29" s="4" t="s">
@@ -2609,17 +2570,17 @@
       <c r="H29" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="I29" s="6"/>
-      <c r="J29" s="6"/>
-      <c r="K29" s="6"/>
+      <c r="I29" s="2"/>
+      <c r="J29" s="2"/>
+      <c r="K29" s="2"/>
       <c r="L29" s="4"/>
-      <c r="M29" s="6"/>
-    </row>
-    <row r="30" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="3" t="n">
+      <c r="M29" s="2"/>
+    </row>
+    <row r="30" spans="1:13" ht="13.8">
+      <c r="A30" s="3">
         <v>23884065</v>
       </c>
-      <c r="B30" s="3" t="n">
+      <c r="B30" s="3">
         <v>1</v>
       </c>
       <c r="C30" s="4" t="s">
@@ -2631,7 +2592,7 @@
       <c r="E30" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="F30" s="3" t="n">
+      <c r="F30" s="3">
         <v>7312</v>
       </c>
       <c r="G30" s="4" t="s">
@@ -2640,17 +2601,17 @@
       <c r="H30" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="I30" s="6"/>
-      <c r="J30" s="6"/>
-      <c r="K30" s="6"/>
+      <c r="I30" s="2"/>
+      <c r="J30" s="2"/>
+      <c r="K30" s="2"/>
       <c r="L30" s="4"/>
-      <c r="M30" s="6"/>
-    </row>
-    <row r="31" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="3" t="n">
+      <c r="M30" s="2"/>
+    </row>
+    <row r="31" spans="1:13" ht="13.8">
+      <c r="A31" s="3">
         <v>23358207</v>
       </c>
-      <c r="B31" s="3" t="n">
+      <c r="B31" s="3">
         <v>7</v>
       </c>
       <c r="C31" s="4" t="s">
@@ -2662,7 +2623,7 @@
       <c r="E31" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="F31" s="3" t="n">
+      <c r="F31" s="3">
         <v>7312</v>
       </c>
       <c r="G31" s="4" t="s">
@@ -2671,10 +2632,10 @@
       <c r="H31" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="I31" s="2" t="n">
+      <c r="I31" s="2">
         <v>42</v>
       </c>
-      <c r="J31" s="2" t="n">
+      <c r="J31" s="2">
         <v>147</v>
       </c>
       <c r="K31" s="2" t="s">
@@ -2683,13 +2644,13 @@
       <c r="L31" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="M31" s="6"/>
-    </row>
-    <row r="32" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="3" t="n">
+      <c r="M31" s="2"/>
+    </row>
+    <row r="32" spans="1:13" ht="13.8">
+      <c r="A32" s="3">
         <v>23748280</v>
       </c>
-      <c r="B32" s="3" t="n">
+      <c r="B32" s="3">
         <v>8</v>
       </c>
       <c r="C32" s="4" t="s">
@@ -2701,7 +2662,7 @@
       <c r="E32" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="F32" s="3" t="n">
+      <c r="F32" s="3">
         <v>7312</v>
       </c>
       <c r="G32" s="4" t="s">
@@ -2710,10 +2671,10 @@
       <c r="H32" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="I32" s="2" t="n">
+      <c r="I32" s="2">
         <v>38</v>
       </c>
-      <c r="J32" s="2" t="n">
+      <c r="J32" s="2">
         <v>156</v>
       </c>
       <c r="K32" s="2" t="s">
@@ -2722,15 +2683,15 @@
       <c r="L32" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="M32" s="5" t="n">
+      <c r="M32" s="5">
         <v>45419</v>
       </c>
     </row>
-    <row r="33" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="3" t="n">
+    <row r="33" spans="1:13" ht="13.8">
+      <c r="A33" s="3">
         <v>23774137</v>
       </c>
-      <c r="B33" s="3" t="n">
+      <c r="B33" s="3">
         <v>4</v>
       </c>
       <c r="C33" s="4" t="s">
@@ -2742,7 +2703,7 @@
       <c r="E33" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="F33" s="3" t="n">
+      <c r="F33" s="3">
         <v>7312</v>
       </c>
       <c r="G33" s="4" t="s">
@@ -2751,25 +2712,25 @@
       <c r="H33" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="I33" s="2" t="n">
+      <c r="I33" s="2">
         <v>60</v>
       </c>
-      <c r="J33" s="2" t="n">
+      <c r="J33" s="2">
         <v>159</v>
       </c>
-      <c r="K33" s="2" t="n">
+      <c r="K33" s="2">
         <v>12</v>
       </c>
       <c r="L33" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="M33" s="6"/>
-    </row>
-    <row r="34" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="3" t="n">
+      <c r="M33" s="2"/>
+    </row>
+    <row r="34" spans="1:13" ht="13.8">
+      <c r="A34" s="3">
         <v>23176899</v>
       </c>
-      <c r="B34" s="3" t="n">
+      <c r="B34" s="3">
         <v>8</v>
       </c>
       <c r="C34" s="4" t="s">
@@ -2781,7 +2742,7 @@
       <c r="E34" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="F34" s="3" t="n">
+      <c r="F34" s="3">
         <v>7312</v>
       </c>
       <c r="G34" s="4" t="s">
@@ -2790,27 +2751,27 @@
       <c r="H34" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="I34" s="2" t="n">
+      <c r="I34" s="2">
         <v>46</v>
       </c>
-      <c r="J34" s="2" t="n">
+      <c r="J34" s="2">
         <v>137</v>
       </c>
-      <c r="K34" s="2" t="n">
+      <c r="K34" s="2">
         <v>11</v>
       </c>
       <c r="L34" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="M34" s="5" t="n">
+      <c r="M34" s="5">
         <v>45419</v>
       </c>
     </row>
-    <row r="35" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="3" t="n">
+    <row r="35" spans="1:13" ht="13.8">
+      <c r="A35" s="3">
         <v>23737282</v>
       </c>
-      <c r="B35" s="3" t="n">
+      <c r="B35" s="3">
         <v>4</v>
       </c>
       <c r="C35" s="4" t="s">
@@ -2822,7 +2783,7 @@
       <c r="E35" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="F35" s="3" t="n">
+      <c r="F35" s="3">
         <v>7312</v>
       </c>
       <c r="G35" s="4" t="s">
@@ -2831,10 +2792,10 @@
       <c r="H35" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="I35" s="2" t="n">
+      <c r="I35" s="2">
         <v>44</v>
       </c>
-      <c r="J35" s="2" t="n">
+      <c r="J35" s="2">
         <v>154</v>
       </c>
       <c r="K35" s="2" t="s">
@@ -2843,15 +2804,15 @@
       <c r="L35" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="M35" s="5" t="n">
+      <c r="M35" s="5">
         <v>45419</v>
       </c>
     </row>
-    <row r="36" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="3" t="n">
+    <row r="36" spans="1:13" ht="13.8">
+      <c r="A36" s="3">
         <v>23672351</v>
       </c>
-      <c r="B36" s="3" t="n">
+      <c r="B36" s="3">
         <v>8</v>
       </c>
       <c r="C36" s="4" t="s">
@@ -2863,7 +2824,7 @@
       <c r="E36" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="F36" s="3" t="n">
+      <c r="F36" s="3">
         <v>7312</v>
       </c>
       <c r="G36" s="4" t="s">
@@ -2872,10 +2833,10 @@
       <c r="H36" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="I36" s="2" t="n">
+      <c r="I36" s="2">
         <v>54</v>
       </c>
-      <c r="J36" s="2" t="n">
+      <c r="J36" s="2">
         <v>151</v>
       </c>
       <c r="K36" s="2" t="s">
@@ -2884,15 +2845,15 @@
       <c r="L36" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="M36" s="5" t="n">
+      <c r="M36" s="5">
         <v>45419</v>
       </c>
     </row>
-    <row r="37" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="3" t="n">
+    <row r="37" spans="1:13" ht="13.8">
+      <c r="A37" s="3">
         <v>23928802</v>
       </c>
-      <c r="B37" s="3" t="n">
+      <c r="B37" s="3">
         <v>2</v>
       </c>
       <c r="C37" s="4" t="s">
@@ -2904,7 +2865,7 @@
       <c r="E37" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="F37" s="3" t="n">
+      <c r="F37" s="3">
         <v>7312</v>
       </c>
       <c r="G37" s="4" t="s">
@@ -2913,10 +2874,10 @@
       <c r="H37" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="I37" s="2" t="n">
+      <c r="I37" s="2">
         <v>41</v>
       </c>
-      <c r="J37" s="2" t="n">
+      <c r="J37" s="2">
         <v>157</v>
       </c>
       <c r="K37" s="2" t="s">
@@ -2925,15 +2886,15 @@
       <c r="L37" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="M37" s="5" t="n">
+      <c r="M37" s="5">
         <v>45419</v>
       </c>
     </row>
-    <row r="38" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="3" t="n">
+    <row r="38" spans="1:13" ht="13.8">
+      <c r="A38" s="3">
         <v>23923623</v>
       </c>
-      <c r="B38" s="3" t="n">
+      <c r="B38" s="3">
         <v>5</v>
       </c>
       <c r="C38" s="4" t="s">
@@ -2945,7 +2906,7 @@
       <c r="E38" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="F38" s="3" t="n">
+      <c r="F38" s="3">
         <v>7299</v>
       </c>
       <c r="G38" s="4" t="s">
@@ -2954,10 +2915,10 @@
       <c r="H38" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="I38" s="2" t="n">
+      <c r="I38" s="2">
         <v>49</v>
       </c>
-      <c r="J38" s="2" t="n">
+      <c r="J38" s="2">
         <v>161</v>
       </c>
       <c r="K38" s="2" t="s">
@@ -2966,15 +2927,15 @@
       <c r="L38" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="M38" s="5" t="n">
+      <c r="M38" s="5">
         <v>45420</v>
       </c>
     </row>
-    <row r="39" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="3" t="n">
+    <row r="39" spans="1:13" ht="13.8">
+      <c r="A39" s="3">
         <v>23810796</v>
       </c>
-      <c r="B39" s="3" t="n">
+      <c r="B39" s="3">
         <v>2</v>
       </c>
       <c r="C39" s="4" t="s">
@@ -2986,7 +2947,7 @@
       <c r="E39" s="4" t="s">
         <v>124</v>
       </c>
-      <c r="F39" s="3" t="n">
+      <c r="F39" s="3">
         <v>7299</v>
       </c>
       <c r="G39" s="4" t="s">
@@ -2995,10 +2956,10 @@
       <c r="H39" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="I39" s="2" t="n">
+      <c r="I39" s="2">
         <v>54</v>
       </c>
-      <c r="J39" s="2" t="n">
+      <c r="J39" s="2">
         <v>150</v>
       </c>
       <c r="K39" s="2" t="s">
@@ -3007,15 +2968,15 @@
       <c r="L39" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="M39" s="5" t="n">
+      <c r="M39" s="5">
         <v>45420</v>
       </c>
     </row>
-    <row r="40" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="3" t="n">
+    <row r="40" spans="1:13" ht="13.8">
+      <c r="A40" s="3">
         <v>23916621</v>
       </c>
-      <c r="B40" s="3" t="n">
+      <c r="B40" s="3">
         <v>0</v>
       </c>
       <c r="C40" s="4" t="s">
@@ -3027,7 +2988,7 @@
       <c r="E40" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="F40" s="3" t="n">
+      <c r="F40" s="3">
         <v>7299</v>
       </c>
       <c r="G40" s="4" t="s">
@@ -3036,10 +2997,10 @@
       <c r="H40" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="I40" s="2" t="n">
+      <c r="I40" s="2">
         <v>48</v>
       </c>
-      <c r="J40" s="2" t="n">
+      <c r="J40" s="2">
         <v>158</v>
       </c>
       <c r="K40" s="2" t="s">
@@ -3048,15 +3009,15 @@
       <c r="L40" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="M40" s="5" t="n">
+      <c r="M40" s="5">
         <v>45420</v>
       </c>
     </row>
-    <row r="41" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="3" t="n">
+    <row r="41" spans="1:13" ht="13.8">
+      <c r="A41" s="3">
         <v>23823823</v>
       </c>
-      <c r="B41" s="3" t="n">
+      <c r="B41" s="3">
         <v>4</v>
       </c>
       <c r="C41" s="4" t="s">
@@ -3068,7 +3029,7 @@
       <c r="E41" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="F41" s="3" t="n">
+      <c r="F41" s="3">
         <v>7299</v>
       </c>
       <c r="G41" s="4" t="s">
@@ -3077,27 +3038,27 @@
       <c r="H41" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="I41" s="2" t="n">
+      <c r="I41" s="2">
         <v>51</v>
       </c>
-      <c r="J41" s="2" t="n">
+      <c r="J41" s="2">
         <v>159</v>
       </c>
-      <c r="K41" s="2" t="n">
+      <c r="K41" s="2">
         <v>12</v>
       </c>
       <c r="L41" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="M41" s="5" t="n">
+      <c r="M41" s="5">
         <v>45420</v>
       </c>
     </row>
-    <row r="42" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="3" t="n">
+    <row r="42" spans="1:13" ht="13.8">
+      <c r="A42" s="3">
         <v>23866856</v>
       </c>
-      <c r="B42" s="3" t="n">
+      <c r="B42" s="3">
         <v>5</v>
       </c>
       <c r="C42" s="4" t="s">
@@ -3109,7 +3070,7 @@
       <c r="E42" s="4" t="s">
         <v>132</v>
       </c>
-      <c r="F42" s="3" t="n">
+      <c r="F42" s="3">
         <v>7299</v>
       </c>
       <c r="G42" s="4" t="s">
@@ -3118,10 +3079,10 @@
       <c r="H42" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="I42" s="2" t="n">
+      <c r="I42" s="2">
         <v>75</v>
       </c>
-      <c r="J42" s="2" t="n">
+      <c r="J42" s="2">
         <v>152</v>
       </c>
       <c r="K42" s="2" t="s">
@@ -3130,15 +3091,15 @@
       <c r="L42" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="M42" s="5" t="n">
+      <c r="M42" s="5">
         <v>45420</v>
       </c>
     </row>
-    <row r="43" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="3" t="n">
+    <row r="43" spans="1:13" ht="13.8">
+      <c r="A43" s="3">
         <v>23958363</v>
       </c>
-      <c r="B43" s="3" t="n">
+      <c r="B43" s="3">
         <v>6</v>
       </c>
       <c r="C43" s="4" t="s">
@@ -3150,7 +3111,7 @@
       <c r="E43" s="4" t="s">
         <v>135</v>
       </c>
-      <c r="F43" s="3" t="n">
+      <c r="F43" s="3">
         <v>7299</v>
       </c>
       <c r="G43" s="4" t="s">
@@ -3159,10 +3120,10 @@
       <c r="H43" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="I43" s="2" t="n">
+      <c r="I43" s="2">
         <v>43</v>
       </c>
-      <c r="J43" s="2" t="n">
+      <c r="J43" s="2">
         <v>146</v>
       </c>
       <c r="K43" s="2" t="s">
@@ -3171,15 +3132,15 @@
       <c r="L43" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="M43" s="5" t="n">
+      <c r="M43" s="5">
         <v>45420</v>
       </c>
     </row>
-    <row r="44" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="3" t="n">
+    <row r="44" spans="1:13" ht="13.8">
+      <c r="A44" s="3">
         <v>23717668</v>
       </c>
-      <c r="B44" s="3" t="n">
+      <c r="B44" s="3">
         <v>5</v>
       </c>
       <c r="C44" s="4" t="s">
@@ -3191,7 +3152,7 @@
       <c r="E44" s="4" t="s">
         <v>138</v>
       </c>
-      <c r="F44" s="3" t="n">
+      <c r="F44" s="3">
         <v>7299</v>
       </c>
       <c r="G44" s="4" t="s">
@@ -3200,10 +3161,10 @@
       <c r="H44" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="I44" s="2" t="n">
+      <c r="I44" s="2">
         <v>40</v>
       </c>
-      <c r="J44" s="2" t="n">
+      <c r="J44" s="2">
         <v>147</v>
       </c>
       <c r="K44" s="2" t="s">
@@ -3212,15 +3173,15 @@
       <c r="L44" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="M44" s="5" t="n">
+      <c r="M44" s="5">
         <v>45420</v>
       </c>
     </row>
-    <row r="45" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="3" t="n">
+    <row r="45" spans="1:13" ht="13.8">
+      <c r="A45" s="3">
         <v>23799287</v>
       </c>
-      <c r="B45" s="3" t="n">
+      <c r="B45" s="3">
         <v>3</v>
       </c>
       <c r="C45" s="4" t="s">
@@ -3232,7 +3193,7 @@
       <c r="E45" s="4" t="s">
         <v>135</v>
       </c>
-      <c r="F45" s="3" t="n">
+      <c r="F45" s="3">
         <v>7299</v>
       </c>
       <c r="G45" s="4" t="s">
@@ -3241,24 +3202,24 @@
       <c r="H45" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="I45" s="2" t="n">
+      <c r="I45" s="2">
         <v>44</v>
       </c>
-      <c r="J45" s="2" t="n">
+      <c r="J45" s="2">
         <v>151</v>
       </c>
-      <c r="K45" s="2" t="n">
+      <c r="K45" s="2">
         <v>11</v>
       </c>
       <c r="L45" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="M45" s="5" t="n">
+      <c r="M45" s="5">
         <v>45420</v>
       </c>
     </row>
-    <row r="46" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="3" t="n">
+    <row r="46" spans="1:13" ht="13.8">
+      <c r="A46" s="3">
         <v>23893589</v>
       </c>
       <c r="B46" s="4" t="s">
@@ -3273,7 +3234,7 @@
       <c r="E46" s="4" t="s">
         <v>143</v>
       </c>
-      <c r="F46" s="3" t="n">
+      <c r="F46" s="3">
         <v>7299</v>
       </c>
       <c r="G46" s="4" t="s">
@@ -3282,10 +3243,10 @@
       <c r="H46" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="I46" s="2" t="n">
+      <c r="I46" s="2">
         <v>39</v>
       </c>
-      <c r="J46" s="2" t="n">
+      <c r="J46" s="2">
         <v>144</v>
       </c>
       <c r="K46" s="2" t="s">
@@ -3294,15 +3255,15 @@
       <c r="L46" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="M46" s="5" t="n">
+      <c r="M46" s="5">
         <v>45420</v>
       </c>
     </row>
-    <row r="47" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="3" t="n">
+    <row r="47" spans="1:13" ht="13.8">
+      <c r="A47" s="3">
         <v>23929753</v>
       </c>
-      <c r="B47" s="3" t="n">
+      <c r="B47" s="3">
         <v>6</v>
       </c>
       <c r="C47" s="4" t="s">
@@ -3314,7 +3275,7 @@
       <c r="E47" s="4" t="s">
         <v>131</v>
       </c>
-      <c r="F47" s="3" t="n">
+      <c r="F47" s="3">
         <v>7299</v>
       </c>
       <c r="G47" s="4" t="s">
@@ -3323,10 +3284,10 @@
       <c r="H47" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="I47" s="2" t="n">
+      <c r="I47" s="2">
         <v>54</v>
       </c>
-      <c r="J47" s="2" t="n">
+      <c r="J47" s="2">
         <v>168</v>
       </c>
       <c r="K47" s="2" t="s">
@@ -3335,15 +3296,15 @@
       <c r="L47" s="4" t="s">
         <v>145</v>
       </c>
-      <c r="M47" s="5" t="n">
+      <c r="M47" s="5">
         <v>45420</v>
       </c>
     </row>
-    <row r="48" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="3" t="n">
+    <row r="48" spans="1:13" ht="13.8">
+      <c r="A48" s="3">
         <v>23710877</v>
       </c>
-      <c r="B48" s="3" t="n">
+      <c r="B48" s="3">
         <v>9</v>
       </c>
       <c r="C48" s="4" t="s">
@@ -3355,7 +3316,7 @@
       <c r="E48" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="F48" s="3" t="n">
+      <c r="F48" s="3">
         <v>7299</v>
       </c>
       <c r="G48" s="4" t="s">
@@ -3364,10 +3325,10 @@
       <c r="H48" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="I48" s="2" t="n">
+      <c r="I48" s="2">
         <v>58</v>
       </c>
-      <c r="J48" s="2" t="n">
+      <c r="J48" s="2">
         <v>159</v>
       </c>
       <c r="K48" s="2" t="s">
@@ -3376,15 +3337,15 @@
       <c r="L48" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="M48" s="5" t="n">
+      <c r="M48" s="5">
         <v>45420</v>
       </c>
     </row>
-    <row r="49" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="3" t="n">
+    <row r="49" spans="1:13" ht="13.8">
+      <c r="A49" s="3">
         <v>23490589</v>
       </c>
-      <c r="B49" s="3" t="n">
+      <c r="B49" s="3">
         <v>9</v>
       </c>
       <c r="C49" s="4" t="s">
@@ -3396,7 +3357,7 @@
       <c r="E49" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="F49" s="3" t="n">
+      <c r="F49" s="3">
         <v>7299</v>
       </c>
       <c r="G49" s="4" t="s">
@@ -3405,10 +3366,10 @@
       <c r="H49" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="I49" s="2" t="n">
+      <c r="I49" s="2">
         <v>48</v>
       </c>
-      <c r="J49" s="2" t="n">
+      <c r="J49" s="2">
         <v>161</v>
       </c>
       <c r="K49" s="2" t="s">
@@ -3417,15 +3378,15 @@
       <c r="L49" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="M49" s="5" t="n">
+      <c r="M49" s="5">
         <v>45420</v>
       </c>
     </row>
-    <row r="50" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="3" t="n">
+    <row r="50" spans="1:13" ht="13.8">
+      <c r="A50" s="3">
         <v>23724112</v>
       </c>
-      <c r="B50" s="3" t="n">
+      <c r="B50" s="3">
         <v>6</v>
       </c>
       <c r="C50" s="4" t="s">
@@ -3437,7 +3398,7 @@
       <c r="E50" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="F50" s="3" t="n">
+      <c r="F50" s="3">
         <v>7299</v>
       </c>
       <c r="G50" s="4" t="s">
@@ -3446,27 +3407,27 @@
       <c r="H50" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="I50" s="2" t="n">
+      <c r="I50" s="2">
         <v>45</v>
       </c>
-      <c r="J50" s="2" t="n">
+      <c r="J50" s="2">
         <v>146</v>
       </c>
-      <c r="K50" s="2" t="n">
+      <c r="K50" s="2">
         <v>11</v>
       </c>
       <c r="L50" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="M50" s="5" t="n">
+      <c r="M50" s="5">
         <v>45420</v>
       </c>
     </row>
-    <row r="51" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="3" t="n">
+    <row r="51" spans="1:13" ht="13.8">
+      <c r="A51" s="3">
         <v>23437272</v>
       </c>
-      <c r="B51" s="3" t="n">
+      <c r="B51" s="3">
         <v>6</v>
       </c>
       <c r="C51" s="4" t="s">
@@ -3478,7 +3439,7 @@
       <c r="E51" s="4" t="s">
         <v>152</v>
       </c>
-      <c r="F51" s="3" t="n">
+      <c r="F51" s="3">
         <v>7299</v>
       </c>
       <c r="G51" s="4" t="s">
@@ -3487,27 +3448,27 @@
       <c r="H51" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="I51" s="2" t="n">
+      <c r="I51" s="2">
         <v>87</v>
       </c>
-      <c r="J51" s="2" t="n">
+      <c r="J51" s="2">
         <v>165</v>
       </c>
-      <c r="K51" s="2" t="n">
+      <c r="K51" s="2">
         <v>11</v>
       </c>
       <c r="L51" s="4" t="s">
         <v>153</v>
       </c>
-      <c r="M51" s="5" t="n">
+      <c r="M51" s="5">
         <v>45420</v>
       </c>
     </row>
-    <row r="52" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="3" t="n">
+    <row r="52" spans="1:13" ht="13.8">
+      <c r="A52" s="3">
         <v>100409496</v>
       </c>
-      <c r="B52" s="3" t="n">
+      <c r="B52" s="3">
         <v>0</v>
       </c>
       <c r="C52" s="4" t="s">
@@ -3519,7 +3480,7 @@
       <c r="E52" s="4" t="s">
         <v>156</v>
       </c>
-      <c r="F52" s="3" t="n">
+      <c r="F52" s="3">
         <v>7299</v>
       </c>
       <c r="G52" s="4" t="s">
@@ -3528,10 +3489,10 @@
       <c r="H52" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="I52" s="2" t="n">
+      <c r="I52" s="2">
         <v>41</v>
       </c>
-      <c r="J52" s="2" t="n">
+      <c r="J52" s="2">
         <v>152</v>
       </c>
       <c r="K52" s="2" t="s">
@@ -3540,12 +3501,12 @@
       <c r="L52" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="M52" s="5" t="n">
+      <c r="M52" s="5">
         <v>45420</v>
       </c>
     </row>
-    <row r="53" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="3" t="n">
+    <row r="53" spans="1:13" ht="13.8">
+      <c r="A53" s="3">
         <v>23731610</v>
       </c>
       <c r="B53" s="4" t="s">
@@ -3560,7 +3521,7 @@
       <c r="E53" s="4" t="s">
         <v>158</v>
       </c>
-      <c r="F53" s="3" t="n">
+      <c r="F53" s="3">
         <v>7299</v>
       </c>
       <c r="G53" s="4" t="s">
@@ -3569,10 +3530,10 @@
       <c r="H53" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="I53" s="2" t="n">
+      <c r="I53" s="2">
         <v>41</v>
       </c>
-      <c r="J53" s="2" t="n">
+      <c r="J53" s="2">
         <v>154</v>
       </c>
       <c r="K53" s="2" t="s">
@@ -3581,12 +3542,12 @@
       <c r="L53" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="M53" s="5" t="n">
+      <c r="M53" s="5">
         <v>45420</v>
       </c>
     </row>
-    <row r="54" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="3" t="n">
+    <row r="54" spans="1:13" ht="13.8">
+      <c r="A54" s="3">
         <v>23873648</v>
       </c>
       <c r="B54" s="4" t="s">
@@ -3601,7 +3562,7 @@
       <c r="E54" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="F54" s="3" t="n">
+      <c r="F54" s="3">
         <v>7299</v>
       </c>
       <c r="G54" s="4" t="s">
@@ -3610,10 +3571,10 @@
       <c r="H54" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="I54" s="2" t="n">
+      <c r="I54" s="2">
         <v>46</v>
       </c>
-      <c r="J54" s="2" t="n">
+      <c r="J54" s="2">
         <v>167</v>
       </c>
       <c r="K54" s="2" t="s">
@@ -3622,15 +3583,15 @@
       <c r="L54" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="M54" s="5" t="n">
+      <c r="M54" s="5">
         <v>45420</v>
       </c>
     </row>
-    <row r="55" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="3" t="n">
+    <row r="55" spans="1:13" ht="13.8">
+      <c r="A55" s="3">
         <v>23601636</v>
       </c>
-      <c r="B55" s="3" t="n">
+      <c r="B55" s="3">
         <v>6</v>
       </c>
       <c r="C55" s="4" t="s">
@@ -3642,7 +3603,7 @@
       <c r="E55" s="4" t="s">
         <v>161</v>
       </c>
-      <c r="F55" s="3" t="n">
+      <c r="F55" s="3">
         <v>7299</v>
       </c>
       <c r="G55" s="4" t="s">
@@ -3651,10 +3612,10 @@
       <c r="H55" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="I55" s="2" t="n">
+      <c r="I55" s="2">
         <v>43</v>
       </c>
-      <c r="J55" s="2" t="n">
+      <c r="J55" s="2">
         <v>155</v>
       </c>
       <c r="K55" s="2" t="s">
@@ -3663,15 +3624,15 @@
       <c r="L55" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="M55" s="5" t="n">
+      <c r="M55" s="5">
         <v>45420</v>
       </c>
     </row>
-    <row r="56" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="3" t="n">
+    <row r="56" spans="1:13" ht="13.8">
+      <c r="A56" s="3">
         <v>23427792</v>
       </c>
-      <c r="B56" s="3" t="n">
+      <c r="B56" s="3">
         <v>8</v>
       </c>
       <c r="C56" s="4" t="s">
@@ -3683,7 +3644,7 @@
       <c r="E56" s="4" t="s">
         <v>164</v>
       </c>
-      <c r="F56" s="3" t="n">
+      <c r="F56" s="3">
         <v>7299</v>
       </c>
       <c r="G56" s="4" t="s">
@@ -3692,10 +3653,10 @@
       <c r="H56" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="I56" s="2" t="n">
+      <c r="I56" s="2">
         <v>60</v>
       </c>
-      <c r="J56" s="2" t="n">
+      <c r="J56" s="2">
         <v>161</v>
       </c>
       <c r="K56" s="2" t="s">
@@ -3704,15 +3665,15 @@
       <c r="L56" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="M56" s="5" t="n">
+      <c r="M56" s="5">
         <v>45420</v>
       </c>
     </row>
-    <row r="57" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="3" t="n">
+    <row r="57" spans="1:13" ht="13.8">
+      <c r="A57" s="3">
         <v>23823136</v>
       </c>
-      <c r="B57" s="3" t="n">
+      <c r="B57" s="3">
         <v>1</v>
       </c>
       <c r="C57" s="4" t="s">
@@ -3724,7 +3685,7 @@
       <c r="E57" s="4" t="s">
         <v>166</v>
       </c>
-      <c r="F57" s="3" t="n">
+      <c r="F57" s="3">
         <v>7299</v>
       </c>
       <c r="G57" s="4" t="s">
@@ -3733,10 +3694,10 @@
       <c r="H57" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="I57" s="2" t="n">
+      <c r="I57" s="2">
         <v>43</v>
       </c>
-      <c r="J57" s="2" t="n">
+      <c r="J57" s="2">
         <v>148</v>
       </c>
       <c r="K57" s="2" t="s">
@@ -3745,15 +3706,15 @@
       <c r="L57" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="M57" s="5" t="n">
+      <c r="M57" s="5">
         <v>45420</v>
       </c>
     </row>
-    <row r="58" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="3" t="n">
+    <row r="58" spans="1:13" ht="13.8">
+      <c r="A58" s="3">
         <v>23858412</v>
       </c>
-      <c r="B58" s="3" t="n">
+      <c r="B58" s="3">
         <v>4</v>
       </c>
       <c r="C58" s="4" t="s">
@@ -3765,7 +3726,7 @@
       <c r="E58" s="4" t="s">
         <v>168</v>
       </c>
-      <c r="F58" s="3" t="n">
+      <c r="F58" s="3">
         <v>7299</v>
       </c>
       <c r="G58" s="4" t="s">
@@ -3774,10 +3735,10 @@
       <c r="H58" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="I58" s="2" t="n">
+      <c r="I58" s="2">
         <v>35</v>
       </c>
-      <c r="J58" s="2" t="n">
+      <c r="J58" s="2">
         <v>150</v>
       </c>
       <c r="K58" s="2" t="s">
@@ -3786,15 +3747,15 @@
       <c r="L58" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="M58" s="5" t="n">
+      <c r="M58" s="5">
         <v>45420</v>
       </c>
     </row>
-    <row r="59" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="3" t="n">
+    <row r="59" spans="1:13" ht="13.8">
+      <c r="A59" s="3">
         <v>23915534</v>
       </c>
-      <c r="B59" s="3" t="n">
+      <c r="B59" s="3">
         <v>0</v>
       </c>
       <c r="C59" s="4" t="s">
@@ -3806,7 +3767,7 @@
       <c r="E59" s="4" t="s">
         <v>171</v>
       </c>
-      <c r="F59" s="3" t="n">
+      <c r="F59" s="3">
         <v>7299</v>
       </c>
       <c r="G59" s="4" t="s">
@@ -3815,10 +3776,10 @@
       <c r="H59" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="I59" s="2" t="n">
+      <c r="I59" s="2">
         <v>71</v>
       </c>
-      <c r="J59" s="2" t="n">
+      <c r="J59" s="2">
         <v>158</v>
       </c>
       <c r="K59" s="2" t="s">
@@ -3827,15 +3788,15 @@
       <c r="L59" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="M59" s="5" t="n">
+      <c r="M59" s="5">
         <v>45420</v>
       </c>
     </row>
-    <row r="60" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A60" s="3" t="n">
+    <row r="60" spans="1:13" ht="13.8">
+      <c r="A60" s="3">
         <v>23802946</v>
       </c>
-      <c r="B60" s="3" t="n">
+      <c r="B60" s="3">
         <v>5</v>
       </c>
       <c r="C60" s="4" t="s">
@@ -3847,7 +3808,7 @@
       <c r="E60" s="4" t="s">
         <v>173</v>
       </c>
-      <c r="F60" s="3" t="n">
+      <c r="F60" s="3">
         <v>7299</v>
       </c>
       <c r="G60" s="4" t="s">
@@ -3856,19 +3817,19 @@
       <c r="H60" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="I60" s="6"/>
-      <c r="J60" s="6"/>
-      <c r="K60" s="6"/>
-      <c r="L60" s="7" t="s">
+      <c r="I60" s="2"/>
+      <c r="J60" s="2"/>
+      <c r="K60" s="2"/>
+      <c r="L60" s="6" t="s">
         <v>174</v>
       </c>
-      <c r="M60" s="6"/>
-    </row>
-    <row r="61" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="3" t="n">
+      <c r="M60" s="2"/>
+    </row>
+    <row r="61" spans="1:13" ht="13.8">
+      <c r="A61" s="3">
         <v>23915640</v>
       </c>
-      <c r="B61" s="3" t="n">
+      <c r="B61" s="3">
         <v>1</v>
       </c>
       <c r="C61" s="4" t="s">
@@ -3880,7 +3841,7 @@
       <c r="E61" s="4" t="s">
         <v>177</v>
       </c>
-      <c r="F61" s="3" t="n">
+      <c r="F61" s="3">
         <v>7299</v>
       </c>
       <c r="G61" s="4" t="s">
@@ -3889,27 +3850,27 @@
       <c r="H61" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="I61" s="2" t="n">
+      <c r="I61" s="2">
         <v>67</v>
       </c>
-      <c r="J61" s="2" t="n">
+      <c r="J61" s="2">
         <v>152</v>
       </c>
-      <c r="K61" s="2" t="n">
+      <c r="K61" s="2">
         <v>11</v>
       </c>
       <c r="L61" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="M61" s="5" t="n">
+      <c r="M61" s="5">
         <v>45420</v>
       </c>
     </row>
-    <row r="62" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A62" s="3" t="n">
+    <row r="62" spans="1:13" ht="13.8">
+      <c r="A62" s="3">
         <v>23873144</v>
       </c>
-      <c r="B62" s="3" t="n">
+      <c r="B62" s="3">
         <v>5</v>
       </c>
       <c r="C62" s="4" t="s">
@@ -3921,7 +3882,7 @@
       <c r="E62" s="4" t="s">
         <v>180</v>
       </c>
-      <c r="F62" s="3" t="n">
+      <c r="F62" s="3">
         <v>7299</v>
       </c>
       <c r="G62" s="4" t="s">
@@ -3930,10 +3891,10 @@
       <c r="H62" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="I62" s="2" t="n">
+      <c r="I62" s="2">
         <v>36</v>
       </c>
-      <c r="J62" s="2" t="n">
+      <c r="J62" s="2">
         <v>149</v>
       </c>
       <c r="K62" s="2" t="s">
@@ -3942,15 +3903,15 @@
       <c r="L62" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="M62" s="5" t="n">
+      <c r="M62" s="5">
         <v>45420</v>
       </c>
     </row>
-    <row r="63" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A63" s="3" t="n">
+    <row r="63" spans="1:13" ht="13.8">
+      <c r="A63" s="3">
         <v>23816465</v>
       </c>
-      <c r="B63" s="3" t="n">
+      <c r="B63" s="3">
         <v>6</v>
       </c>
       <c r="C63" s="4" t="s">
@@ -3962,7 +3923,7 @@
       <c r="E63" s="4" t="s">
         <v>182</v>
       </c>
-      <c r="F63" s="3" t="n">
+      <c r="F63" s="3">
         <v>7299</v>
       </c>
       <c r="G63" s="4" t="s">
@@ -3971,10 +3932,10 @@
       <c r="H63" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="I63" s="2" t="n">
+      <c r="I63" s="2">
         <v>68</v>
       </c>
-      <c r="J63" s="2" t="n">
+      <c r="J63" s="2">
         <v>155</v>
       </c>
       <c r="K63" s="2" t="s">
@@ -3983,15 +3944,15 @@
       <c r="L63" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="M63" s="5" t="n">
+      <c r="M63" s="5">
         <v>45420</v>
       </c>
     </row>
-    <row r="64" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A64" s="3" t="n">
+    <row r="64" spans="1:13" ht="13.8">
+      <c r="A64" s="3">
         <v>23909537</v>
       </c>
-      <c r="B64" s="3" t="n">
+      <c r="B64" s="3">
         <v>2</v>
       </c>
       <c r="C64" s="4" t="s">
@@ -4003,7 +3964,7 @@
       <c r="E64" s="4" t="s">
         <v>184</v>
       </c>
-      <c r="F64" s="3" t="n">
+      <c r="F64" s="3">
         <v>7299</v>
       </c>
       <c r="G64" s="4" t="s">
@@ -4012,10 +3973,10 @@
       <c r="H64" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="I64" s="2" t="n">
+      <c r="I64" s="2">
         <v>31</v>
       </c>
-      <c r="J64" s="2" t="n">
+      <c r="J64" s="2">
         <v>143</v>
       </c>
       <c r="K64" s="2" t="s">
@@ -4024,15 +3985,15 @@
       <c r="L64" s="4" t="s">
         <v>185</v>
       </c>
-      <c r="M64" s="5" t="n">
+      <c r="M64" s="5">
         <v>45420</v>
       </c>
     </row>
-    <row r="65" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A65" s="3" t="n">
+    <row r="65" spans="1:13" ht="13.8">
+      <c r="A65" s="3">
         <v>23869546</v>
       </c>
-      <c r="B65" s="3" t="n">
+      <c r="B65" s="3">
         <v>5</v>
       </c>
       <c r="C65" s="4" t="s">
@@ -4044,7 +4005,7 @@
       <c r="E65" s="4" t="s">
         <v>188</v>
       </c>
-      <c r="F65" s="3" t="n">
+      <c r="F65" s="3">
         <v>7299</v>
       </c>
       <c r="G65" s="4" t="s">
@@ -4053,10 +4014,10 @@
       <c r="H65" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="I65" s="2" t="n">
+      <c r="I65" s="2">
         <v>38</v>
       </c>
-      <c r="J65" s="2" t="n">
+      <c r="J65" s="2">
         <v>142</v>
       </c>
       <c r="K65" s="2" t="s">
@@ -4065,15 +4026,15 @@
       <c r="L65" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="M65" s="5" t="n">
+      <c r="M65" s="5">
         <v>45420</v>
       </c>
     </row>
-    <row r="66" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A66" s="3" t="n">
+    <row r="66" spans="1:13" ht="13.8">
+      <c r="A66" s="3">
         <v>23815682</v>
       </c>
-      <c r="B66" s="3" t="n">
+      <c r="B66" s="3">
         <v>3</v>
       </c>
       <c r="C66" s="4" t="s">
@@ -4085,7 +4046,7 @@
       <c r="E66" s="4" t="s">
         <v>191</v>
       </c>
-      <c r="F66" s="3" t="n">
+      <c r="F66" s="3">
         <v>7299</v>
       </c>
       <c r="G66" s="4" t="s">
@@ -4094,10 +4055,10 @@
       <c r="H66" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="I66" s="2" t="n">
+      <c r="I66" s="2">
         <v>75</v>
       </c>
-      <c r="J66" s="2" t="n">
+      <c r="J66" s="2">
         <v>166</v>
       </c>
       <c r="K66" s="2" t="s">
@@ -4106,15 +4067,15 @@
       <c r="L66" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="M66" s="5" t="n">
+      <c r="M66" s="5">
         <v>45420</v>
       </c>
     </row>
-    <row r="67" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A67" s="3" t="n">
+    <row r="67" spans="1:13" ht="13.8">
+      <c r="A67" s="3">
         <v>23891398</v>
       </c>
-      <c r="B67" s="3" t="n">
+      <c r="B67" s="3">
         <v>5</v>
       </c>
       <c r="C67" s="4" t="s">
@@ -4126,7 +4087,7 @@
       <c r="E67" s="4" t="s">
         <v>194</v>
       </c>
-      <c r="F67" s="3" t="n">
+      <c r="F67" s="3">
         <v>7299</v>
       </c>
       <c r="G67" s="4" t="s">
@@ -4135,10 +4096,10 @@
       <c r="H67" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="I67" s="2" t="n">
+      <c r="I67" s="2">
         <v>59</v>
       </c>
-      <c r="J67" s="2" t="n">
+      <c r="J67" s="2">
         <v>164</v>
       </c>
       <c r="K67" s="2" t="s">
@@ -4147,15 +4108,15 @@
       <c r="L67" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="M67" s="5" t="n">
+      <c r="M67" s="5">
         <v>45420</v>
       </c>
     </row>
-    <row r="68" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A68" s="3" t="n">
+    <row r="68" spans="1:13" ht="13.8">
+      <c r="A68" s="3">
         <v>23822794</v>
       </c>
-      <c r="B68" s="3" t="n">
+      <c r="B68" s="3">
         <v>1</v>
       </c>
       <c r="C68" s="4" t="s">
@@ -4167,7 +4128,7 @@
       <c r="E68" s="4" t="s">
         <v>197</v>
       </c>
-      <c r="F68" s="3" t="n">
+      <c r="F68" s="3">
         <v>7299</v>
       </c>
       <c r="G68" s="4" t="s">
@@ -4176,17 +4137,17 @@
       <c r="H68" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="I68" s="6"/>
-      <c r="J68" s="6"/>
-      <c r="K68" s="6"/>
+      <c r="I68" s="2"/>
+      <c r="J68" s="2"/>
+      <c r="K68" s="2"/>
       <c r="L68" s="4"/>
-      <c r="M68" s="6"/>
-    </row>
-    <row r="69" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A69" s="3" t="n">
+      <c r="M68" s="2"/>
+    </row>
+    <row r="69" spans="1:13" ht="13.8">
+      <c r="A69" s="3">
         <v>23742528</v>
       </c>
-      <c r="B69" s="3" t="n">
+      <c r="B69" s="3">
         <v>6</v>
       </c>
       <c r="C69" s="4" t="s">
@@ -4198,7 +4159,7 @@
       <c r="E69" s="4" t="s">
         <v>200</v>
       </c>
-      <c r="F69" s="3" t="n">
+      <c r="F69" s="3">
         <v>7299</v>
       </c>
       <c r="G69" s="4" t="s">
@@ -4207,27 +4168,27 @@
       <c r="H69" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="I69" s="2" t="n">
+      <c r="I69" s="2">
         <v>57</v>
       </c>
-      <c r="J69" s="2" t="n">
+      <c r="J69" s="2">
         <v>161</v>
       </c>
-      <c r="K69" s="2" t="n">
+      <c r="K69" s="2">
         <v>10</v>
       </c>
       <c r="L69" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="M69" s="5" t="n">
+      <c r="M69" s="5">
         <v>45420</v>
       </c>
     </row>
-    <row r="70" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A70" s="3" t="n">
+    <row r="70" spans="1:13" ht="13.8">
+      <c r="A70" s="3">
         <v>23304353</v>
       </c>
-      <c r="B70" s="3" t="n">
+      <c r="B70" s="3">
         <v>2</v>
       </c>
       <c r="C70" s="4" t="s">
@@ -4239,7 +4200,7 @@
       <c r="E70" s="4" t="s">
         <v>121</v>
       </c>
-      <c r="F70" s="3" t="n">
+      <c r="F70" s="3">
         <v>7299</v>
       </c>
       <c r="G70" s="4" t="s">
@@ -4248,10 +4209,10 @@
       <c r="H70" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="I70" s="2" t="n">
+      <c r="I70" s="2">
         <v>76</v>
       </c>
-      <c r="J70" s="2" t="n">
+      <c r="J70" s="2">
         <v>162</v>
       </c>
       <c r="K70" s="2" t="s">
@@ -4260,15 +4221,15 @@
       <c r="L70" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="M70" s="5" t="n">
+      <c r="M70" s="5">
         <v>45420</v>
       </c>
     </row>
-    <row r="71" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A71" s="3" t="n">
+    <row r="71" spans="1:13" ht="13.8">
+      <c r="A71" s="3">
         <v>23823776</v>
       </c>
-      <c r="B71" s="3" t="n">
+      <c r="B71" s="3">
         <v>9</v>
       </c>
       <c r="C71" s="4" t="s">
@@ -4280,7 +4241,7 @@
       <c r="E71" s="4" t="s">
         <v>205</v>
       </c>
-      <c r="F71" s="3" t="n">
+      <c r="F71" s="3">
         <v>7299</v>
       </c>
       <c r="G71" s="4" t="s">
@@ -4289,17 +4250,17 @@
       <c r="H71" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="I71" s="6"/>
-      <c r="J71" s="6"/>
-      <c r="K71" s="6"/>
+      <c r="I71" s="2"/>
+      <c r="J71" s="2"/>
+      <c r="K71" s="2"/>
       <c r="L71" s="4"/>
-      <c r="M71" s="6"/>
-    </row>
-    <row r="72" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A72" s="3" t="n">
+      <c r="M71" s="2"/>
+    </row>
+    <row r="72" spans="1:13" ht="13.8">
+      <c r="A72" s="3">
         <v>23044968</v>
       </c>
-      <c r="B72" s="3" t="n">
+      <c r="B72" s="3">
         <v>6</v>
       </c>
       <c r="C72" s="4" t="s">
@@ -4311,7 +4272,7 @@
       <c r="E72" s="4" t="s">
         <v>152</v>
       </c>
-      <c r="F72" s="3" t="n">
+      <c r="F72" s="3">
         <v>7299</v>
       </c>
       <c r="G72" s="4" t="s">
@@ -4320,17 +4281,17 @@
       <c r="H72" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="I72" s="6"/>
-      <c r="J72" s="6"/>
-      <c r="K72" s="6"/>
+      <c r="I72" s="2"/>
+      <c r="J72" s="2"/>
+      <c r="K72" s="2"/>
       <c r="L72" s="4"/>
-      <c r="M72" s="6"/>
-    </row>
-    <row r="73" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A73" s="3" t="n">
+      <c r="M72" s="2"/>
+    </row>
+    <row r="73" spans="1:13" ht="13.8">
+      <c r="A73" s="3">
         <v>23781345</v>
       </c>
-      <c r="B73" s="3" t="n">
+      <c r="B73" s="3">
         <v>6</v>
       </c>
       <c r="C73" s="4" t="s">
@@ -4342,7 +4303,7 @@
       <c r="E73" s="4" t="s">
         <v>210</v>
       </c>
-      <c r="F73" s="3" t="n">
+      <c r="F73" s="3">
         <v>7299</v>
       </c>
       <c r="G73" s="4" t="s">
@@ -4351,10 +4312,10 @@
       <c r="H73" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="I73" s="2" t="n">
+      <c r="I73" s="2">
         <v>48</v>
       </c>
-      <c r="J73" s="2" t="n">
+      <c r="J73" s="2">
         <v>156</v>
       </c>
       <c r="K73" s="2" t="s">
@@ -4363,12 +4324,12 @@
       <c r="L73" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="M73" s="5" t="n">
+      <c r="M73" s="5">
         <v>45420</v>
       </c>
     </row>
-    <row r="74" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A74" s="3" t="n">
+    <row r="74" spans="1:13" ht="13.8">
+      <c r="A74" s="3">
         <v>23677659</v>
       </c>
       <c r="B74" s="4" t="s">
@@ -4383,7 +4344,7 @@
       <c r="E74" s="4" t="s">
         <v>213</v>
       </c>
-      <c r="F74" s="3" t="n">
+      <c r="F74" s="3">
         <v>7299</v>
       </c>
       <c r="G74" s="4" t="s">
@@ -4392,27 +4353,27 @@
       <c r="H74" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="I74" s="2" t="n">
+      <c r="I74" s="2">
         <v>41</v>
       </c>
-      <c r="J74" s="2" t="n">
+      <c r="J74" s="2">
         <v>143</v>
       </c>
-      <c r="K74" s="2" t="n">
+      <c r="K74" s="2">
         <v>12</v>
       </c>
       <c r="L74" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="M74" s="5" t="n">
+      <c r="M74" s="5">
         <v>45420</v>
       </c>
     </row>
-    <row r="75" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A75" s="3" t="n">
+    <row r="75" spans="1:13" ht="13.8">
+      <c r="A75" s="3">
         <v>23680847</v>
       </c>
-      <c r="B75" s="3" t="n">
+      <c r="B75" s="3">
         <v>5</v>
       </c>
       <c r="C75" s="4" t="s">
@@ -4424,7 +4385,7 @@
       <c r="E75" s="4" t="s">
         <v>216</v>
       </c>
-      <c r="F75" s="3" t="n">
+      <c r="F75" s="3">
         <v>7299</v>
       </c>
       <c r="G75" s="4" t="s">
@@ -4433,10 +4394,10 @@
       <c r="H75" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="I75" s="2" t="n">
+      <c r="I75" s="2">
         <v>43</v>
       </c>
-      <c r="J75" s="2" t="n">
+      <c r="J75" s="2">
         <v>160</v>
       </c>
       <c r="K75" s="2" t="s">
@@ -4445,15 +4406,15 @@
       <c r="L75" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="M75" s="5" t="n">
+      <c r="M75" s="5">
         <v>45420</v>
       </c>
     </row>
-    <row r="76" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A76" s="3" t="n">
+    <row r="76" spans="1:13" ht="13.8">
+      <c r="A76" s="3">
         <v>23634403</v>
       </c>
-      <c r="B76" s="3" t="n">
+      <c r="B76" s="3">
         <v>7</v>
       </c>
       <c r="C76" s="4" t="s">
@@ -4465,7 +4426,7 @@
       <c r="E76" s="4" t="s">
         <v>219</v>
       </c>
-      <c r="F76" s="3" t="n">
+      <c r="F76" s="3">
         <v>7299</v>
       </c>
       <c r="G76" s="4" t="s">
@@ -4474,10 +4435,10 @@
       <c r="H76" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="I76" s="2" t="n">
+      <c r="I76" s="2">
         <v>54</v>
       </c>
-      <c r="J76" s="2" t="n">
+      <c r="J76" s="2">
         <v>163</v>
       </c>
       <c r="K76" s="2" t="s">
@@ -4486,15 +4447,15 @@
       <c r="L76" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="M76" s="5" t="n">
+      <c r="M76" s="5">
         <v>45420</v>
       </c>
     </row>
-    <row r="77" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A77" s="3" t="n">
+    <row r="77" spans="1:13" ht="13.8">
+      <c r="A77" s="3">
         <v>23920570</v>
       </c>
-      <c r="B77" s="3" t="n">
+      <c r="B77" s="3">
         <v>4</v>
       </c>
       <c r="C77" s="4" t="s">
@@ -4506,7 +4467,7 @@
       <c r="E77" s="4" t="s">
         <v>222</v>
       </c>
-      <c r="F77" s="3" t="n">
+      <c r="F77" s="3">
         <v>7299</v>
       </c>
       <c r="G77" s="4" t="s">
@@ -4515,27 +4476,27 @@
       <c r="H77" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="I77" s="2" t="n">
+      <c r="I77" s="2">
         <v>55</v>
       </c>
-      <c r="J77" s="2" t="n">
+      <c r="J77" s="2">
         <v>156</v>
       </c>
-      <c r="K77" s="2" t="n">
+      <c r="K77" s="2">
         <v>10</v>
       </c>
       <c r="L77" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="M77" s="5" t="n">
+      <c r="M77" s="5">
         <v>45420</v>
       </c>
     </row>
-    <row r="78" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A78" s="3" t="n">
+    <row r="78" spans="1:13" ht="13.8">
+      <c r="A78" s="3">
         <v>23701055</v>
       </c>
-      <c r="B78" s="3" t="n">
+      <c r="B78" s="3">
         <v>8</v>
       </c>
       <c r="C78" s="4" t="s">
@@ -4547,7 +4508,7 @@
       <c r="E78" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="F78" s="3" t="n">
+      <c r="F78" s="3">
         <v>7299</v>
       </c>
       <c r="G78" s="4" t="s">
@@ -4556,17 +4517,17 @@
       <c r="H78" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="I78" s="6"/>
-      <c r="J78" s="6"/>
-      <c r="K78" s="6"/>
+      <c r="I78" s="2"/>
+      <c r="J78" s="2"/>
+      <c r="K78" s="2"/>
       <c r="L78" s="4"/>
-      <c r="M78" s="6"/>
-    </row>
-    <row r="79" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A79" s="3" t="n">
+      <c r="M78" s="2"/>
+    </row>
+    <row r="79" spans="1:13" ht="13.8">
+      <c r="A79" s="3">
         <v>23839681</v>
       </c>
-      <c r="B79" s="3" t="n">
+      <c r="B79" s="3">
         <v>6</v>
       </c>
       <c r="C79" s="4" t="s">
@@ -4578,7 +4539,7 @@
       <c r="E79" s="4" t="s">
         <v>227</v>
       </c>
-      <c r="F79" s="3" t="n">
+      <c r="F79" s="3">
         <v>7299</v>
       </c>
       <c r="G79" s="4" t="s">
@@ -4587,27 +4548,27 @@
       <c r="H79" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="I79" s="2" t="n">
+      <c r="I79" s="2">
         <v>68</v>
       </c>
-      <c r="J79" s="2" t="n">
+      <c r="J79" s="2">
         <v>161</v>
       </c>
-      <c r="K79" s="2" t="n">
+      <c r="K79" s="2">
         <v>11</v>
       </c>
       <c r="L79" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="M79" s="5" t="n">
+      <c r="M79" s="5">
         <v>45420</v>
       </c>
     </row>
-    <row r="80" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A80" s="3" t="n">
+    <row r="80" spans="1:13" ht="13.8">
+      <c r="A80" s="3">
         <v>23617758</v>
       </c>
-      <c r="B80" s="3" t="n">
+      <c r="B80" s="3">
         <v>0</v>
       </c>
       <c r="C80" s="4" t="s">
@@ -4619,7 +4580,7 @@
       <c r="E80" s="4" t="s">
         <v>229</v>
       </c>
-      <c r="F80" s="3" t="n">
+      <c r="F80" s="3">
         <v>7299</v>
       </c>
       <c r="G80" s="4" t="s">
@@ -4628,10 +4589,10 @@
       <c r="H80" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="I80" s="2" t="n">
+      <c r="I80" s="2">
         <v>45</v>
       </c>
-      <c r="J80" s="2" t="n">
+      <c r="J80" s="2">
         <v>156</v>
       </c>
       <c r="K80" s="2" t="s">
@@ -4640,15 +4601,15 @@
       <c r="L80" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="M80" s="5" t="n">
+      <c r="M80" s="5">
         <v>45420</v>
       </c>
     </row>
-    <row r="81" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A81" s="3" t="n">
+    <row r="81" spans="1:13" ht="13.8">
+      <c r="A81" s="3">
         <v>23791612</v>
       </c>
-      <c r="B81" s="3" t="n">
+      <c r="B81" s="3">
         <v>3</v>
       </c>
       <c r="C81" s="4" t="s">
@@ -4660,7 +4621,7 @@
       <c r="E81" s="4" t="s">
         <v>232</v>
       </c>
-      <c r="F81" s="3" t="n">
+      <c r="F81" s="3">
         <v>7299</v>
       </c>
       <c r="G81" s="4" t="s">
@@ -4669,10 +4630,10 @@
       <c r="H81" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="I81" s="2" t="n">
+      <c r="I81" s="2">
         <v>42</v>
       </c>
-      <c r="J81" s="2" t="n">
+      <c r="J81" s="2">
         <v>158</v>
       </c>
       <c r="K81" s="2" t="s">
@@ -4681,15 +4642,15 @@
       <c r="L81" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="M81" s="5" t="n">
+      <c r="M81" s="5">
         <v>45420</v>
       </c>
     </row>
-    <row r="82" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A82" s="3" t="n">
+    <row r="82" spans="1:13" ht="13.8">
+      <c r="A82" s="3">
         <v>23820619</v>
       </c>
-      <c r="B82" s="3" t="n">
+      <c r="B82" s="3">
         <v>7</v>
       </c>
       <c r="C82" s="4" t="s">
@@ -4701,7 +4662,7 @@
       <c r="E82" s="4" t="s">
         <v>235</v>
       </c>
-      <c r="F82" s="3" t="n">
+      <c r="F82" s="3">
         <v>7299</v>
       </c>
       <c r="G82" s="4" t="s">
@@ -4710,19 +4671,19 @@
       <c r="H82" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="I82" s="6"/>
-      <c r="J82" s="6"/>
-      <c r="K82" s="6"/>
+      <c r="I82" s="2"/>
+      <c r="J82" s="2"/>
+      <c r="K82" s="2"/>
       <c r="L82" s="4"/>
       <c r="M82" s="2" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="83" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A83" s="3" t="n">
+    <row r="83" spans="1:13" ht="13.8">
+      <c r="A83" s="3">
         <v>23540505</v>
       </c>
-      <c r="B83" s="3" t="n">
+      <c r="B83" s="3">
         <v>9</v>
       </c>
       <c r="C83" s="4" t="s">
@@ -4734,7 +4695,7 @@
       <c r="E83" s="4" t="s">
         <v>239</v>
       </c>
-      <c r="F83" s="3" t="n">
+      <c r="F83" s="3">
         <v>7299</v>
       </c>
       <c r="G83" s="4" t="s">
@@ -4743,27 +4704,27 @@
       <c r="H83" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="I83" s="2" t="n">
+      <c r="I83" s="2">
         <v>67</v>
       </c>
-      <c r="J83" s="2" t="n">
+      <c r="J83" s="2">
         <v>157</v>
       </c>
-      <c r="K83" s="2" t="n">
+      <c r="K83" s="2">
         <v>12</v>
       </c>
       <c r="L83" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="M83" s="5" t="n">
+      <c r="M83" s="5">
         <v>45420</v>
       </c>
     </row>
-    <row r="84" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A84" s="3" t="n">
+    <row r="84" spans="1:13" ht="13.8">
+      <c r="A84" s="3">
         <v>23689235</v>
       </c>
-      <c r="B84" s="3" t="n">
+      <c r="B84" s="3">
         <v>2</v>
       </c>
       <c r="C84" s="4" t="s">
@@ -4775,7 +4736,7 @@
       <c r="E84" s="4" t="s">
         <v>242</v>
       </c>
-      <c r="F84" s="3" t="n">
+      <c r="F84" s="3">
         <v>7299</v>
       </c>
       <c r="G84" s="4" t="s">
@@ -4784,19 +4745,19 @@
       <c r="H84" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="I84" s="6"/>
-      <c r="J84" s="6"/>
-      <c r="K84" s="6"/>
+      <c r="I84" s="2"/>
+      <c r="J84" s="2"/>
+      <c r="K84" s="2"/>
       <c r="L84" s="4"/>
       <c r="M84" s="2" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="85" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A85" s="3" t="n">
+    <row r="85" spans="1:13" ht="13.8">
+      <c r="A85" s="3">
         <v>23727340</v>
       </c>
-      <c r="B85" s="3" t="n">
+      <c r="B85" s="3">
         <v>0</v>
       </c>
       <c r="C85" s="4" t="s">
@@ -4808,7 +4769,7 @@
       <c r="E85" s="4" t="s">
         <v>245</v>
       </c>
-      <c r="F85" s="3" t="n">
+      <c r="F85" s="3">
         <v>7299</v>
       </c>
       <c r="G85" s="4" t="s">
@@ -4817,10 +4778,10 @@
       <c r="H85" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="I85" s="2" t="n">
+      <c r="I85" s="2">
         <v>48</v>
       </c>
-      <c r="J85" s="2" t="n">
+      <c r="J85" s="2">
         <v>152</v>
       </c>
       <c r="K85" s="2" t="s">
@@ -4829,15 +4790,15 @@
       <c r="L85" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="M85" s="5" t="n">
+      <c r="M85" s="5">
         <v>45420</v>
       </c>
     </row>
-    <row r="86" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A86" s="3" t="n">
+    <row r="86" spans="1:13" ht="13.8">
+      <c r="A86" s="3">
         <v>23229644</v>
       </c>
-      <c r="B86" s="3" t="n">
+      <c r="B86" s="3">
         <v>5</v>
       </c>
       <c r="C86" s="4" t="s">
@@ -4849,7 +4810,7 @@
       <c r="E86" s="4" t="s">
         <v>247</v>
       </c>
-      <c r="F86" s="3" t="n">
+      <c r="F86" s="3">
         <v>7299</v>
       </c>
       <c r="G86" s="4" t="s">
@@ -4858,19 +4819,19 @@
       <c r="H86" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="I86" s="6"/>
-      <c r="J86" s="6"/>
-      <c r="K86" s="6"/>
+      <c r="I86" s="2"/>
+      <c r="J86" s="2"/>
+      <c r="K86" s="2"/>
       <c r="L86" s="4"/>
       <c r="M86" s="2" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="87" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A87" s="3" t="n">
+    <row r="87" spans="1:13" ht="13.8">
+      <c r="A87" s="3">
         <v>23795242</v>
       </c>
-      <c r="B87" s="3" t="n">
+      <c r="B87" s="3">
         <v>1</v>
       </c>
       <c r="C87" s="4" t="s">
@@ -4882,7 +4843,7 @@
       <c r="E87" s="4" t="s">
         <v>250</v>
       </c>
-      <c r="F87" s="3" t="n">
+      <c r="F87" s="3">
         <v>7299</v>
       </c>
       <c r="G87" s="4" t="s">
@@ -4891,27 +4852,27 @@
       <c r="H87" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="I87" s="2" t="n">
+      <c r="I87" s="2">
         <v>40</v>
       </c>
-      <c r="J87" s="2" t="n">
+      <c r="J87" s="2">
         <v>151</v>
       </c>
-      <c r="K87" s="2" t="n">
+      <c r="K87" s="2">
         <v>12</v>
       </c>
       <c r="L87" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="M87" s="5" t="n">
+      <c r="M87" s="5">
         <v>45420</v>
       </c>
     </row>
-    <row r="88" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A88" s="3" t="n">
+    <row r="88" spans="1:13" ht="13.8">
+      <c r="A88" s="3">
         <v>23625442</v>
       </c>
-      <c r="B88" s="3" t="n">
+      <c r="B88" s="3">
         <v>9</v>
       </c>
       <c r="C88" s="4" t="s">
@@ -4923,7 +4884,7 @@
       <c r="E88" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="F88" s="3" t="n">
+      <c r="F88" s="3">
         <v>7299</v>
       </c>
       <c r="G88" s="4" t="s">
@@ -4932,10 +4893,10 @@
       <c r="H88" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="I88" s="2" t="n">
+      <c r="I88" s="2">
         <v>52</v>
       </c>
-      <c r="J88" s="2" t="n">
+      <c r="J88" s="2">
         <v>157</v>
       </c>
       <c r="K88" s="2" t="s">
@@ -4944,15 +4905,15 @@
       <c r="L88" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="M88" s="5" t="n">
+      <c r="M88" s="5">
         <v>45420</v>
       </c>
     </row>
-    <row r="89" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A89" s="3" t="n">
+    <row r="89" spans="1:13" ht="13.8">
+      <c r="A89" s="3">
         <v>23782748</v>
       </c>
-      <c r="B89" s="3" t="n">
+      <c r="B89" s="3">
         <v>1</v>
       </c>
       <c r="C89" s="4" t="s">
@@ -4964,7 +4925,7 @@
       <c r="E89" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="F89" s="3" t="n">
+      <c r="F89" s="3">
         <v>7299</v>
       </c>
       <c r="G89" s="4" t="s">
@@ -4973,10 +4934,10 @@
       <c r="H89" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="I89" s="2" t="n">
+      <c r="I89" s="2">
         <v>70</v>
       </c>
-      <c r="J89" s="2" t="n">
+      <c r="J89" s="2">
         <v>170</v>
       </c>
       <c r="K89" s="2" t="s">
@@ -4985,15 +4946,15 @@
       <c r="L89" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="M89" s="5" t="n">
+      <c r="M89" s="5">
         <v>45420</v>
       </c>
     </row>
-    <row r="90" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A90" s="3" t="n">
+    <row r="90" spans="1:13" ht="13.8">
+      <c r="A90" s="3">
         <v>23790951</v>
       </c>
-      <c r="B90" s="3" t="n">
+      <c r="B90" s="3">
         <v>8</v>
       </c>
       <c r="C90" s="4" t="s">
@@ -5005,7 +4966,7 @@
       <c r="E90" s="4" t="s">
         <v>257</v>
       </c>
-      <c r="F90" s="3" t="n">
+      <c r="F90" s="3">
         <v>7299</v>
       </c>
       <c r="G90" s="4" t="s">
@@ -5014,27 +4975,27 @@
       <c r="H90" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="I90" s="2" t="n">
+      <c r="I90" s="2">
         <v>45</v>
       </c>
-      <c r="J90" s="2" t="n">
+      <c r="J90" s="2">
         <v>155</v>
       </c>
-      <c r="K90" s="2" t="n">
+      <c r="K90" s="2">
         <v>12</v>
       </c>
       <c r="L90" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="M90" s="5" t="n">
+      <c r="M90" s="5">
         <v>45420</v>
       </c>
     </row>
-    <row r="91" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A91" s="3" t="n">
+    <row r="91" spans="1:13" ht="13.8">
+      <c r="A91" s="3">
         <v>23805807</v>
       </c>
-      <c r="B91" s="3" t="n">
+      <c r="B91" s="3">
         <v>4</v>
       </c>
       <c r="C91" s="4" t="s">
@@ -5046,7 +5007,7 @@
       <c r="E91" s="4" t="s">
         <v>260</v>
       </c>
-      <c r="F91" s="3" t="n">
+      <c r="F91" s="3">
         <v>7299</v>
       </c>
       <c r="G91" s="4" t="s">
@@ -5055,10 +5016,10 @@
       <c r="H91" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="I91" s="2" t="n">
+      <c r="I91" s="2">
         <v>71</v>
       </c>
-      <c r="J91" s="2" t="n">
+      <c r="J91" s="2">
         <v>161</v>
       </c>
       <c r="K91" s="2" t="s">
@@ -5067,12 +5028,12 @@
       <c r="L91" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="M91" s="8" t="n">
+      <c r="M91" s="7">
         <v>45420</v>
       </c>
     </row>
-    <row r="92" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A92" s="3" t="n">
+    <row r="92" spans="1:13" ht="13.8">
+      <c r="A92" s="3">
         <v>23352607</v>
       </c>
       <c r="B92" s="4" t="s">
@@ -5087,7 +5048,7 @@
       <c r="E92" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="F92" s="3" t="n">
+      <c r="F92" s="3">
         <v>7299</v>
       </c>
       <c r="G92" s="4" t="s">
@@ -5096,10 +5057,10 @@
       <c r="H92" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="I92" s="2" t="n">
+      <c r="I92" s="2">
         <v>56</v>
       </c>
-      <c r="J92" s="2" t="n">
+      <c r="J92" s="2">
         <v>154</v>
       </c>
       <c r="K92" s="2" t="s">
@@ -5108,15 +5069,15 @@
       <c r="L92" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="M92" s="5" t="n">
+      <c r="M92" s="5">
         <v>45420</v>
       </c>
     </row>
-    <row r="93" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A93" s="3" t="n">
+    <row r="93" spans="1:13" ht="13.8">
+      <c r="A93" s="3">
         <v>23702663</v>
       </c>
-      <c r="B93" s="3" t="n">
+      <c r="B93" s="3">
         <v>2</v>
       </c>
       <c r="C93" s="4" t="s">
@@ -5128,7 +5089,7 @@
       <c r="E93" s="4" t="s">
         <v>239</v>
       </c>
-      <c r="F93" s="3" t="n">
+      <c r="F93" s="3">
         <v>7299</v>
       </c>
       <c r="G93" s="4" t="s">
@@ -5137,27 +5098,27 @@
       <c r="H93" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="I93" s="2" t="n">
+      <c r="I93" s="2">
         <v>48</v>
       </c>
-      <c r="J93" s="2" t="n">
+      <c r="J93" s="2">
         <v>153</v>
       </c>
-      <c r="K93" s="2" t="n">
+      <c r="K93" s="2">
         <v>12</v>
       </c>
       <c r="L93" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="M93" s="5" t="n">
+      <c r="M93" s="5">
         <v>45420</v>
       </c>
     </row>
-    <row r="94" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A94" s="3" t="n">
+    <row r="94" spans="1:13" ht="13.8">
+      <c r="A94" s="3">
         <v>23732668</v>
       </c>
-      <c r="B94" s="3" t="n">
+      <c r="B94" s="3">
         <v>7</v>
       </c>
       <c r="C94" s="4" t="s">
@@ -5169,7 +5130,7 @@
       <c r="E94" s="4" t="s">
         <v>266</v>
       </c>
-      <c r="F94" s="3" t="n">
+      <c r="F94" s="3">
         <v>7299</v>
       </c>
       <c r="G94" s="4" t="s">
@@ -5178,10 +5139,10 @@
       <c r="H94" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="I94" s="2" t="n">
+      <c r="I94" s="2">
         <v>37</v>
       </c>
-      <c r="J94" s="2" t="n">
+      <c r="J94" s="2">
         <v>147</v>
       </c>
       <c r="K94" s="2" t="s">
@@ -5190,15 +5151,15 @@
       <c r="L94" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="M94" s="5" t="n">
+      <c r="M94" s="5">
         <v>45420</v>
       </c>
     </row>
-    <row r="95" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A95" s="3" t="n">
+    <row r="95" spans="1:13" ht="13.8">
+      <c r="A95" s="3">
         <v>23671657</v>
       </c>
-      <c r="B95" s="3" t="n">
+      <c r="B95" s="3">
         <v>0</v>
       </c>
       <c r="C95" s="4" t="s">
@@ -5210,7 +5171,7 @@
       <c r="E95" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="F95" s="3" t="n">
+      <c r="F95" s="3">
         <v>7299</v>
       </c>
       <c r="G95" s="4" t="s">
@@ -5219,10 +5180,10 @@
       <c r="H95" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="I95" s="2" t="n">
+      <c r="I95" s="2">
         <v>53</v>
       </c>
-      <c r="J95" s="2" t="n">
+      <c r="J95" s="2">
         <v>155</v>
       </c>
       <c r="K95" s="2" t="s">
@@ -5231,15 +5192,15 @@
       <c r="L95" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="M95" s="5" t="n">
+      <c r="M95" s="5">
         <v>45420</v>
       </c>
     </row>
-    <row r="96" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A96" s="3" t="n">
+    <row r="96" spans="1:13" ht="13.8">
+      <c r="A96" s="3">
         <v>23721025</v>
       </c>
-      <c r="B96" s="3" t="n">
+      <c r="B96" s="3">
         <v>5</v>
       </c>
       <c r="C96" s="4" t="s">
@@ -5251,7 +5212,7 @@
       <c r="E96" s="4" t="s">
         <v>270</v>
       </c>
-      <c r="F96" s="3" t="n">
+      <c r="F96" s="3">
         <v>7299</v>
       </c>
       <c r="G96" s="4" t="s">
@@ -5260,10 +5221,10 @@
       <c r="H96" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="I96" s="2" t="n">
+      <c r="I96" s="2">
         <v>65</v>
       </c>
-      <c r="J96" s="2" t="n">
+      <c r="J96" s="2">
         <v>172</v>
       </c>
       <c r="K96" s="2" t="s">
@@ -5272,15 +5233,15 @@
       <c r="L96" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="M96" s="5" t="n">
+      <c r="M96" s="5">
         <v>45420</v>
       </c>
     </row>
-    <row r="97" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A97" s="3" t="n">
+    <row r="97" spans="1:13" ht="13.8">
+      <c r="A97" s="3">
         <v>23704119</v>
       </c>
-      <c r="B97" s="3" t="n">
+      <c r="B97" s="3">
         <v>4</v>
       </c>
       <c r="C97" s="4" t="s">
@@ -5292,7 +5253,7 @@
       <c r="E97" s="4" t="s">
         <v>204</v>
       </c>
-      <c r="F97" s="3" t="n">
+      <c r="F97" s="3">
         <v>7299</v>
       </c>
       <c r="G97" s="4" t="s">
@@ -5301,27 +5262,27 @@
       <c r="H97" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="I97" s="2" t="n">
+      <c r="I97" s="2">
         <v>78</v>
       </c>
-      <c r="J97" s="2" t="n">
+      <c r="J97" s="2">
         <v>157</v>
       </c>
-      <c r="K97" s="2" t="n">
+      <c r="K97" s="2">
         <v>12</v>
       </c>
       <c r="L97" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="M97" s="5" t="n">
+      <c r="M97" s="5">
         <v>45420</v>
       </c>
     </row>
-    <row r="98" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A98" s="3" t="n">
+    <row r="98" spans="1:13" ht="13.8">
+      <c r="A98" s="3">
         <v>23466630</v>
       </c>
-      <c r="B98" s="3" t="n">
+      <c r="B98" s="3">
         <v>4</v>
       </c>
       <c r="C98" s="4" t="s">
@@ -5333,7 +5294,7 @@
       <c r="E98" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="F98" s="3" t="n">
+      <c r="F98" s="3">
         <v>7299</v>
       </c>
       <c r="G98" s="4" t="s">
@@ -5342,10 +5303,10 @@
       <c r="H98" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="I98" s="2" t="n">
+      <c r="I98" s="2">
         <v>46</v>
       </c>
-      <c r="J98" s="2" t="n">
+      <c r="J98" s="2">
         <v>156</v>
       </c>
       <c r="K98" s="2" t="s">
@@ -5354,15 +5315,15 @@
       <c r="L98" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="M98" s="5" t="n">
+      <c r="M98" s="5">
         <v>45420</v>
       </c>
     </row>
-    <row r="99" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A99" s="3" t="n">
+    <row r="99" spans="1:13" ht="13.8">
+      <c r="A99" s="3">
         <v>23755983</v>
       </c>
-      <c r="B99" s="3" t="n">
+      <c r="B99" s="3">
         <v>5</v>
       </c>
       <c r="C99" s="4" t="s">
@@ -5374,7 +5335,7 @@
       <c r="E99" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="F99" s="3" t="n">
+      <c r="F99" s="3">
         <v>7299</v>
       </c>
       <c r="G99" s="4" t="s">
@@ -5383,27 +5344,27 @@
       <c r="H99" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="I99" s="2" t="n">
+      <c r="I99" s="2">
         <v>51</v>
       </c>
-      <c r="J99" s="2" t="n">
+      <c r="J99" s="2">
         <v>164</v>
       </c>
-      <c r="K99" s="2" t="n">
+      <c r="K99" s="2">
         <v>10</v>
       </c>
       <c r="L99" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="M99" s="5" t="n">
+      <c r="M99" s="5">
         <v>45420</v>
       </c>
     </row>
-    <row r="100" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A100" s="3" t="n">
+    <row r="100" spans="1:13" ht="13.8">
+      <c r="A100" s="3">
         <v>23702622</v>
       </c>
-      <c r="B100" s="3" t="n">
+      <c r="B100" s="3">
         <v>5</v>
       </c>
       <c r="C100" s="4" t="s">
@@ -5415,7 +5376,7 @@
       <c r="E100" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="F100" s="3" t="n">
+      <c r="F100" s="3">
         <v>7299</v>
       </c>
       <c r="G100" s="4" t="s">
@@ -5424,27 +5385,27 @@
       <c r="H100" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="I100" s="2" t="n">
+      <c r="I100" s="2">
         <v>63</v>
       </c>
-      <c r="J100" s="2" t="n">
+      <c r="J100" s="2">
         <v>159</v>
       </c>
-      <c r="K100" s="2" t="n">
+      <c r="K100" s="2">
         <v>10</v>
       </c>
       <c r="L100" s="4" t="s">
         <v>185</v>
       </c>
-      <c r="M100" s="5" t="n">
+      <c r="M100" s="5">
         <v>45390</v>
       </c>
     </row>
-    <row r="101" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A101" s="3" t="n">
+    <row r="101" spans="1:13" ht="13.8">
+      <c r="A101" s="3">
         <v>23713962</v>
       </c>
-      <c r="B101" s="3" t="n">
+      <c r="B101" s="3">
         <v>3</v>
       </c>
       <c r="C101" s="4" t="s">
@@ -5456,7 +5417,7 @@
       <c r="E101" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="F101" s="3" t="n">
+      <c r="F101" s="3">
         <v>7299</v>
       </c>
       <c r="G101" s="4" t="s">
@@ -5465,27 +5426,27 @@
       <c r="H101" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="I101" s="2" t="n">
+      <c r="I101" s="2">
         <v>55</v>
       </c>
-      <c r="J101" s="2" t="n">
+      <c r="J101" s="2">
         <v>158</v>
       </c>
-      <c r="K101" s="2" t="n">
+      <c r="K101" s="2">
         <v>8</v>
       </c>
       <c r="L101" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="M101" s="5" t="n">
+      <c r="M101" s="5">
         <v>45390</v>
       </c>
     </row>
-    <row r="102" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A102" s="3" t="n">
+    <row r="102" spans="1:13" ht="13.8">
+      <c r="A102" s="3">
         <v>23875745</v>
       </c>
-      <c r="B102" s="3" t="n">
+      <c r="B102" s="3">
         <v>2</v>
       </c>
       <c r="C102" s="4" t="s">
@@ -5497,7 +5458,7 @@
       <c r="E102" s="4" t="s">
         <v>282</v>
       </c>
-      <c r="F102" s="3" t="n">
+      <c r="F102" s="3">
         <v>7299</v>
       </c>
       <c r="G102" s="4" t="s">
@@ -5506,10 +5467,10 @@
       <c r="H102" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="I102" s="2" t="n">
+      <c r="I102" s="2">
         <v>57</v>
       </c>
-      <c r="J102" s="2" t="n">
+      <c r="J102" s="2">
         <v>156</v>
       </c>
       <c r="K102" s="2" t="s">
@@ -5518,15 +5479,15 @@
       <c r="L102" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="M102" s="5" t="n">
+      <c r="M102" s="5">
         <v>45420</v>
       </c>
     </row>
-    <row r="103" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A103" s="3" t="n">
+    <row r="103" spans="1:13" ht="13.8">
+      <c r="A103" s="3">
         <v>23688894</v>
       </c>
-      <c r="B103" s="3" t="n">
+      <c r="B103" s="3">
         <v>0</v>
       </c>
       <c r="C103" s="4" t="s">
@@ -5538,7 +5499,7 @@
       <c r="E103" s="4" t="s">
         <v>285</v>
       </c>
-      <c r="F103" s="3" t="n">
+      <c r="F103" s="3">
         <v>7299</v>
       </c>
       <c r="G103" s="4" t="s">
@@ -5547,27 +5508,27 @@
       <c r="H103" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="I103" s="2" t="n">
+      <c r="I103" s="2">
         <v>78</v>
       </c>
-      <c r="J103" s="2" t="n">
+      <c r="J103" s="2">
         <v>156</v>
       </c>
-      <c r="K103" s="2" t="n">
+      <c r="K103" s="2">
         <v>10</v>
       </c>
       <c r="L103" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="M103" s="5" t="n">
+      <c r="M103" s="5">
         <v>45420</v>
       </c>
     </row>
-    <row r="104" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A104" s="3" t="n">
+    <row r="104" spans="1:13" ht="13.8">
+      <c r="A104" s="3">
         <v>23688602</v>
       </c>
-      <c r="B104" s="3" t="n">
+      <c r="B104" s="3">
         <v>6</v>
       </c>
       <c r="C104" s="4" t="s">
@@ -5579,7 +5540,7 @@
       <c r="E104" s="4" t="s">
         <v>287</v>
       </c>
-      <c r="F104" s="3" t="n">
+      <c r="F104" s="3">
         <v>7299</v>
       </c>
       <c r="G104" s="4" t="s">
@@ -5588,24 +5549,24 @@
       <c r="H104" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="I104" s="2" t="n">
+      <c r="I104" s="2">
         <v>76</v>
       </c>
-      <c r="J104" s="2" t="n">
+      <c r="J104" s="2">
         <v>158</v>
       </c>
-      <c r="K104" s="2" t="n">
+      <c r="K104" s="2">
         <v>11</v>
       </c>
       <c r="L104" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="M104" s="5" t="n">
+      <c r="M104" s="5">
         <v>45420</v>
       </c>
     </row>
-    <row r="105" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A105" s="3" t="n">
+    <row r="105" spans="1:13" ht="13.8">
+      <c r="A105" s="3">
         <v>23941429</v>
       </c>
       <c r="B105" s="4" t="s">
@@ -5620,7 +5581,7 @@
       <c r="E105" s="4" t="s">
         <v>262</v>
       </c>
-      <c r="F105" s="3" t="n">
+      <c r="F105" s="3">
         <v>7299</v>
       </c>
       <c r="G105" s="4" t="s">
@@ -5629,10 +5590,10 @@
       <c r="H105" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="I105" s="2" t="n">
+      <c r="I105" s="2">
         <v>84</v>
       </c>
-      <c r="J105" s="2" t="n">
+      <c r="J105" s="2">
         <v>163</v>
       </c>
       <c r="K105" s="2" t="s">
@@ -5641,15 +5602,15 @@
       <c r="L105" s="4" t="s">
         <v>185</v>
       </c>
-      <c r="M105" s="5" t="n">
+      <c r="M105" s="5">
         <v>45420</v>
       </c>
     </row>
-    <row r="106" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A106" s="3" t="n">
+    <row r="106" spans="1:13" ht="13.8">
+      <c r="A106" s="3">
         <v>23710148</v>
       </c>
-      <c r="B106" s="3" t="n">
+      <c r="B106" s="3">
         <v>0</v>
       </c>
       <c r="C106" s="4" t="s">
@@ -5661,7 +5622,7 @@
       <c r="E106" s="4" t="s">
         <v>290</v>
       </c>
-      <c r="F106" s="3" t="n">
+      <c r="F106" s="3">
         <v>7299</v>
       </c>
       <c r="G106" s="4" t="s">
@@ -5670,10 +5631,10 @@
       <c r="H106" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="I106" s="2" t="n">
+      <c r="I106" s="2">
         <v>41</v>
       </c>
-      <c r="J106" s="2" t="n">
+      <c r="J106" s="2">
         <v>149</v>
       </c>
       <c r="K106" s="2" t="s">
@@ -5682,15 +5643,15 @@
       <c r="L106" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="M106" s="5" t="n">
+      <c r="M106" s="5">
         <v>45420</v>
       </c>
     </row>
-    <row r="107" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A107" s="3" t="n">
+    <row r="107" spans="1:13" ht="13.8">
+      <c r="A107" s="3">
         <v>23740321</v>
       </c>
-      <c r="B107" s="3" t="n">
+      <c r="B107" s="3">
         <v>5</v>
       </c>
       <c r="C107" s="4" t="s">
@@ -5702,7 +5663,7 @@
       <c r="E107" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="F107" s="3" t="n">
+      <c r="F107" s="3">
         <v>7299</v>
       </c>
       <c r="G107" s="4" t="s">
@@ -5711,10 +5672,10 @@
       <c r="H107" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="I107" s="2" t="n">
+      <c r="I107" s="2">
         <v>49</v>
       </c>
-      <c r="J107" s="2" t="n">
+      <c r="J107" s="2">
         <v>151</v>
       </c>
       <c r="K107" s="2" t="s">
@@ -5723,15 +5684,15 @@
       <c r="L107" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="M107" s="5" t="n">
+      <c r="M107" s="5">
         <v>45420</v>
       </c>
     </row>
-    <row r="108" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A108" s="3" t="n">
+    <row r="108" spans="1:13" ht="13.8">
+      <c r="A108" s="3">
         <v>23732677</v>
       </c>
-      <c r="B108" s="3" t="n">
+      <c r="B108" s="3">
         <v>6</v>
       </c>
       <c r="C108" s="4" t="s">
@@ -5743,7 +5704,7 @@
       <c r="E108" s="4" t="s">
         <v>293</v>
       </c>
-      <c r="F108" s="3" t="n">
+      <c r="F108" s="3">
         <v>7299</v>
       </c>
       <c r="G108" s="4" t="s">
@@ -5752,19 +5713,19 @@
       <c r="H108" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="I108" s="6"/>
-      <c r="J108" s="6"/>
-      <c r="K108" s="6"/>
-      <c r="L108" s="7" t="s">
+      <c r="I108" s="2"/>
+      <c r="J108" s="2"/>
+      <c r="K108" s="2"/>
+      <c r="L108" s="6" t="s">
         <v>174</v>
       </c>
-      <c r="M108" s="6"/>
-    </row>
-    <row r="109" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A109" s="3" t="n">
+      <c r="M108" s="2"/>
+    </row>
+    <row r="109" spans="1:13" ht="13.8">
+      <c r="A109" s="3">
         <v>23767401</v>
       </c>
-      <c r="B109" s="3" t="n">
+      <c r="B109" s="3">
         <v>4</v>
       </c>
       <c r="C109" s="4" t="s">
@@ -5776,7 +5737,7 @@
       <c r="E109" s="4" t="s">
         <v>295</v>
       </c>
-      <c r="F109" s="3" t="n">
+      <c r="F109" s="3">
         <v>7299</v>
       </c>
       <c r="G109" s="4" t="s">
@@ -5785,27 +5746,27 @@
       <c r="H109" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="I109" s="2" t="n">
+      <c r="I109" s="2">
         <v>86</v>
       </c>
-      <c r="J109" s="2" t="n">
+      <c r="J109" s="2">
         <v>160</v>
       </c>
-      <c r="K109" s="2" t="n">
+      <c r="K109" s="2">
         <v>10</v>
       </c>
       <c r="L109" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="M109" s="5" t="n">
+      <c r="M109" s="5">
         <v>45420</v>
       </c>
     </row>
-    <row r="110" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A110" s="3" t="n">
+    <row r="110" spans="1:13" ht="13.8">
+      <c r="A110" s="3">
         <v>23823027</v>
       </c>
-      <c r="B110" s="3" t="n">
+      <c r="B110" s="3">
         <v>6</v>
       </c>
       <c r="C110" s="4" t="s">
@@ -5817,7 +5778,7 @@
       <c r="E110" s="4" t="s">
         <v>298</v>
       </c>
-      <c r="F110" s="3" t="n">
+      <c r="F110" s="3">
         <v>7299</v>
       </c>
       <c r="G110" s="4" t="s">
@@ -5826,10 +5787,10 @@
       <c r="H110" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="I110" s="2" t="n">
+      <c r="I110" s="2">
         <v>48</v>
       </c>
-      <c r="J110" s="2" t="n">
+      <c r="J110" s="2">
         <v>152</v>
       </c>
       <c r="K110" s="2" t="s">
@@ -5838,15 +5799,15 @@
       <c r="L110" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="M110" s="5" t="n">
+      <c r="M110" s="5">
         <v>45420</v>
       </c>
     </row>
-    <row r="111" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A111" s="3" t="n">
+    <row r="111" spans="1:13" ht="13.8">
+      <c r="A111" s="3">
         <v>23580205</v>
       </c>
-      <c r="B111" s="3" t="n">
+      <c r="B111" s="3">
         <v>8</v>
       </c>
       <c r="C111" s="4" t="s">
@@ -5858,7 +5819,7 @@
       <c r="E111" s="4" t="s">
         <v>177</v>
       </c>
-      <c r="F111" s="3" t="n">
+      <c r="F111" s="3">
         <v>7299</v>
       </c>
       <c r="G111" s="4" t="s">
@@ -5867,10 +5828,10 @@
       <c r="H111" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="I111" s="2" t="n">
+      <c r="I111" s="2">
         <v>34</v>
       </c>
-      <c r="J111" s="2" t="n">
+      <c r="J111" s="2">
         <v>146</v>
       </c>
       <c r="K111" s="2" t="s">
@@ -5879,15 +5840,15 @@
       <c r="L111" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="M111" s="5" t="n">
+      <c r="M111" s="5">
         <v>45420</v>
       </c>
     </row>
-    <row r="112" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A112" s="3" t="n">
+    <row r="112" spans="1:13" ht="13.8">
+      <c r="A112" s="3">
         <v>23580195</v>
       </c>
-      <c r="B112" s="3" t="n">
+      <c r="B112" s="3">
         <v>7</v>
       </c>
       <c r="C112" s="4" t="s">
@@ -5899,7 +5860,7 @@
       <c r="E112" s="4" t="s">
         <v>177</v>
       </c>
-      <c r="F112" s="3" t="n">
+      <c r="F112" s="3">
         <v>7299</v>
       </c>
       <c r="G112" s="4" t="s">
@@ -5908,10 +5869,10 @@
       <c r="H112" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="I112" s="2" t="n">
+      <c r="I112" s="2">
         <v>38</v>
       </c>
-      <c r="J112" s="2" t="n">
+      <c r="J112" s="2">
         <v>149</v>
       </c>
       <c r="K112" s="2" t="s">
@@ -5920,15 +5881,15 @@
       <c r="L112" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="M112" s="5" t="n">
+      <c r="M112" s="5">
         <v>45420</v>
       </c>
     </row>
-    <row r="113" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A113" s="3" t="n">
+    <row r="113" spans="1:13" ht="13.8">
+      <c r="A113" s="3">
         <v>23775563</v>
       </c>
-      <c r="B113" s="3" t="n">
+      <c r="B113" s="3">
         <v>4</v>
       </c>
       <c r="C113" s="4" t="s">
@@ -5940,7 +5901,7 @@
       <c r="E113" s="4" t="s">
         <v>204</v>
       </c>
-      <c r="F113" s="3" t="n">
+      <c r="F113" s="3">
         <v>22758</v>
       </c>
       <c r="G113" s="4" t="s">
@@ -5949,10 +5910,10 @@
       <c r="H113" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="I113" s="2" t="n">
+      <c r="I113" s="2">
         <v>44</v>
       </c>
-      <c r="J113" s="2" t="n">
+      <c r="J113" s="2">
         <v>151</v>
       </c>
       <c r="K113" s="2" t="s">
@@ -5961,15 +5922,15 @@
       <c r="L113" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="M113" s="5" t="n">
+      <c r="M113" s="5">
         <v>45421</v>
       </c>
     </row>
-    <row r="114" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A114" s="3" t="n">
+    <row r="114" spans="1:13" ht="13.8">
+      <c r="A114" s="3">
         <v>23806972</v>
       </c>
-      <c r="B114" s="3" t="n">
+      <c r="B114" s="3">
         <v>6</v>
       </c>
       <c r="C114" s="4" t="s">
@@ -5981,7 +5942,7 @@
       <c r="E114" s="4" t="s">
         <v>304</v>
       </c>
-      <c r="F114" s="3" t="n">
+      <c r="F114" s="3">
         <v>22758</v>
       </c>
       <c r="G114" s="4" t="s">
@@ -5990,10 +5951,10 @@
       <c r="H114" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="I114" s="2" t="n">
+      <c r="I114" s="2">
         <v>57</v>
       </c>
-      <c r="J114" s="2" t="n">
+      <c r="J114" s="2">
         <v>166</v>
       </c>
       <c r="K114" s="2" t="s">
@@ -6002,15 +5963,15 @@
       <c r="L114" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="M114" s="5" t="n">
+      <c r="M114" s="5">
         <v>45421</v>
       </c>
     </row>
-    <row r="115" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A115" s="3" t="n">
+    <row r="115" spans="1:13" ht="13.8">
+      <c r="A115" s="3">
         <v>23719371</v>
       </c>
-      <c r="B115" s="3" t="n">
+      <c r="B115" s="3">
         <v>7</v>
       </c>
       <c r="C115" s="4" t="s">
@@ -6022,7 +5983,7 @@
       <c r="E115" s="4" t="s">
         <v>299</v>
       </c>
-      <c r="F115" s="3" t="n">
+      <c r="F115" s="3">
         <v>22758</v>
       </c>
       <c r="G115" s="4" t="s">
@@ -6031,27 +5992,27 @@
       <c r="H115" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="I115" s="2" t="n">
+      <c r="I115" s="2">
         <v>50</v>
       </c>
-      <c r="J115" s="2" t="n">
+      <c r="J115" s="2">
         <v>163</v>
       </c>
-      <c r="K115" s="2" t="n">
+      <c r="K115" s="2">
         <v>11</v>
       </c>
       <c r="L115" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="M115" s="5" t="n">
+      <c r="M115" s="5">
         <v>45421</v>
       </c>
     </row>
-    <row r="116" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A116" s="3" t="n">
+    <row r="116" spans="1:13" ht="13.8">
+      <c r="A116" s="3">
         <v>23861526</v>
       </c>
-      <c r="B116" s="3" t="n">
+      <c r="B116" s="3">
         <v>7</v>
       </c>
       <c r="C116" s="4" t="s">
@@ -6063,7 +6024,7 @@
       <c r="E116" s="4" t="s">
         <v>287</v>
       </c>
-      <c r="F116" s="3" t="n">
+      <c r="F116" s="3">
         <v>22758</v>
       </c>
       <c r="G116" s="4" t="s">
@@ -6072,27 +6033,27 @@
       <c r="H116" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="I116" s="2" t="n">
+      <c r="I116" s="2">
         <v>59</v>
       </c>
-      <c r="J116" s="2" t="n">
+      <c r="J116" s="2">
         <v>153</v>
       </c>
-      <c r="K116" s="2" t="n">
+      <c r="K116" s="2">
         <v>10</v>
       </c>
       <c r="L116" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="M116" s="5" t="n">
+      <c r="M116" s="5">
         <v>45421</v>
       </c>
     </row>
-    <row r="117" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A117" s="3" t="n">
+    <row r="117" spans="1:13" ht="13.8">
+      <c r="A117" s="3">
         <v>23857246</v>
       </c>
-      <c r="B117" s="3" t="n">
+      <c r="B117" s="3">
         <v>0</v>
       </c>
       <c r="C117" s="4" t="s">
@@ -6104,7 +6065,7 @@
       <c r="E117" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="F117" s="3" t="n">
+      <c r="F117" s="3">
         <v>22758</v>
       </c>
       <c r="G117" s="4" t="s">
@@ -6113,10 +6074,10 @@
       <c r="H117" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="I117" s="2" t="n">
+      <c r="I117" s="2">
         <v>50</v>
       </c>
-      <c r="J117" s="2" t="n">
+      <c r="J117" s="2">
         <v>151</v>
       </c>
       <c r="K117" s="2" t="s">
@@ -6125,15 +6086,15 @@
       <c r="L117" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="M117" s="5" t="n">
+      <c r="M117" s="5">
         <v>45421</v>
       </c>
     </row>
-    <row r="118" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A118" s="3" t="n">
+    <row r="118" spans="1:13" ht="13.8">
+      <c r="A118" s="3">
         <v>23737406</v>
       </c>
-      <c r="B118" s="3" t="n">
+      <c r="B118" s="3">
         <v>1</v>
       </c>
       <c r="C118" s="4" t="s">
@@ -6145,7 +6106,7 @@
       <c r="E118" s="4" t="s">
         <v>299</v>
       </c>
-      <c r="F118" s="3" t="n">
+      <c r="F118" s="3">
         <v>22758</v>
       </c>
       <c r="G118" s="4" t="s">
@@ -6154,10 +6115,10 @@
       <c r="H118" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="I118" s="2" t="n">
+      <c r="I118" s="2">
         <v>65</v>
       </c>
-      <c r="J118" s="2" t="n">
+      <c r="J118" s="2">
         <v>160</v>
       </c>
       <c r="K118" s="2" t="s">
@@ -6166,15 +6127,15 @@
       <c r="L118" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="M118" s="5" t="n">
+      <c r="M118" s="5">
         <v>45421</v>
       </c>
     </row>
-    <row r="119" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A119" s="3" t="n">
+    <row r="119" spans="1:13" ht="13.8">
+      <c r="A119" s="3">
         <v>23394254</v>
       </c>
-      <c r="B119" s="3" t="n">
+      <c r="B119" s="3">
         <v>5</v>
       </c>
       <c r="C119" s="4" t="s">
@@ -6186,7 +6147,7 @@
       <c r="E119" s="4" t="s">
         <v>313</v>
       </c>
-      <c r="F119" s="3" t="n">
+      <c r="F119" s="3">
         <v>22758</v>
       </c>
       <c r="G119" s="4" t="s">
@@ -6195,24 +6156,24 @@
       <c r="H119" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="I119" s="2" t="n">
+      <c r="I119" s="2">
         <v>60</v>
       </c>
-      <c r="J119" s="2" t="n">
+      <c r="J119" s="2">
         <v>155</v>
       </c>
-      <c r="K119" s="2" t="n">
+      <c r="K119" s="2">
         <v>10</v>
       </c>
       <c r="L119" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="M119" s="5" t="n">
+      <c r="M119" s="5">
         <v>45421</v>
       </c>
     </row>
-    <row r="120" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A120" s="3" t="n">
+    <row r="120" spans="1:13" ht="13.8">
+      <c r="A120" s="3">
         <v>23851651</v>
       </c>
       <c r="B120" s="4" t="s">
@@ -6227,7 +6188,7 @@
       <c r="E120" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="F120" s="3" t="n">
+      <c r="F120" s="3">
         <v>22758</v>
       </c>
       <c r="G120" s="4" t="s">
@@ -6236,27 +6197,27 @@
       <c r="H120" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="I120" s="2" t="n">
+      <c r="I120" s="2">
         <v>56</v>
       </c>
-      <c r="J120" s="2" t="n">
+      <c r="J120" s="2">
         <v>166</v>
       </c>
-      <c r="K120" s="2" t="n">
+      <c r="K120" s="2">
         <v>10</v>
       </c>
       <c r="L120" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="M120" s="5" t="n">
+      <c r="M120" s="5">
         <v>45421</v>
       </c>
     </row>
-    <row r="121" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A121" s="3" t="n">
+    <row r="121" spans="1:13" ht="13.8">
+      <c r="A121" s="3">
         <v>23769817</v>
       </c>
-      <c r="B121" s="3" t="n">
+      <c r="B121" s="3">
         <v>7</v>
       </c>
       <c r="C121" s="4" t="s">
@@ -6268,7 +6229,7 @@
       <c r="E121" s="4" t="s">
         <v>310</v>
       </c>
-      <c r="F121" s="3" t="n">
+      <c r="F121" s="3">
         <v>22758</v>
       </c>
       <c r="G121" s="4" t="s">
@@ -6277,10 +6238,10 @@
       <c r="H121" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="I121" s="2" t="n">
+      <c r="I121" s="2">
         <v>52</v>
       </c>
-      <c r="J121" s="2" t="n">
+      <c r="J121" s="2">
         <v>151</v>
       </c>
       <c r="K121" s="2" t="s">
@@ -6289,12 +6250,12 @@
       <c r="L121" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="M121" s="5" t="n">
+      <c r="M121" s="5">
         <v>45421</v>
       </c>
     </row>
-    <row r="122" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A122" s="3" t="n">
+    <row r="122" spans="1:13" ht="13.8">
+      <c r="A122" s="3">
         <v>23716699</v>
       </c>
       <c r="B122" s="4" t="s">
@@ -6309,7 +6270,7 @@
       <c r="E122" s="4" t="s">
         <v>250</v>
       </c>
-      <c r="F122" s="3" t="n">
+      <c r="F122" s="3">
         <v>22758</v>
       </c>
       <c r="G122" s="4" t="s">
@@ -6318,10 +6279,10 @@
       <c r="H122" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="I122" s="2" t="n">
+      <c r="I122" s="2">
         <v>78</v>
       </c>
-      <c r="J122" s="2" t="n">
+      <c r="J122" s="2">
         <v>156</v>
       </c>
       <c r="K122" s="2" t="s">
@@ -6330,15 +6291,15 @@
       <c r="L122" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="M122" s="5" t="n">
+      <c r="M122" s="5">
         <v>45421</v>
       </c>
     </row>
-    <row r="123" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A123" s="3" t="n">
+    <row r="123" spans="1:13" ht="13.8">
+      <c r="A123" s="3">
         <v>23943964</v>
       </c>
-      <c r="B123" s="3" t="n">
+      <c r="B123" s="3">
         <v>0</v>
       </c>
       <c r="C123" s="4" t="s">
@@ -6350,7 +6311,7 @@
       <c r="E123" s="4" t="s">
         <v>318</v>
       </c>
-      <c r="F123" s="3" t="n">
+      <c r="F123" s="3">
         <v>22758</v>
       </c>
       <c r="G123" s="4" t="s">
@@ -6359,10 +6320,10 @@
       <c r="H123" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="I123" s="2" t="n">
+      <c r="I123" s="2">
         <v>32</v>
       </c>
-      <c r="J123" s="2" t="n">
+      <c r="J123" s="2">
         <v>152</v>
       </c>
       <c r="K123" s="2" t="s">
@@ -6371,15 +6332,15 @@
       <c r="L123" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="M123" s="5" t="n">
+      <c r="M123" s="5">
         <v>45421</v>
       </c>
     </row>
-    <row r="124" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A124" s="3" t="n">
+    <row r="124" spans="1:13" ht="13.8">
+      <c r="A124" s="3">
         <v>23548676</v>
       </c>
-      <c r="B124" s="3" t="n">
+      <c r="B124" s="3">
         <v>8</v>
       </c>
       <c r="C124" s="4" t="s">
@@ -6391,7 +6352,7 @@
       <c r="E124" s="4" t="s">
         <v>321</v>
       </c>
-      <c r="F124" s="3" t="n">
+      <c r="F124" s="3">
         <v>22758</v>
       </c>
       <c r="G124" s="4" t="s">
@@ -6400,10 +6361,10 @@
       <c r="H124" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="I124" s="2" t="n">
+      <c r="I124" s="2">
         <v>63</v>
       </c>
-      <c r="J124" s="2" t="n">
+      <c r="J124" s="2">
         <v>162</v>
       </c>
       <c r="K124" s="2" t="s">
@@ -6412,15 +6373,15 @@
       <c r="L124" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="M124" s="5" t="n">
+      <c r="M124" s="5">
         <v>45421</v>
       </c>
     </row>
-    <row r="125" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A125" s="3" t="n">
+    <row r="125" spans="1:13" ht="13.8">
+      <c r="A125" s="3">
         <v>23610279</v>
       </c>
-      <c r="B125" s="3" t="n">
+      <c r="B125" s="3">
         <v>3</v>
       </c>
       <c r="C125" s="4" t="s">
@@ -6432,7 +6393,7 @@
       <c r="E125" s="4" t="s">
         <v>321</v>
       </c>
-      <c r="F125" s="3" t="n">
+      <c r="F125" s="3">
         <v>22758</v>
       </c>
       <c r="G125" s="4" t="s">
@@ -6441,10 +6402,10 @@
       <c r="H125" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="I125" s="2" t="n">
+      <c r="I125" s="2">
         <v>61</v>
       </c>
-      <c r="J125" s="2" t="n">
+      <c r="J125" s="2">
         <v>163</v>
       </c>
       <c r="K125" s="2" t="s">
@@ -6453,15 +6414,15 @@
       <c r="L125" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="M125" s="5" t="n">
+      <c r="M125" s="5">
         <v>45421</v>
       </c>
     </row>
-    <row r="126" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A126" s="3" t="n">
+    <row r="126" spans="1:13" ht="13.8">
+      <c r="A126" s="3">
         <v>23791746</v>
       </c>
-      <c r="B126" s="3" t="n">
+      <c r="B126" s="3">
         <v>4</v>
       </c>
       <c r="C126" s="4" t="s">
@@ -6473,7 +6434,7 @@
       <c r="E126" s="4" t="s">
         <v>326</v>
       </c>
-      <c r="F126" s="3" t="n">
+      <c r="F126" s="3">
         <v>22758</v>
       </c>
       <c r="G126" s="4" t="s">
@@ -6482,10 +6443,10 @@
       <c r="H126" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="I126" s="2" t="n">
+      <c r="I126" s="2">
         <v>72</v>
       </c>
-      <c r="J126" s="2" t="n">
+      <c r="J126" s="2">
         <v>166</v>
       </c>
       <c r="K126" s="2" t="s">
@@ -6494,15 +6455,15 @@
       <c r="L126" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="M126" s="5" t="n">
+      <c r="M126" s="5">
         <v>45421</v>
       </c>
     </row>
-    <row r="127" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A127" s="3" t="n">
+    <row r="127" spans="1:13" ht="13.8">
+      <c r="A127" s="3">
         <v>23753939</v>
       </c>
-      <c r="B127" s="3" t="n">
+      <c r="B127" s="3">
         <v>7</v>
       </c>
       <c r="C127" s="4" t="s">
@@ -6514,7 +6475,7 @@
       <c r="E127" s="4" t="s">
         <v>328</v>
       </c>
-      <c r="F127" s="3" t="n">
+      <c r="F127" s="3">
         <v>22758</v>
       </c>
       <c r="G127" s="4" t="s">
@@ -6523,10 +6484,10 @@
       <c r="H127" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="I127" s="2" t="n">
+      <c r="I127" s="2">
         <v>78</v>
       </c>
-      <c r="J127" s="2" t="n">
+      <c r="J127" s="2">
         <v>164</v>
       </c>
       <c r="K127" s="2" t="s">
@@ -6535,15 +6496,15 @@
       <c r="L127" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="M127" s="5" t="n">
+      <c r="M127" s="5">
         <v>45421</v>
       </c>
     </row>
-    <row r="128" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A128" s="3" t="n">
+    <row r="128" spans="1:13" ht="13.8">
+      <c r="A128" s="3">
         <v>23963944</v>
       </c>
-      <c r="B128" s="3" t="n">
+      <c r="B128" s="3">
         <v>5</v>
       </c>
       <c r="C128" s="4" t="s">
@@ -6555,7 +6516,7 @@
       <c r="E128" s="4" t="s">
         <v>320</v>
       </c>
-      <c r="F128" s="3" t="n">
+      <c r="F128" s="3">
         <v>22758</v>
       </c>
       <c r="G128" s="4" t="s">
@@ -6564,10 +6525,10 @@
       <c r="H128" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="I128" s="2" t="n">
+      <c r="I128" s="2">
         <v>28</v>
       </c>
-      <c r="J128" s="2" t="n">
+      <c r="J128" s="2">
         <v>142</v>
       </c>
       <c r="K128" s="2" t="s">
@@ -6576,15 +6537,15 @@
       <c r="L128" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="M128" s="5" t="n">
+      <c r="M128" s="5">
         <v>45421</v>
       </c>
     </row>
-    <row r="129" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A129" s="3" t="n">
+    <row r="129" spans="1:13" ht="13.8">
+      <c r="A129" s="3">
         <v>23725378</v>
       </c>
-      <c r="B129" s="3" t="n">
+      <c r="B129" s="3">
         <v>7</v>
       </c>
       <c r="C129" s="4" t="s">
@@ -6596,7 +6557,7 @@
       <c r="E129" s="4" t="s">
         <v>333</v>
       </c>
-      <c r="F129" s="3" t="n">
+      <c r="F129" s="3">
         <v>22758</v>
       </c>
       <c r="G129" s="4" t="s">
@@ -6605,19 +6566,19 @@
       <c r="H129" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="I129" s="6"/>
-      <c r="J129" s="6"/>
-      <c r="K129" s="6"/>
+      <c r="I129" s="2"/>
+      <c r="J129" s="2"/>
+      <c r="K129" s="2"/>
       <c r="L129" s="4"/>
       <c r="M129" s="2" t="s">
         <v>334</v>
       </c>
     </row>
-    <row r="130" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A130" s="3" t="n">
+    <row r="130" spans="1:13" ht="13.8">
+      <c r="A130" s="3">
         <v>23711702</v>
       </c>
-      <c r="B130" s="3" t="n">
+      <c r="B130" s="3">
         <v>6</v>
       </c>
       <c r="C130" s="4" t="s">
@@ -6629,7 +6590,7 @@
       <c r="E130" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="F130" s="3" t="n">
+      <c r="F130" s="3">
         <v>22758</v>
       </c>
       <c r="G130" s="4" t="s">
@@ -6638,27 +6599,27 @@
       <c r="H130" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="I130" s="2" t="n">
+      <c r="I130" s="2">
         <v>67</v>
       </c>
-      <c r="J130" s="2" t="n">
+      <c r="J130" s="2">
         <v>160</v>
       </c>
-      <c r="K130" s="2" t="n">
+      <c r="K130" s="2">
         <v>11</v>
       </c>
       <c r="L130" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="M130" s="5" t="n">
+      <c r="M130" s="5">
         <v>45421</v>
       </c>
     </row>
-    <row r="131" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A131" s="3" t="n">
+    <row r="131" spans="1:13" ht="13.8">
+      <c r="A131" s="3">
         <v>23849058</v>
       </c>
-      <c r="B131" s="3" t="n">
+      <c r="B131" s="3">
         <v>8</v>
       </c>
       <c r="C131" s="4" t="s">
@@ -6670,7 +6631,7 @@
       <c r="E131" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="F131" s="3" t="n">
+      <c r="F131" s="3">
         <v>22758</v>
       </c>
       <c r="G131" s="4" t="s">
@@ -6679,27 +6640,27 @@
       <c r="H131" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="I131" s="2" t="n">
+      <c r="I131" s="2">
         <v>52</v>
       </c>
-      <c r="J131" s="2" t="n">
+      <c r="J131" s="2">
         <v>167</v>
       </c>
-      <c r="K131" s="2" t="n">
+      <c r="K131" s="2">
         <v>11</v>
       </c>
       <c r="L131" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="M131" s="5" t="n">
+      <c r="M131" s="5">
         <v>45421</v>
       </c>
     </row>
-    <row r="132" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A132" s="3" t="n">
+    <row r="132" spans="1:13" ht="13.8">
+      <c r="A132" s="3">
         <v>23881741</v>
       </c>
-      <c r="B132" s="3" t="n">
+      <c r="B132" s="3">
         <v>2</v>
       </c>
       <c r="C132" s="4" t="s">
@@ -6711,7 +6672,7 @@
       <c r="E132" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="F132" s="3" t="n">
+      <c r="F132" s="3">
         <v>22758</v>
       </c>
       <c r="G132" s="4" t="s">
@@ -6720,27 +6681,27 @@
       <c r="H132" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="I132" s="2" t="n">
+      <c r="I132" s="2">
         <v>60</v>
       </c>
-      <c r="J132" s="2" t="n">
+      <c r="J132" s="2">
         <v>155</v>
       </c>
-      <c r="K132" s="2" t="n">
+      <c r="K132" s="2">
         <v>11</v>
       </c>
       <c r="L132" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="M132" s="5" t="n">
+      <c r="M132" s="5">
         <v>45421</v>
       </c>
     </row>
-    <row r="133" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A133" s="3" t="n">
+    <row r="133" spans="1:13" ht="13.8">
+      <c r="A133" s="3">
         <v>23632033</v>
       </c>
-      <c r="B133" s="3" t="n">
+      <c r="B133" s="3">
         <v>2</v>
       </c>
       <c r="C133" s="4" t="s">
@@ -6752,7 +6713,7 @@
       <c r="E133" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="F133" s="3" t="n">
+      <c r="F133" s="3">
         <v>22758</v>
       </c>
       <c r="G133" s="4" t="s">
@@ -6761,27 +6722,27 @@
       <c r="H133" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="I133" s="2" t="n">
+      <c r="I133" s="2">
         <v>48</v>
       </c>
-      <c r="J133" s="2" t="n">
+      <c r="J133" s="2">
         <v>154</v>
       </c>
-      <c r="K133" s="2" t="n">
+      <c r="K133" s="2">
         <v>11</v>
       </c>
       <c r="L133" s="4" t="s">
         <v>185</v>
       </c>
-      <c r="M133" s="5" t="n">
+      <c r="M133" s="5">
         <v>45421</v>
       </c>
     </row>
-    <row r="134" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A134" s="3" t="n">
+    <row r="134" spans="1:13" ht="13.8">
+      <c r="A134" s="3">
         <v>23895967</v>
       </c>
-      <c r="B134" s="3" t="n">
+      <c r="B134" s="3">
         <v>5</v>
       </c>
       <c r="C134" s="4" t="s">
@@ -6793,7 +6754,7 @@
       <c r="E134" s="4" t="s">
         <v>339</v>
       </c>
-      <c r="F134" s="3" t="n">
+      <c r="F134" s="3">
         <v>22758</v>
       </c>
       <c r="G134" s="4" t="s">
@@ -6802,10 +6763,10 @@
       <c r="H134" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="I134" s="2" t="n">
+      <c r="I134" s="2">
         <v>45</v>
       </c>
-      <c r="J134" s="2" t="n">
+      <c r="J134" s="2">
         <v>155</v>
       </c>
       <c r="K134" s="2" t="s">
@@ -6814,15 +6775,15 @@
       <c r="L134" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="M134" s="5" t="n">
+      <c r="M134" s="5">
         <v>45421</v>
       </c>
     </row>
-    <row r="135" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A135" s="3" t="n">
+    <row r="135" spans="1:13" ht="13.8">
+      <c r="A135" s="3">
         <v>23878133</v>
       </c>
-      <c r="B135" s="3" t="n">
+      <c r="B135" s="3">
         <v>7</v>
       </c>
       <c r="C135" s="4" t="s">
@@ -6834,7 +6795,7 @@
       <c r="E135" s="4" t="s">
         <v>342</v>
       </c>
-      <c r="F135" s="3" t="n">
+      <c r="F135" s="3">
         <v>22758</v>
       </c>
       <c r="G135" s="4" t="s">
@@ -6843,10 +6804,10 @@
       <c r="H135" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="I135" s="2" t="n">
+      <c r="I135" s="2">
         <v>38</v>
       </c>
-      <c r="J135" s="2" t="n">
+      <c r="J135" s="2">
         <v>149</v>
       </c>
       <c r="K135" s="2" t="s">
@@ -6855,15 +6816,15 @@
       <c r="L135" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="M135" s="5" t="n">
+      <c r="M135" s="5">
         <v>45421</v>
       </c>
     </row>
-    <row r="136" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A136" s="3" t="n">
+    <row r="136" spans="1:13" ht="13.8">
+      <c r="A136" s="3">
         <v>23746165</v>
       </c>
-      <c r="B136" s="3" t="n">
+      <c r="B136" s="3">
         <v>7</v>
       </c>
       <c r="C136" s="4" t="s">
@@ -6875,7 +6836,7 @@
       <c r="E136" s="4" t="s">
         <v>344</v>
       </c>
-      <c r="F136" s="3" t="n">
+      <c r="F136" s="3">
         <v>22758</v>
       </c>
       <c r="G136" s="4" t="s">
@@ -6884,10 +6845,10 @@
       <c r="H136" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="I136" s="2" t="n">
+      <c r="I136" s="2">
         <v>49</v>
       </c>
-      <c r="J136" s="2" t="n">
+      <c r="J136" s="2">
         <v>152</v>
       </c>
       <c r="K136" s="2" t="s">
@@ -6896,15 +6857,15 @@
       <c r="L136" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="M136" s="5" t="n">
+      <c r="M136" s="5">
         <v>45421</v>
       </c>
     </row>
-    <row r="137" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A137" s="3" t="n">
+    <row r="137" spans="1:13" ht="13.8">
+      <c r="A137" s="3">
         <v>23870269</v>
       </c>
-      <c r="B137" s="3" t="n">
+      <c r="B137" s="3">
         <v>0</v>
       </c>
       <c r="C137" s="4" t="s">
@@ -6916,7 +6877,7 @@
       <c r="E137" s="4" t="s">
         <v>346</v>
       </c>
-      <c r="F137" s="3" t="n">
+      <c r="F137" s="3">
         <v>22758</v>
       </c>
       <c r="G137" s="4" t="s">
@@ -6925,10 +6886,10 @@
       <c r="H137" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="I137" s="2" t="n">
+      <c r="I137" s="2">
         <v>56</v>
       </c>
-      <c r="J137" s="2" t="n">
+      <c r="J137" s="2">
         <v>152</v>
       </c>
       <c r="K137" s="2" t="s">
@@ -6941,11 +6902,11 @@
         <v>347</v>
       </c>
     </row>
-    <row r="138" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A138" s="3" t="n">
+    <row r="138" spans="1:13" ht="13.8">
+      <c r="A138" s="3">
         <v>23839585</v>
       </c>
-      <c r="B138" s="3" t="n">
+      <c r="B138" s="3">
         <v>2</v>
       </c>
       <c r="C138" s="4" t="s">
@@ -6957,7 +6918,7 @@
       <c r="E138" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="F138" s="3" t="n">
+      <c r="F138" s="3">
         <v>22758</v>
       </c>
       <c r="G138" s="4" t="s">
@@ -6966,27 +6927,27 @@
       <c r="H138" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="I138" s="2" t="n">
+      <c r="I138" s="2">
         <v>59</v>
       </c>
-      <c r="J138" s="2" t="n">
+      <c r="J138" s="2">
         <v>159</v>
       </c>
-      <c r="K138" s="2" t="n">
+      <c r="K138" s="2">
         <v>10</v>
       </c>
       <c r="L138" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="M138" s="5" t="n">
+      <c r="M138" s="5">
         <v>45421</v>
       </c>
     </row>
-    <row r="139" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A139" s="3" t="n">
+    <row r="139" spans="1:13" ht="13.8">
+      <c r="A139" s="3">
         <v>23941423</v>
       </c>
-      <c r="B139" s="3" t="n">
+      <c r="B139" s="3">
         <v>0</v>
       </c>
       <c r="C139" s="4" t="s">
@@ -6998,7 +6959,7 @@
       <c r="E139" s="4" t="s">
         <v>352</v>
       </c>
-      <c r="F139" s="3" t="n">
+      <c r="F139" s="3">
         <v>22758</v>
       </c>
       <c r="G139" s="4" t="s">
@@ -7007,10 +6968,10 @@
       <c r="H139" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="I139" s="2" t="n">
+      <c r="I139" s="2">
         <v>52</v>
       </c>
-      <c r="J139" s="2" t="n">
+      <c r="J139" s="2">
         <v>152</v>
       </c>
       <c r="K139" s="2" t="s">
@@ -7019,15 +6980,15 @@
       <c r="L139" s="4" t="s">
         <v>353</v>
       </c>
-      <c r="M139" s="5" t="n">
+      <c r="M139" s="5">
         <v>45421</v>
       </c>
     </row>
-    <row r="140" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A140" s="3" t="n">
+    <row r="140" spans="1:13" ht="13.8">
+      <c r="A140" s="3">
         <v>23389436</v>
       </c>
-      <c r="B140" s="3" t="n">
+      <c r="B140" s="3">
         <v>2</v>
       </c>
       <c r="C140" s="4" t="s">
@@ -7039,7 +7000,7 @@
       <c r="E140" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="F140" s="3" t="n">
+      <c r="F140" s="3">
         <v>22758</v>
       </c>
       <c r="G140" s="4" t="s">
@@ -7048,17 +7009,17 @@
       <c r="H140" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="I140" s="6"/>
-      <c r="J140" s="6"/>
-      <c r="K140" s="6"/>
+      <c r="I140" s="2"/>
+      <c r="J140" s="2"/>
+      <c r="K140" s="2"/>
       <c r="L140" s="4"/>
-      <c r="M140" s="6"/>
-    </row>
-    <row r="141" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A141" s="3" t="n">
+      <c r="M140" s="2"/>
+    </row>
+    <row r="141" spans="1:13" ht="13.8">
+      <c r="A141" s="3">
         <v>23993549</v>
       </c>
-      <c r="B141" s="3" t="n">
+      <c r="B141" s="3">
         <v>4</v>
       </c>
       <c r="C141" s="4" t="s">
@@ -7070,7 +7031,7 @@
       <c r="E141" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="F141" s="3" t="n">
+      <c r="F141" s="3">
         <v>22758</v>
       </c>
       <c r="G141" s="4" t="s">
@@ -7079,19 +7040,19 @@
       <c r="H141" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="I141" s="6"/>
-      <c r="J141" s="6"/>
-      <c r="K141" s="6"/>
+      <c r="I141" s="2"/>
+      <c r="J141" s="2"/>
+      <c r="K141" s="2"/>
       <c r="L141" s="4"/>
       <c r="M141" s="2" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="142" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A142" s="3" t="n">
+    <row r="142" spans="1:13" ht="13.8">
+      <c r="A142" s="3">
         <v>23854725</v>
       </c>
-      <c r="B142" s="3" t="n">
+      <c r="B142" s="3">
         <v>3</v>
       </c>
       <c r="C142" s="4" t="s">
@@ -7103,7 +7064,7 @@
       <c r="E142" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="F142" s="3" t="n">
+      <c r="F142" s="3">
         <v>22758</v>
       </c>
       <c r="G142" s="4" t="s">
@@ -7112,17 +7073,17 @@
       <c r="H142" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="I142" s="6"/>
-      <c r="J142" s="6"/>
-      <c r="K142" s="6"/>
+      <c r="I142" s="2"/>
+      <c r="J142" s="2"/>
+      <c r="K142" s="2"/>
       <c r="L142" s="4"/>
-      <c r="M142" s="6"/>
-    </row>
-    <row r="143" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A143" s="3" t="n">
+      <c r="M142" s="2"/>
+    </row>
+    <row r="143" spans="1:13" ht="13.8">
+      <c r="A143" s="3">
         <v>23843495</v>
       </c>
-      <c r="B143" s="3" t="n">
+      <c r="B143" s="3">
         <v>5</v>
       </c>
       <c r="C143" s="4" t="s">
@@ -7134,7 +7095,7 @@
       <c r="E143" s="4" t="s">
         <v>323</v>
       </c>
-      <c r="F143" s="3" t="n">
+      <c r="F143" s="3">
         <v>22758</v>
       </c>
       <c r="G143" s="4" t="s">
@@ -7143,17 +7104,17 @@
       <c r="H143" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="I143" s="6"/>
-      <c r="J143" s="6"/>
-      <c r="K143" s="6"/>
+      <c r="I143" s="2"/>
+      <c r="J143" s="2"/>
+      <c r="K143" s="2"/>
       <c r="L143" s="4"/>
-      <c r="M143" s="6"/>
-    </row>
-    <row r="144" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A144" s="3" t="n">
+      <c r="M143" s="2"/>
+    </row>
+    <row r="144" spans="1:13" ht="13.8">
+      <c r="A144" s="3">
         <v>23801265</v>
       </c>
-      <c r="B144" s="3" t="n">
+      <c r="B144" s="3">
         <v>1</v>
       </c>
       <c r="C144" s="4" t="s">
@@ -7165,7 +7126,7 @@
       <c r="E144" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="F144" s="3" t="n">
+      <c r="F144" s="3">
         <v>22758</v>
       </c>
       <c r="G144" s="4" t="s">
@@ -7174,17 +7135,17 @@
       <c r="H144" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="I144" s="6"/>
-      <c r="J144" s="6"/>
-      <c r="K144" s="6"/>
+      <c r="I144" s="2"/>
+      <c r="J144" s="2"/>
+      <c r="K144" s="2"/>
       <c r="L144" s="4"/>
-      <c r="M144" s="6"/>
-    </row>
-    <row r="145" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A145" s="3" t="n">
+      <c r="M144" s="2"/>
+    </row>
+    <row r="145" spans="1:13" ht="13.8">
+      <c r="A145" s="3">
         <v>23704270</v>
       </c>
-      <c r="B145" s="3" t="n">
+      <c r="B145" s="3">
         <v>0</v>
       </c>
       <c r="C145" s="4" t="s">
@@ -7196,7 +7157,7 @@
       <c r="E145" s="4" t="s">
         <v>135</v>
       </c>
-      <c r="F145" s="3" t="n">
+      <c r="F145" s="3">
         <v>22758</v>
       </c>
       <c r="G145" s="4" t="s">
@@ -7205,10 +7166,10 @@
       <c r="H145" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="I145" s="2" t="n">
+      <c r="I145" s="2">
         <v>83</v>
       </c>
-      <c r="J145" s="2" t="n">
+      <c r="J145" s="2">
         <v>168</v>
       </c>
       <c r="K145" s="2" t="s">
@@ -7217,15 +7178,15 @@
       <c r="L145" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="M145" s="5" t="n">
+      <c r="M145" s="5">
         <v>45421</v>
       </c>
     </row>
-    <row r="146" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A146" s="3" t="n">
+    <row r="146" spans="1:13" ht="13.8">
+      <c r="A146" s="3">
         <v>23927163</v>
       </c>
-      <c r="B146" s="3" t="n">
+      <c r="B146" s="3">
         <v>4</v>
       </c>
       <c r="C146" s="4" t="s">
@@ -7237,7 +7198,7 @@
       <c r="E146" s="4" t="s">
         <v>213</v>
       </c>
-      <c r="F146" s="3" t="n">
+      <c r="F146" s="3">
         <v>22758</v>
       </c>
       <c r="G146" s="4" t="s">
@@ -7246,27 +7207,27 @@
       <c r="H146" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="I146" s="2" t="n">
+      <c r="I146" s="2">
         <v>60</v>
       </c>
-      <c r="J146" s="2" t="n">
+      <c r="J146" s="2">
         <v>148</v>
       </c>
-      <c r="K146" s="2" t="n">
+      <c r="K146" s="2">
         <v>10</v>
       </c>
       <c r="L146" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="M146" s="5" t="n">
+      <c r="M146" s="5">
         <v>45421</v>
       </c>
     </row>
-    <row r="147" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A147" s="3" t="n">
+    <row r="147" spans="1:13" ht="13.8">
+      <c r="A147" s="3">
         <v>23822976</v>
       </c>
-      <c r="B147" s="3" t="n">
+      <c r="B147" s="3">
         <v>6</v>
       </c>
       <c r="C147" s="4" t="s">
@@ -7278,7 +7239,7 @@
       <c r="E147" s="4" t="s">
         <v>365</v>
       </c>
-      <c r="F147" s="3" t="n">
+      <c r="F147" s="3">
         <v>22758</v>
       </c>
       <c r="G147" s="4" t="s">
@@ -7287,10 +7248,10 @@
       <c r="H147" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="I147" s="2" t="n">
+      <c r="I147" s="2">
         <v>63</v>
       </c>
-      <c r="J147" s="2" t="n">
+      <c r="J147" s="2">
         <v>164</v>
       </c>
       <c r="K147" s="2" t="s">
@@ -7299,15 +7260,15 @@
       <c r="L147" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="M147" s="5" t="n">
+      <c r="M147" s="5">
         <v>45421</v>
       </c>
     </row>
-    <row r="148" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A148" s="3" t="n">
+    <row r="148" spans="1:13" ht="13.8">
+      <c r="A148" s="3">
         <v>23697484</v>
       </c>
-      <c r="B148" s="3" t="n">
+      <c r="B148" s="3">
         <v>7</v>
       </c>
       <c r="C148" s="4" t="s">
@@ -7319,7 +7280,7 @@
       <c r="E148" s="4" t="s">
         <v>368</v>
       </c>
-      <c r="F148" s="3" t="n">
+      <c r="F148" s="3">
         <v>22758</v>
       </c>
       <c r="G148" s="4" t="s">
@@ -7328,27 +7289,27 @@
       <c r="H148" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="I148" s="2" t="n">
+      <c r="I148" s="2">
         <v>60</v>
       </c>
-      <c r="J148" s="2" t="n">
+      <c r="J148" s="2">
         <v>160</v>
       </c>
-      <c r="K148" s="2" t="n">
+      <c r="K148" s="2">
         <v>12</v>
       </c>
       <c r="L148" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="M148" s="5" t="n">
+      <c r="M148" s="5">
         <v>45421</v>
       </c>
     </row>
-    <row r="149" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A149" s="3" t="n">
+    <row r="149" spans="1:13" ht="13.8">
+      <c r="A149" s="3">
         <v>23824943</v>
       </c>
-      <c r="B149" s="3" t="n">
+      <c r="B149" s="3">
         <v>0</v>
       </c>
       <c r="C149" s="4" t="s">
@@ -7360,7 +7321,7 @@
       <c r="E149" s="4" t="s">
         <v>365</v>
       </c>
-      <c r="F149" s="3" t="n">
+      <c r="F149" s="3">
         <v>22758</v>
       </c>
       <c r="G149" s="4" t="s">
@@ -7369,10 +7330,10 @@
       <c r="H149" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="I149" s="2" t="n">
+      <c r="I149" s="2">
         <v>53</v>
       </c>
-      <c r="J149" s="2" t="n">
+      <c r="J149" s="2">
         <v>166</v>
       </c>
       <c r="K149" s="2" t="s">
@@ -7381,15 +7342,15 @@
       <c r="L149" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="M149" s="5" t="n">
+      <c r="M149" s="5">
         <v>45421</v>
       </c>
     </row>
-    <row r="150" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A150" s="3" t="n">
+    <row r="150" spans="1:13" ht="13.8">
+      <c r="A150" s="3">
         <v>23727316</v>
       </c>
-      <c r="B150" s="3" t="n">
+      <c r="B150" s="3">
         <v>8</v>
       </c>
       <c r="C150" s="4" t="s">
@@ -7401,7 +7362,7 @@
       <c r="E150" s="4" t="s">
         <v>372</v>
       </c>
-      <c r="F150" s="3" t="n">
+      <c r="F150" s="3">
         <v>22758</v>
       </c>
       <c r="G150" s="4" t="s">
@@ -7410,10 +7371,10 @@
       <c r="H150" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="I150" s="2" t="n">
+      <c r="I150" s="2">
         <v>48</v>
       </c>
-      <c r="J150" s="2" t="n">
+      <c r="J150" s="2">
         <v>161</v>
       </c>
       <c r="K150" s="2" t="s">
@@ -7422,12 +7383,12 @@
       <c r="L150" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="M150" s="5" t="n">
+      <c r="M150" s="5">
         <v>45421</v>
       </c>
     </row>
-    <row r="151" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A151" s="3" t="n">
+    <row r="151" spans="1:13" ht="13.8">
+      <c r="A151" s="3">
         <v>23721269</v>
       </c>
       <c r="B151" s="4" t="s">
@@ -7442,7 +7403,7 @@
       <c r="E151" s="4" t="s">
         <v>374</v>
       </c>
-      <c r="F151" s="3" t="n">
+      <c r="F151" s="3">
         <v>22758</v>
       </c>
       <c r="G151" s="4" t="s">
@@ -7451,17 +7412,17 @@
       <c r="H151" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="I151" s="6"/>
-      <c r="J151" s="6"/>
-      <c r="K151" s="6"/>
+      <c r="I151" s="2"/>
+      <c r="J151" s="2"/>
+      <c r="K151" s="2"/>
       <c r="L151" s="4"/>
-      <c r="M151" s="6"/>
-    </row>
-    <row r="152" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A152" s="3" t="n">
+      <c r="M151" s="2"/>
+    </row>
+    <row r="152" spans="1:13" ht="13.8">
+      <c r="A152" s="3">
         <v>23941797</v>
       </c>
-      <c r="B152" s="3" t="n">
+      <c r="B152" s="3">
         <v>3</v>
       </c>
       <c r="C152" s="4" t="s">
@@ -7473,7 +7434,7 @@
       <c r="E152" s="4" t="s">
         <v>377</v>
       </c>
-      <c r="F152" s="3" t="n">
+      <c r="F152" s="3">
         <v>22758</v>
       </c>
       <c r="G152" s="4" t="s">
@@ -7482,17 +7443,17 @@
       <c r="H152" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="I152" s="6"/>
-      <c r="J152" s="6"/>
-      <c r="K152" s="6"/>
+      <c r="I152" s="2"/>
+      <c r="J152" s="2"/>
+      <c r="K152" s="2"/>
       <c r="L152" s="4"/>
-      <c r="M152" s="6"/>
-    </row>
-    <row r="153" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A153" s="3" t="n">
+      <c r="M152" s="2"/>
+    </row>
+    <row r="153" spans="1:13" ht="13.8">
+      <c r="A153" s="3">
         <v>23931899</v>
       </c>
-      <c r="B153" s="3" t="n">
+      <c r="B153" s="3">
         <v>1</v>
       </c>
       <c r="C153" s="4" t="s">
@@ -7504,7 +7465,7 @@
       <c r="E153" s="4" t="s">
         <v>299</v>
       </c>
-      <c r="F153" s="3" t="n">
+      <c r="F153" s="3">
         <v>22758</v>
       </c>
       <c r="G153" s="4" t="s">
@@ -7513,19 +7474,14 @@
       <c r="H153" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="I153" s="6"/>
-      <c r="J153" s="6"/>
-      <c r="K153" s="6"/>
+      <c r="I153" s="2"/>
+      <c r="J153" s="2"/>
+      <c r="K153" s="2"/>
       <c r="L153" s="4"/>
-      <c r="M153" s="6"/>
+      <c r="M153" s="2"/>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.74791666666666701" right="0.74791666666666701" top="0.98402777777777795" bottom="0.98402777777777795" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
--- a/Tamizaje Los Rios 2024.xlsx
+++ b/Tamizaje Los Rios 2024.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/5de704bf7d1604c2/Escritorio/mia =)/digit/digitador/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2" documentId="11_FDD7CC6AD50F5452AAA71E8E9103FEF2E1ECA253" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8D882B52-43EE-4400-A92E-2CA9FC286764}"/>
+  <xr:revisionPtr revIDLastSave="4" documentId="11_FDD7CC6AD50F5452AAA71E8E9103FEF2E1ECA253" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2106D828-A5B4-46AD-B63B-18F50D3B6522}"/>
   <bookViews>
     <workbookView xWindow="7872" yWindow="1092" windowWidth="14688" windowHeight="11148" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1271,6 +1271,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1452,7 +1456,7 @@
   <dimension ref="A1:M153"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="13.2"/>
@@ -1525,7 +1529,7 @@
         <v>15</v>
       </c>
       <c r="F2" s="3">
-        <v>3345</v>
+        <v>7301</v>
       </c>
       <c r="G2" s="4" t="s">
         <v>16</v>

--- a/Tamizaje Los Rios 2024.xlsx
+++ b/Tamizaje Los Rios 2024.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/5de704bf7d1604c2/Escritorio/mia =)/digit/digitador/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="4" documentId="11_FDD7CC6AD50F5452AAA71E8E9103FEF2E1ECA253" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2106D828-A5B4-46AD-B63B-18F50D3B6522}"/>
+  <xr:revisionPtr revIDLastSave="5" documentId="11_FDD7CC6AD50F5452AAA71E8E9103FEF2E1ECA253" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A9CE2C1C-2913-4FEF-9CAE-1A24ED7D7214}"/>
   <bookViews>
-    <workbookView xWindow="7872" yWindow="1092" windowWidth="14688" windowHeight="11148" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8352" yWindow="1092" windowWidth="14688" windowHeight="11148" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="LAGO RANCO" sheetId="1" r:id="rId1"/>
@@ -27,9 +27,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1006" uniqueCount="379">
   <si>
-    <t>RUT</t>
-  </si>
-  <si>
     <t>DV</t>
   </si>
   <si>
@@ -1162,6 +1159,9 @@
   </si>
   <si>
     <t>JADEN ALEXANDER</t>
+  </si>
+  <si>
+    <t>RUN</t>
   </si>
 </sst>
 </file>
@@ -1455,9 +1455,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M153"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="13.2"/>
   <cols>
@@ -1473,43 +1471,43 @@
   <sheetData>
     <row r="1" spans="1:13" ht="13.8">
       <c r="A1" s="1" t="s">
+        <v>378</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="K1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="L1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="2" t="s">
         <v>11</v>
-      </c>
-      <c r="M1" s="2" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:13" ht="13.8">
@@ -1520,22 +1518,22 @@
         <v>5</v>
       </c>
       <c r="C2" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="E2" s="4" t="s">
         <v>14</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>15</v>
       </c>
       <c r="F2" s="3">
         <v>7301</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I2" s="2">
         <v>58</v>
@@ -1544,10 +1542,10 @@
         <v>162</v>
       </c>
       <c r="K2" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="L2" s="4" t="s">
         <v>18</v>
-      </c>
-      <c r="L2" s="4" t="s">
-        <v>19</v>
       </c>
       <c r="M2" s="5">
         <v>45419</v>
@@ -1558,25 +1556,25 @@
         <v>23561555</v>
       </c>
       <c r="B3" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C3" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="D3" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="E3" s="4" t="s">
         <v>22</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>23</v>
       </c>
       <c r="F3" s="8">
         <v>7301</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I3" s="2">
         <v>55</v>
@@ -1588,7 +1586,7 @@
         <v>10</v>
       </c>
       <c r="L3" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="M3" s="5">
         <v>45419</v>
@@ -1602,22 +1600,22 @@
         <v>8</v>
       </c>
       <c r="C4" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="E4" s="4" t="s">
         <v>26</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>27</v>
       </c>
       <c r="F4" s="3">
         <v>7301</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H4" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I4" s="2">
         <v>44</v>
@@ -1626,10 +1624,10 @@
         <v>154</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="L4" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="M4" s="5">
         <v>45419</v>
@@ -1643,22 +1641,22 @@
         <v>3</v>
       </c>
       <c r="C5" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D5" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="D5" s="4" t="s">
+      <c r="E5" s="4" t="s">
         <v>30</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>31</v>
       </c>
       <c r="F5" s="3">
         <v>7301</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H5" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I5" s="2">
         <v>66</v>
@@ -1667,10 +1665,10 @@
         <v>166</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="L5" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="M5" s="5">
         <v>45419</v>
@@ -1684,22 +1682,22 @@
         <v>7</v>
       </c>
       <c r="C6" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="D6" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="D6" s="4" t="s">
+      <c r="E6" s="4" t="s">
         <v>34</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>35</v>
       </c>
       <c r="F6" s="3">
         <v>7303</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H6" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I6" s="2"/>
       <c r="J6" s="2"/>
@@ -1715,22 +1713,22 @@
         <v>1</v>
       </c>
       <c r="C7" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="D7" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="D7" s="4" t="s">
+      <c r="E7" s="4" t="s">
         <v>38</v>
-      </c>
-      <c r="E7" s="4" t="s">
-        <v>39</v>
       </c>
       <c r="F7" s="3">
         <v>7303</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H7" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I7" s="2">
         <v>39</v>
@@ -1742,7 +1740,7 @@
         <v>10</v>
       </c>
       <c r="L7" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="M7" s="5">
         <v>45419</v>
@@ -1756,22 +1754,22 @@
         <v>1</v>
       </c>
       <c r="C8" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="D8" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="D8" s="4" t="s">
+      <c r="E8" s="4" t="s">
         <v>41</v>
-      </c>
-      <c r="E8" s="4" t="s">
-        <v>42</v>
       </c>
       <c r="F8" s="3">
         <v>7303</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H8" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I8" s="2">
         <v>46</v>
@@ -1783,7 +1781,7 @@
         <v>11</v>
       </c>
       <c r="L8" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="M8" s="5">
         <v>45419</v>
@@ -1794,25 +1792,25 @@
         <v>23745278</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C9" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="E9" s="4" t="s">
         <v>43</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="E9" s="4" t="s">
-        <v>44</v>
       </c>
       <c r="F9" s="3">
         <v>7303</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H9" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I9" s="2">
         <v>54</v>
@@ -1821,10 +1819,10 @@
         <v>146</v>
       </c>
       <c r="K9" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="L9" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="M9" s="5">
         <v>45419</v>
@@ -1838,22 +1836,22 @@
         <v>2</v>
       </c>
       <c r="C10" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="D10" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="D10" s="4" t="s">
+      <c r="E10" s="4" t="s">
         <v>46</v>
-      </c>
-      <c r="E10" s="4" t="s">
-        <v>47</v>
       </c>
       <c r="F10" s="3">
         <v>7303</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H10" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I10" s="2">
         <v>46</v>
@@ -1862,10 +1860,10 @@
         <v>156</v>
       </c>
       <c r="K10" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="L10" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="M10" s="5">
         <v>45419</v>
@@ -1876,25 +1874,25 @@
         <v>23918250</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C11" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="D11" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="D11" s="4" t="s">
-        <v>49</v>
-      </c>
       <c r="E11" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F11" s="3">
         <v>7303</v>
       </c>
       <c r="G11" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H11" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I11" s="2">
         <v>39</v>
@@ -1906,7 +1904,7 @@
         <v>10</v>
       </c>
       <c r="L11" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="M11" s="5">
         <v>45419</v>
@@ -1920,22 +1918,22 @@
         <v>7</v>
       </c>
       <c r="C12" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="D12" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="D12" s="4" t="s">
+      <c r="E12" s="4" t="s">
         <v>51</v>
-      </c>
-      <c r="E12" s="4" t="s">
-        <v>52</v>
       </c>
       <c r="F12" s="3">
         <v>7303</v>
       </c>
       <c r="G12" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H12" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I12" s="2">
         <v>47</v>
@@ -1944,10 +1942,10 @@
         <v>161</v>
       </c>
       <c r="K12" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="L12" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="M12" s="5">
         <v>45419</v>
@@ -1961,22 +1959,22 @@
         <v>3</v>
       </c>
       <c r="C13" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="D13" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="D13" s="4" t="s">
+      <c r="E13" s="4" t="s">
         <v>55</v>
-      </c>
-      <c r="E13" s="4" t="s">
-        <v>56</v>
       </c>
       <c r="F13" s="3">
         <v>7303</v>
       </c>
       <c r="G13" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H13" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I13" s="2">
         <v>75</v>
@@ -1985,10 +1983,10 @@
         <v>156</v>
       </c>
       <c r="K13" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="L13" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="M13" s="5">
         <v>45419</v>
@@ -2002,22 +2000,22 @@
         <v>5</v>
       </c>
       <c r="C14" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="D14" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="D14" s="4" t="s">
+      <c r="E14" s="4" t="s">
         <v>59</v>
-      </c>
-      <c r="E14" s="4" t="s">
-        <v>60</v>
       </c>
       <c r="F14" s="3">
         <v>7303</v>
       </c>
       <c r="G14" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H14" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I14" s="2">
         <v>63</v>
@@ -2029,7 +2027,7 @@
         <v>9</v>
       </c>
       <c r="L14" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="M14" s="5">
         <v>45419</v>
@@ -2043,22 +2041,22 @@
         <v>3</v>
       </c>
       <c r="C15" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="D15" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="D15" s="4" t="s">
+      <c r="E15" s="4" t="s">
         <v>62</v>
-      </c>
-      <c r="E15" s="4" t="s">
-        <v>63</v>
       </c>
       <c r="F15" s="3">
         <v>7303</v>
       </c>
       <c r="G15" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H15" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I15" s="2"/>
       <c r="J15" s="2"/>
@@ -2071,25 +2069,25 @@
         <v>23754076</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F16" s="3">
         <v>7303</v>
       </c>
       <c r="G16" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H16" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I16" s="2"/>
       <c r="J16" s="2"/>
@@ -2105,22 +2103,22 @@
         <v>2</v>
       </c>
       <c r="C17" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="D17" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="D17" s="4" t="s">
+      <c r="E17" s="4" t="s">
         <v>66</v>
-      </c>
-      <c r="E17" s="4" t="s">
-        <v>67</v>
       </c>
       <c r="F17" s="3">
         <v>7303</v>
       </c>
       <c r="G17" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H17" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I17" s="2">
         <v>57</v>
@@ -2129,10 +2127,10 @@
         <v>165</v>
       </c>
       <c r="K17" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="L17" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="M17" s="5">
         <v>45419</v>
@@ -2146,22 +2144,22 @@
         <v>4</v>
       </c>
       <c r="C18" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="D18" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="D18" s="4" t="s">
+      <c r="E18" s="4" t="s">
         <v>69</v>
-      </c>
-      <c r="E18" s="4" t="s">
-        <v>70</v>
       </c>
       <c r="F18" s="3">
         <v>7303</v>
       </c>
       <c r="G18" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H18" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I18" s="2"/>
       <c r="J18" s="2"/>
@@ -2177,22 +2175,22 @@
         <v>5</v>
       </c>
       <c r="C19" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="D19" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="D19" s="4" t="s">
-        <v>72</v>
-      </c>
       <c r="E19" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F19" s="3">
         <v>7303</v>
       </c>
       <c r="G19" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H19" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I19" s="2">
         <v>63</v>
@@ -2201,10 +2199,10 @@
         <v>161</v>
       </c>
       <c r="K19" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="L19" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="M19" s="5">
         <v>45419</v>
@@ -2218,22 +2216,22 @@
         <v>8</v>
       </c>
       <c r="C20" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="E20" s="4" t="s">
         <v>73</v>
-      </c>
-      <c r="D20" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="E20" s="4" t="s">
-        <v>74</v>
       </c>
       <c r="F20" s="3">
         <v>7303</v>
       </c>
       <c r="G20" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H20" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I20" s="2">
         <v>86</v>
@@ -2245,7 +2243,7 @@
         <v>10</v>
       </c>
       <c r="L20" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="M20" s="5">
         <v>45419</v>
@@ -2259,22 +2257,22 @@
         <v>5</v>
       </c>
       <c r="C21" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="D21" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="D21" s="4" t="s">
+      <c r="E21" s="4" t="s">
         <v>76</v>
-      </c>
-      <c r="E21" s="4" t="s">
-        <v>77</v>
       </c>
       <c r="F21" s="3">
         <v>7303</v>
       </c>
       <c r="G21" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H21" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I21" s="2">
         <v>42</v>
@@ -2283,10 +2281,10 @@
         <v>156</v>
       </c>
       <c r="K21" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="L21" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="M21" s="5">
         <v>45419</v>
@@ -2300,22 +2298,22 @@
         <v>1</v>
       </c>
       <c r="C22" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="D22" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="E22" s="4" t="s">
         <v>78</v>
-      </c>
-      <c r="D22" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="E22" s="4" t="s">
-        <v>79</v>
       </c>
       <c r="F22" s="3">
         <v>7303</v>
       </c>
       <c r="G22" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H22" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I22" s="2"/>
       <c r="J22" s="2"/>
@@ -2328,25 +2326,25 @@
         <v>23940734</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C23" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="D23" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="D23" s="4" t="s">
-        <v>81</v>
-      </c>
       <c r="E23" s="4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F23" s="3">
         <v>7303</v>
       </c>
       <c r="G23" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H23" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I23" s="2">
         <v>54</v>
@@ -2355,10 +2353,10 @@
         <v>151</v>
       </c>
       <c r="K23" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="L23" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="M23" s="5">
         <v>45419</v>
@@ -2372,22 +2370,22 @@
         <v>1</v>
       </c>
       <c r="C24" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="D24" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="D24" s="4" t="s">
+      <c r="E24" s="4" t="s">
         <v>83</v>
-      </c>
-      <c r="E24" s="4" t="s">
-        <v>84</v>
       </c>
       <c r="F24" s="3">
         <v>7303</v>
       </c>
       <c r="G24" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H24" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I24" s="2"/>
       <c r="J24" s="2"/>
@@ -2403,22 +2401,22 @@
         <v>5</v>
       </c>
       <c r="C25" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="D25" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="D25" s="4" t="s">
+      <c r="E25" s="4" t="s">
         <v>86</v>
-      </c>
-      <c r="E25" s="4" t="s">
-        <v>87</v>
       </c>
       <c r="F25" s="3">
         <v>7312</v>
       </c>
       <c r="G25" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="H25" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I25" s="2"/>
       <c r="J25" s="2"/>
@@ -2434,22 +2432,22 @@
         <v>3</v>
       </c>
       <c r="C26" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="D26" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="D26" s="4" t="s">
+      <c r="E26" s="4" t="s">
         <v>90</v>
-      </c>
-      <c r="E26" s="4" t="s">
-        <v>91</v>
       </c>
       <c r="F26" s="3">
         <v>7312</v>
       </c>
       <c r="G26" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="H26" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I26" s="2">
         <v>61</v>
@@ -2458,10 +2456,10 @@
         <v>163</v>
       </c>
       <c r="K26" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="L26" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="M26" s="5">
         <v>45784</v>
@@ -2475,22 +2473,22 @@
         <v>5</v>
       </c>
       <c r="C27" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="D27" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="E27" s="4" t="s">
         <v>92</v>
-      </c>
-      <c r="D27" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="E27" s="4" t="s">
-        <v>93</v>
       </c>
       <c r="F27" s="3">
         <v>7312</v>
       </c>
       <c r="G27" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="H27" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I27" s="2">
         <v>72</v>
@@ -2499,10 +2497,10 @@
         <v>165</v>
       </c>
       <c r="K27" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="L27" s="4" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="M27" s="5">
         <v>45419</v>
@@ -2516,22 +2514,22 @@
         <v>9</v>
       </c>
       <c r="C28" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="D28" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="D28" s="4" t="s">
+      <c r="E28" s="4" t="s">
         <v>96</v>
-      </c>
-      <c r="E28" s="4" t="s">
-        <v>97</v>
       </c>
       <c r="F28" s="3">
         <v>7312</v>
       </c>
       <c r="G28" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="H28" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I28" s="2">
         <v>62</v>
@@ -2540,10 +2538,10 @@
         <v>168</v>
       </c>
       <c r="K28" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="L28" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="M28" s="5">
         <v>45419</v>
@@ -2557,22 +2555,22 @@
         <v>7</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D29" s="4" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E29" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F29" s="3">
         <v>7312</v>
       </c>
       <c r="G29" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="H29" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I29" s="2"/>
       <c r="J29" s="2"/>
@@ -2588,22 +2586,22 @@
         <v>1</v>
       </c>
       <c r="C30" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="D30" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="D30" s="4" t="s">
-        <v>100</v>
-      </c>
       <c r="E30" s="4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F30" s="3">
         <v>7312</v>
       </c>
       <c r="G30" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="H30" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I30" s="2"/>
       <c r="J30" s="2"/>
@@ -2619,22 +2617,22 @@
         <v>7</v>
       </c>
       <c r="C31" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="D31" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="D31" s="4" t="s">
+      <c r="E31" s="4" t="s">
         <v>102</v>
-      </c>
-      <c r="E31" s="4" t="s">
-        <v>103</v>
       </c>
       <c r="F31" s="3">
         <v>7312</v>
       </c>
       <c r="G31" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="H31" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I31" s="2">
         <v>42</v>
@@ -2643,10 +2641,10 @@
         <v>147</v>
       </c>
       <c r="K31" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="L31" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="M31" s="2"/>
     </row>
@@ -2658,22 +2656,22 @@
         <v>8</v>
       </c>
       <c r="C32" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="D32" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="D32" s="4" t="s">
+      <c r="E32" s="4" t="s">
         <v>105</v>
-      </c>
-      <c r="E32" s="4" t="s">
-        <v>106</v>
       </c>
       <c r="F32" s="3">
         <v>7312</v>
       </c>
       <c r="G32" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="H32" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I32" s="2">
         <v>38</v>
@@ -2682,10 +2680,10 @@
         <v>156</v>
       </c>
       <c r="K32" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="L32" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="M32" s="5">
         <v>45419</v>
@@ -2699,22 +2697,22 @@
         <v>4</v>
       </c>
       <c r="C33" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="D33" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="D33" s="4" t="s">
-        <v>108</v>
-      </c>
       <c r="E33" s="4" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F33" s="3">
         <v>7312</v>
       </c>
       <c r="G33" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="H33" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I33" s="2">
         <v>60</v>
@@ -2726,7 +2724,7 @@
         <v>12</v>
       </c>
       <c r="L33" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="M33" s="2"/>
     </row>
@@ -2738,22 +2736,22 @@
         <v>8</v>
       </c>
       <c r="C34" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="D34" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="E34" s="4" t="s">
         <v>109</v>
-      </c>
-      <c r="D34" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="E34" s="4" t="s">
-        <v>110</v>
       </c>
       <c r="F34" s="3">
         <v>7312</v>
       </c>
       <c r="G34" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="H34" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I34" s="2">
         <v>46</v>
@@ -2765,7 +2763,7 @@
         <v>11</v>
       </c>
       <c r="L34" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="M34" s="5">
         <v>45419</v>
@@ -2779,22 +2777,22 @@
         <v>4</v>
       </c>
       <c r="C35" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="D35" s="4" t="s">
         <v>111</v>
       </c>
-      <c r="D35" s="4" t="s">
+      <c r="E35" s="4" t="s">
         <v>112</v>
-      </c>
-      <c r="E35" s="4" t="s">
-        <v>113</v>
       </c>
       <c r="F35" s="3">
         <v>7312</v>
       </c>
       <c r="G35" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="H35" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I35" s="2">
         <v>44</v>
@@ -2803,10 +2801,10 @@
         <v>154</v>
       </c>
       <c r="K35" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="L35" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="M35" s="5">
         <v>45419</v>
@@ -2820,22 +2818,22 @@
         <v>8</v>
       </c>
       <c r="C36" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="D36" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="D36" s="4" t="s">
+      <c r="E36" s="4" t="s">
         <v>115</v>
-      </c>
-      <c r="E36" s="4" t="s">
-        <v>116</v>
       </c>
       <c r="F36" s="3">
         <v>7312</v>
       </c>
       <c r="G36" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="H36" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I36" s="2">
         <v>54</v>
@@ -2844,10 +2842,10 @@
         <v>151</v>
       </c>
       <c r="K36" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="L36" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="M36" s="5">
         <v>45419</v>
@@ -2861,22 +2859,22 @@
         <v>2</v>
       </c>
       <c r="C37" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="D37" s="4" t="s">
         <v>117</v>
       </c>
-      <c r="D37" s="4" t="s">
+      <c r="E37" s="4" t="s">
         <v>118</v>
-      </c>
-      <c r="E37" s="4" t="s">
-        <v>119</v>
       </c>
       <c r="F37" s="3">
         <v>7312</v>
       </c>
       <c r="G37" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="H37" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I37" s="2">
         <v>41</v>
@@ -2885,10 +2883,10 @@
         <v>157</v>
       </c>
       <c r="K37" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="L37" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="M37" s="5">
         <v>45419</v>
@@ -2902,22 +2900,22 @@
         <v>5</v>
       </c>
       <c r="C38" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="D38" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="D38" s="4" t="s">
-        <v>121</v>
-      </c>
       <c r="E38" s="4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F38" s="3">
         <v>7299</v>
       </c>
       <c r="G38" s="4" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="H38" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I38" s="2">
         <v>49</v>
@@ -2926,10 +2924,10 @@
         <v>161</v>
       </c>
       <c r="K38" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="L38" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="M38" s="5">
         <v>45420</v>
@@ -2943,22 +2941,22 @@
         <v>2</v>
       </c>
       <c r="C39" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="D39" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="E39" s="4" t="s">
         <v>123</v>
-      </c>
-      <c r="D39" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="E39" s="4" t="s">
-        <v>124</v>
       </c>
       <c r="F39" s="3">
         <v>7299</v>
       </c>
       <c r="G39" s="4" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="H39" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I39" s="2">
         <v>54</v>
@@ -2967,10 +2965,10 @@
         <v>150</v>
       </c>
       <c r="K39" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="L39" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="M39" s="5">
         <v>45420</v>
@@ -2984,22 +2982,22 @@
         <v>0</v>
       </c>
       <c r="C40" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="D40" s="4" t="s">
         <v>125</v>
       </c>
-      <c r="D40" s="4" t="s">
+      <c r="E40" s="4" t="s">
         <v>126</v>
-      </c>
-      <c r="E40" s="4" t="s">
-        <v>127</v>
       </c>
       <c r="F40" s="3">
         <v>7299</v>
       </c>
       <c r="G40" s="4" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="H40" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I40" s="2">
         <v>48</v>
@@ -3008,10 +3006,10 @@
         <v>158</v>
       </c>
       <c r="K40" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="L40" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="M40" s="5">
         <v>45420</v>
@@ -3025,22 +3023,22 @@
         <v>4</v>
       </c>
       <c r="C41" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="D41" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="E41" s="4" t="s">
         <v>128</v>
-      </c>
-      <c r="D41" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="E41" s="4" t="s">
-        <v>129</v>
       </c>
       <c r="F41" s="3">
         <v>7299</v>
       </c>
       <c r="G41" s="4" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="H41" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I41" s="2">
         <v>51</v>
@@ -3052,7 +3050,7 @@
         <v>12</v>
       </c>
       <c r="L41" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="M41" s="5">
         <v>45420</v>
@@ -3066,22 +3064,22 @@
         <v>5</v>
       </c>
       <c r="C42" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="D42" s="4" t="s">
         <v>130</v>
       </c>
-      <c r="D42" s="4" t="s">
+      <c r="E42" s="4" t="s">
         <v>131</v>
-      </c>
-      <c r="E42" s="4" t="s">
-        <v>132</v>
       </c>
       <c r="F42" s="3">
         <v>7299</v>
       </c>
       <c r="G42" s="4" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="H42" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I42" s="2">
         <v>75</v>
@@ -3090,10 +3088,10 @@
         <v>152</v>
       </c>
       <c r="K42" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="L42" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="M42" s="5">
         <v>45420</v>
@@ -3107,22 +3105,22 @@
         <v>6</v>
       </c>
       <c r="C43" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="D43" s="4" t="s">
         <v>133</v>
       </c>
-      <c r="D43" s="4" t="s">
+      <c r="E43" s="4" t="s">
         <v>134</v>
-      </c>
-      <c r="E43" s="4" t="s">
-        <v>135</v>
       </c>
       <c r="F43" s="3">
         <v>7299</v>
       </c>
       <c r="G43" s="4" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="H43" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I43" s="2">
         <v>43</v>
@@ -3131,10 +3129,10 @@
         <v>146</v>
       </c>
       <c r="K43" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="L43" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="M43" s="5">
         <v>45420</v>
@@ -3148,22 +3146,22 @@
         <v>5</v>
       </c>
       <c r="C44" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="D44" s="4" t="s">
         <v>136</v>
       </c>
-      <c r="D44" s="4" t="s">
+      <c r="E44" s="4" t="s">
         <v>137</v>
-      </c>
-      <c r="E44" s="4" t="s">
-        <v>138</v>
       </c>
       <c r="F44" s="3">
         <v>7299</v>
       </c>
       <c r="G44" s="4" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="H44" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I44" s="2">
         <v>40</v>
@@ -3172,10 +3170,10 @@
         <v>147</v>
       </c>
       <c r="K44" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="L44" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="M44" s="5">
         <v>45420</v>
@@ -3189,22 +3187,22 @@
         <v>3</v>
       </c>
       <c r="C45" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="D45" s="4" t="s">
         <v>139</v>
       </c>
-      <c r="D45" s="4" t="s">
-        <v>140</v>
-      </c>
       <c r="E45" s="4" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="F45" s="3">
         <v>7299</v>
       </c>
       <c r="G45" s="4" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="H45" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I45" s="2">
         <v>44</v>
@@ -3216,7 +3214,7 @@
         <v>11</v>
       </c>
       <c r="L45" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="M45" s="5">
         <v>45420</v>
@@ -3227,25 +3225,25 @@
         <v>23893589</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C46" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="D46" s="4" t="s">
         <v>141</v>
       </c>
-      <c r="D46" s="4" t="s">
+      <c r="E46" s="4" t="s">
         <v>142</v>
-      </c>
-      <c r="E46" s="4" t="s">
-        <v>143</v>
       </c>
       <c r="F46" s="3">
         <v>7299</v>
       </c>
       <c r="G46" s="4" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="H46" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I46" s="2">
         <v>39</v>
@@ -3254,10 +3252,10 @@
         <v>144</v>
       </c>
       <c r="K46" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="L46" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="M46" s="5">
         <v>45420</v>
@@ -3271,22 +3269,22 @@
         <v>6</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D47" s="4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E47" s="4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="F47" s="3">
         <v>7299</v>
       </c>
       <c r="G47" s="4" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="H47" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I47" s="2">
         <v>54</v>
@@ -3295,10 +3293,10 @@
         <v>168</v>
       </c>
       <c r="K47" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="L47" s="4" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="M47" s="5">
         <v>45420</v>
@@ -3312,22 +3310,22 @@
         <v>9</v>
       </c>
       <c r="C48" s="4" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D48" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E48" s="4" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F48" s="3">
         <v>7299</v>
       </c>
       <c r="G48" s="4" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="H48" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I48" s="2">
         <v>58</v>
@@ -3336,10 +3334,10 @@
         <v>159</v>
       </c>
       <c r="K48" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="L48" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="M48" s="5">
         <v>45420</v>
@@ -3353,22 +3351,22 @@
         <v>9</v>
       </c>
       <c r="C49" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="D49" s="4" t="s">
         <v>147</v>
       </c>
-      <c r="D49" s="4" t="s">
-        <v>148</v>
-      </c>
       <c r="E49" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F49" s="3">
         <v>7299</v>
       </c>
       <c r="G49" s="4" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="H49" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I49" s="2">
         <v>48</v>
@@ -3377,10 +3375,10 @@
         <v>161</v>
       </c>
       <c r="K49" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="L49" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="M49" s="5">
         <v>45420</v>
@@ -3394,22 +3392,22 @@
         <v>6</v>
       </c>
       <c r="C50" s="4" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D50" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E50" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F50" s="3">
         <v>7299</v>
       </c>
       <c r="G50" s="4" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="H50" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I50" s="2">
         <v>45</v>
@@ -3421,7 +3419,7 @@
         <v>11</v>
       </c>
       <c r="L50" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="M50" s="5">
         <v>45420</v>
@@ -3435,22 +3433,22 @@
         <v>6</v>
       </c>
       <c r="C51" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="D51" s="4" t="s">
         <v>150</v>
       </c>
-      <c r="D51" s="4" t="s">
+      <c r="E51" s="4" t="s">
         <v>151</v>
-      </c>
-      <c r="E51" s="4" t="s">
-        <v>152</v>
       </c>
       <c r="F51" s="3">
         <v>7299</v>
       </c>
       <c r="G51" s="4" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="H51" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I51" s="2">
         <v>87</v>
@@ -3462,7 +3460,7 @@
         <v>11</v>
       </c>
       <c r="L51" s="4" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="M51" s="5">
         <v>45420</v>
@@ -3476,22 +3474,22 @@
         <v>0</v>
       </c>
       <c r="C52" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="D52" s="4" t="s">
         <v>154</v>
       </c>
-      <c r="D52" s="4" t="s">
+      <c r="E52" s="4" t="s">
         <v>155</v>
-      </c>
-      <c r="E52" s="4" t="s">
-        <v>156</v>
       </c>
       <c r="F52" s="3">
         <v>7299</v>
       </c>
       <c r="G52" s="4" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="H52" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I52" s="2">
         <v>41</v>
@@ -3500,10 +3498,10 @@
         <v>152</v>
       </c>
       <c r="K52" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="L52" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="M52" s="5">
         <v>45420</v>
@@ -3514,25 +3512,25 @@
         <v>23731610</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C53" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="D53" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="E53" s="4" t="s">
         <v>157</v>
-      </c>
-      <c r="D53" s="4" t="s">
-        <v>152</v>
-      </c>
-      <c r="E53" s="4" t="s">
-        <v>158</v>
       </c>
       <c r="F53" s="3">
         <v>7299</v>
       </c>
       <c r="G53" s="4" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="H53" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I53" s="2">
         <v>41</v>
@@ -3541,10 +3539,10 @@
         <v>154</v>
       </c>
       <c r="K53" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="L53" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="M53" s="5">
         <v>45420</v>
@@ -3555,25 +3553,25 @@
         <v>23873648</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C54" s="4" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D54" s="4" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E54" s="4" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F54" s="3">
         <v>7299</v>
       </c>
       <c r="G54" s="4" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="H54" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I54" s="2">
         <v>46</v>
@@ -3582,10 +3580,10 @@
         <v>167</v>
       </c>
       <c r="K54" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="L54" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="M54" s="5">
         <v>45420</v>
@@ -3599,22 +3597,22 @@
         <v>6</v>
       </c>
       <c r="C55" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="D55" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="E55" s="4" t="s">
         <v>160</v>
-      </c>
-      <c r="D55" s="4" t="s">
-        <v>110</v>
-      </c>
-      <c r="E55" s="4" t="s">
-        <v>161</v>
       </c>
       <c r="F55" s="3">
         <v>7299</v>
       </c>
       <c r="G55" s="4" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="H55" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I55" s="2">
         <v>43</v>
@@ -3623,10 +3621,10 @@
         <v>155</v>
       </c>
       <c r="K55" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="L55" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="M55" s="5">
         <v>45420</v>
@@ -3640,22 +3638,22 @@
         <v>8</v>
       </c>
       <c r="C56" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="D56" s="4" t="s">
         <v>162</v>
       </c>
-      <c r="D56" s="4" t="s">
+      <c r="E56" s="4" t="s">
         <v>163</v>
-      </c>
-      <c r="E56" s="4" t="s">
-        <v>164</v>
       </c>
       <c r="F56" s="3">
         <v>7299</v>
       </c>
       <c r="G56" s="4" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="H56" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I56" s="2">
         <v>60</v>
@@ -3664,10 +3662,10 @@
         <v>161</v>
       </c>
       <c r="K56" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="L56" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="M56" s="5">
         <v>45420</v>
@@ -3681,22 +3679,22 @@
         <v>1</v>
       </c>
       <c r="C57" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="D57" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="E57" s="4" t="s">
         <v>165</v>
-      </c>
-      <c r="D57" s="4" t="s">
-        <v>140</v>
-      </c>
-      <c r="E57" s="4" t="s">
-        <v>166</v>
       </c>
       <c r="F57" s="3">
         <v>7299</v>
       </c>
       <c r="G57" s="4" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="H57" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I57" s="2">
         <v>43</v>
@@ -3705,10 +3703,10 @@
         <v>148</v>
       </c>
       <c r="K57" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="L57" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="M57" s="5">
         <v>45420</v>
@@ -3722,22 +3720,22 @@
         <v>4</v>
       </c>
       <c r="C58" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="D58" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="E58" s="4" t="s">
         <v>167</v>
-      </c>
-      <c r="D58" s="4" t="s">
-        <v>112</v>
-      </c>
-      <c r="E58" s="4" t="s">
-        <v>168</v>
       </c>
       <c r="F58" s="3">
         <v>7299</v>
       </c>
       <c r="G58" s="4" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="H58" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I58" s="2">
         <v>35</v>
@@ -3746,10 +3744,10 @@
         <v>150</v>
       </c>
       <c r="K58" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="L58" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="M58" s="5">
         <v>45420</v>
@@ -3763,22 +3761,22 @@
         <v>0</v>
       </c>
       <c r="C59" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="D59" s="4" t="s">
         <v>169</v>
       </c>
-      <c r="D59" s="4" t="s">
+      <c r="E59" s="4" t="s">
         <v>170</v>
-      </c>
-      <c r="E59" s="4" t="s">
-        <v>171</v>
       </c>
       <c r="F59" s="3">
         <v>7299</v>
       </c>
       <c r="G59" s="4" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="H59" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I59" s="2">
         <v>71</v>
@@ -3787,10 +3785,10 @@
         <v>158</v>
       </c>
       <c r="K59" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="L59" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="M59" s="5">
         <v>45420</v>
@@ -3804,28 +3802,28 @@
         <v>5</v>
       </c>
       <c r="C60" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="D60" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="E60" s="4" t="s">
         <v>172</v>
-      </c>
-      <c r="D60" s="4" t="s">
-        <v>171</v>
-      </c>
-      <c r="E60" s="4" t="s">
-        <v>173</v>
       </c>
       <c r="F60" s="3">
         <v>7299</v>
       </c>
       <c r="G60" s="4" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="H60" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I60" s="2"/>
       <c r="J60" s="2"/>
       <c r="K60" s="2"/>
       <c r="L60" s="6" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="M60" s="2"/>
     </row>
@@ -3837,22 +3835,22 @@
         <v>1</v>
       </c>
       <c r="C61" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="D61" s="4" t="s">
         <v>175</v>
       </c>
-      <c r="D61" s="4" t="s">
+      <c r="E61" s="4" t="s">
         <v>176</v>
-      </c>
-      <c r="E61" s="4" t="s">
-        <v>177</v>
       </c>
       <c r="F61" s="3">
         <v>7299</v>
       </c>
       <c r="G61" s="4" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="H61" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I61" s="2">
         <v>67</v>
@@ -3864,7 +3862,7 @@
         <v>11</v>
       </c>
       <c r="L61" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="M61" s="5">
         <v>45420</v>
@@ -3878,22 +3876,22 @@
         <v>5</v>
       </c>
       <c r="C62" s="4" t="s">
+        <v>177</v>
+      </c>
+      <c r="D62" s="4" t="s">
         <v>178</v>
       </c>
-      <c r="D62" s="4" t="s">
+      <c r="E62" s="4" t="s">
         <v>179</v>
-      </c>
-      <c r="E62" s="4" t="s">
-        <v>180</v>
       </c>
       <c r="F62" s="3">
         <v>7299</v>
       </c>
       <c r="G62" s="4" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="H62" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I62" s="2">
         <v>36</v>
@@ -3902,10 +3900,10 @@
         <v>149</v>
       </c>
       <c r="K62" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="L62" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="M62" s="5">
         <v>45420</v>
@@ -3919,22 +3917,22 @@
         <v>6</v>
       </c>
       <c r="C63" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="D63" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="E63" s="4" t="s">
         <v>181</v>
-      </c>
-      <c r="D63" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="E63" s="4" t="s">
-        <v>182</v>
       </c>
       <c r="F63" s="3">
         <v>7299</v>
       </c>
       <c r="G63" s="4" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="H63" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I63" s="2">
         <v>68</v>
@@ -3943,10 +3941,10 @@
         <v>155</v>
       </c>
       <c r="K63" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="L63" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="M63" s="5">
         <v>45420</v>
@@ -3960,22 +3958,22 @@
         <v>2</v>
       </c>
       <c r="C64" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="D64" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="E64" s="4" t="s">
         <v>183</v>
-      </c>
-      <c r="D64" s="4" t="s">
-        <v>118</v>
-      </c>
-      <c r="E64" s="4" t="s">
-        <v>184</v>
       </c>
       <c r="F64" s="3">
         <v>7299</v>
       </c>
       <c r="G64" s="4" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="H64" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I64" s="2">
         <v>31</v>
@@ -3984,10 +3982,10 @@
         <v>143</v>
       </c>
       <c r="K64" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="L64" s="4" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="M64" s="5">
         <v>45420</v>
@@ -4001,22 +3999,22 @@
         <v>5</v>
       </c>
       <c r="C65" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="D65" s="4" t="s">
         <v>186</v>
       </c>
-      <c r="D65" s="4" t="s">
+      <c r="E65" s="4" t="s">
         <v>187</v>
-      </c>
-      <c r="E65" s="4" t="s">
-        <v>188</v>
       </c>
       <c r="F65" s="3">
         <v>7299</v>
       </c>
       <c r="G65" s="4" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="H65" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I65" s="2">
         <v>38</v>
@@ -4025,10 +4023,10 @@
         <v>142</v>
       </c>
       <c r="K65" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="L65" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="M65" s="5">
         <v>45420</v>
@@ -4042,22 +4040,22 @@
         <v>3</v>
       </c>
       <c r="C66" s="4" t="s">
+        <v>188</v>
+      </c>
+      <c r="D66" s="4" t="s">
         <v>189</v>
       </c>
-      <c r="D66" s="4" t="s">
+      <c r="E66" s="4" t="s">
         <v>190</v>
-      </c>
-      <c r="E66" s="4" t="s">
-        <v>191</v>
       </c>
       <c r="F66" s="3">
         <v>7299</v>
       </c>
       <c r="G66" s="4" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="H66" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I66" s="2">
         <v>75</v>
@@ -4066,10 +4064,10 @@
         <v>166</v>
       </c>
       <c r="K66" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="L66" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="M66" s="5">
         <v>45420</v>
@@ -4083,22 +4081,22 @@
         <v>5</v>
       </c>
       <c r="C67" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="D67" s="4" t="s">
         <v>192</v>
       </c>
-      <c r="D67" s="4" t="s">
+      <c r="E67" s="4" t="s">
         <v>193</v>
-      </c>
-      <c r="E67" s="4" t="s">
-        <v>194</v>
       </c>
       <c r="F67" s="3">
         <v>7299</v>
       </c>
       <c r="G67" s="4" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="H67" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I67" s="2">
         <v>59</v>
@@ -4107,10 +4105,10 @@
         <v>164</v>
       </c>
       <c r="K67" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="L67" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="M67" s="5">
         <v>45420</v>
@@ -4124,22 +4122,22 @@
         <v>1</v>
       </c>
       <c r="C68" s="4" t="s">
+        <v>194</v>
+      </c>
+      <c r="D68" s="4" t="s">
         <v>195</v>
       </c>
-      <c r="D68" s="4" t="s">
+      <c r="E68" s="4" t="s">
         <v>196</v>
-      </c>
-      <c r="E68" s="4" t="s">
-        <v>197</v>
       </c>
       <c r="F68" s="3">
         <v>7299</v>
       </c>
       <c r="G68" s="4" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="H68" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I68" s="2"/>
       <c r="J68" s="2"/>
@@ -4155,22 +4153,22 @@
         <v>6</v>
       </c>
       <c r="C69" s="4" t="s">
+        <v>197</v>
+      </c>
+      <c r="D69" s="4" t="s">
         <v>198</v>
       </c>
-      <c r="D69" s="4" t="s">
+      <c r="E69" s="4" t="s">
         <v>199</v>
-      </c>
-      <c r="E69" s="4" t="s">
-        <v>200</v>
       </c>
       <c r="F69" s="3">
         <v>7299</v>
       </c>
       <c r="G69" s="4" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="H69" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I69" s="2">
         <v>57</v>
@@ -4182,7 +4180,7 @@
         <v>10</v>
       </c>
       <c r="L69" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="M69" s="5">
         <v>45420</v>
@@ -4196,22 +4194,22 @@
         <v>2</v>
       </c>
       <c r="C70" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="D70" s="4" t="s">
         <v>201</v>
       </c>
-      <c r="D70" s="4" t="s">
-        <v>202</v>
-      </c>
       <c r="E70" s="4" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F70" s="3">
         <v>7299</v>
       </c>
       <c r="G70" s="4" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="H70" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I70" s="2">
         <v>76</v>
@@ -4220,10 +4218,10 @@
         <v>162</v>
       </c>
       <c r="K70" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="L70" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="M70" s="5">
         <v>45420</v>
@@ -4237,22 +4235,22 @@
         <v>9</v>
       </c>
       <c r="C71" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="D71" s="4" t="s">
         <v>203</v>
       </c>
-      <c r="D71" s="4" t="s">
+      <c r="E71" s="4" t="s">
         <v>204</v>
-      </c>
-      <c r="E71" s="4" t="s">
-        <v>205</v>
       </c>
       <c r="F71" s="3">
         <v>7299</v>
       </c>
       <c r="G71" s="4" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="H71" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I71" s="2"/>
       <c r="J71" s="2"/>
@@ -4268,22 +4266,22 @@
         <v>6</v>
       </c>
       <c r="C72" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="D72" s="4" t="s">
         <v>206</v>
       </c>
-      <c r="D72" s="4" t="s">
-        <v>207</v>
-      </c>
       <c r="E72" s="4" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="F72" s="3">
         <v>7299</v>
       </c>
       <c r="G72" s="4" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="H72" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I72" s="2"/>
       <c r="J72" s="2"/>
@@ -4299,22 +4297,22 @@
         <v>6</v>
       </c>
       <c r="C73" s="4" t="s">
+        <v>207</v>
+      </c>
+      <c r="D73" s="4" t="s">
         <v>208</v>
       </c>
-      <c r="D73" s="4" t="s">
+      <c r="E73" s="4" t="s">
         <v>209</v>
-      </c>
-      <c r="E73" s="4" t="s">
-        <v>210</v>
       </c>
       <c r="F73" s="3">
         <v>7299</v>
       </c>
       <c r="G73" s="4" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="H73" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I73" s="2">
         <v>48</v>
@@ -4323,10 +4321,10 @@
         <v>156</v>
       </c>
       <c r="K73" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="L73" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="M73" s="5">
         <v>45420</v>
@@ -4337,25 +4335,25 @@
         <v>23677659</v>
       </c>
       <c r="B74" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C74" s="4" t="s">
+        <v>210</v>
+      </c>
+      <c r="D74" s="4" t="s">
         <v>211</v>
       </c>
-      <c r="D74" s="4" t="s">
+      <c r="E74" s="4" t="s">
         <v>212</v>
-      </c>
-      <c r="E74" s="4" t="s">
-        <v>213</v>
       </c>
       <c r="F74" s="3">
         <v>7299</v>
       </c>
       <c r="G74" s="4" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="H74" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I74" s="2">
         <v>41</v>
@@ -4367,7 +4365,7 @@
         <v>12</v>
       </c>
       <c r="L74" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="M74" s="5">
         <v>45420</v>
@@ -4381,22 +4379,22 @@
         <v>5</v>
       </c>
       <c r="C75" s="4" t="s">
+        <v>213</v>
+      </c>
+      <c r="D75" s="4" t="s">
         <v>214</v>
       </c>
-      <c r="D75" s="4" t="s">
+      <c r="E75" s="4" t="s">
         <v>215</v>
-      </c>
-      <c r="E75" s="4" t="s">
-        <v>216</v>
       </c>
       <c r="F75" s="3">
         <v>7299</v>
       </c>
       <c r="G75" s="4" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="H75" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I75" s="2">
         <v>43</v>
@@ -4405,10 +4403,10 @@
         <v>160</v>
       </c>
       <c r="K75" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="L75" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="M75" s="5">
         <v>45420</v>
@@ -4422,22 +4420,22 @@
         <v>7</v>
       </c>
       <c r="C76" s="4" t="s">
+        <v>216</v>
+      </c>
+      <c r="D76" s="4" t="s">
         <v>217</v>
       </c>
-      <c r="D76" s="4" t="s">
+      <c r="E76" s="4" t="s">
         <v>218</v>
-      </c>
-      <c r="E76" s="4" t="s">
-        <v>219</v>
       </c>
       <c r="F76" s="3">
         <v>7299</v>
       </c>
       <c r="G76" s="4" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="H76" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I76" s="2">
         <v>54</v>
@@ -4446,10 +4444,10 @@
         <v>163</v>
       </c>
       <c r="K76" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="L76" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="M76" s="5">
         <v>45420</v>
@@ -4463,22 +4461,22 @@
         <v>4</v>
       </c>
       <c r="C77" s="4" t="s">
+        <v>219</v>
+      </c>
+      <c r="D77" s="4" t="s">
         <v>220</v>
       </c>
-      <c r="D77" s="4" t="s">
+      <c r="E77" s="4" t="s">
         <v>221</v>
-      </c>
-      <c r="E77" s="4" t="s">
-        <v>222</v>
       </c>
       <c r="F77" s="3">
         <v>7299</v>
       </c>
       <c r="G77" s="4" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="H77" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I77" s="2">
         <v>55</v>
@@ -4490,7 +4488,7 @@
         <v>10</v>
       </c>
       <c r="L77" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="M77" s="5">
         <v>45420</v>
@@ -4504,22 +4502,22 @@
         <v>8</v>
       </c>
       <c r="C78" s="4" t="s">
+        <v>222</v>
+      </c>
+      <c r="D78" s="4" t="s">
         <v>223</v>
       </c>
-      <c r="D78" s="4" t="s">
-        <v>224</v>
-      </c>
       <c r="E78" s="4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F78" s="3">
         <v>7299</v>
       </c>
       <c r="G78" s="4" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="H78" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I78" s="2"/>
       <c r="J78" s="2"/>
@@ -4535,22 +4533,22 @@
         <v>6</v>
       </c>
       <c r="C79" s="4" t="s">
+        <v>224</v>
+      </c>
+      <c r="D79" s="4" t="s">
         <v>225</v>
       </c>
-      <c r="D79" s="4" t="s">
+      <c r="E79" s="4" t="s">
         <v>226</v>
-      </c>
-      <c r="E79" s="4" t="s">
-        <v>227</v>
       </c>
       <c r="F79" s="3">
         <v>7299</v>
       </c>
       <c r="G79" s="4" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="H79" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I79" s="2">
         <v>68</v>
@@ -4562,7 +4560,7 @@
         <v>11</v>
       </c>
       <c r="L79" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="M79" s="5">
         <v>45420</v>
@@ -4576,22 +4574,22 @@
         <v>0</v>
       </c>
       <c r="C80" s="4" t="s">
+        <v>227</v>
+      </c>
+      <c r="D80" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="E80" s="4" t="s">
         <v>228</v>
-      </c>
-      <c r="D80" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="E80" s="4" t="s">
-        <v>229</v>
       </c>
       <c r="F80" s="3">
         <v>7299</v>
       </c>
       <c r="G80" s="4" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="H80" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I80" s="2">
         <v>45</v>
@@ -4600,10 +4598,10 @@
         <v>156</v>
       </c>
       <c r="K80" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="L80" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="M80" s="5">
         <v>45420</v>
@@ -4617,22 +4615,22 @@
         <v>3</v>
       </c>
       <c r="C81" s="4" t="s">
+        <v>229</v>
+      </c>
+      <c r="D81" s="4" t="s">
         <v>230</v>
       </c>
-      <c r="D81" s="4" t="s">
+      <c r="E81" s="4" t="s">
         <v>231</v>
-      </c>
-      <c r="E81" s="4" t="s">
-        <v>232</v>
       </c>
       <c r="F81" s="3">
         <v>7299</v>
       </c>
       <c r="G81" s="4" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="H81" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I81" s="2">
         <v>42</v>
@@ -4641,10 +4639,10 @@
         <v>158</v>
       </c>
       <c r="K81" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="L81" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="M81" s="5">
         <v>45420</v>
@@ -4658,29 +4656,29 @@
         <v>7</v>
       </c>
       <c r="C82" s="4" t="s">
+        <v>232</v>
+      </c>
+      <c r="D82" s="4" t="s">
         <v>233</v>
       </c>
-      <c r="D82" s="4" t="s">
+      <c r="E82" s="4" t="s">
         <v>234</v>
-      </c>
-      <c r="E82" s="4" t="s">
-        <v>235</v>
       </c>
       <c r="F82" s="3">
         <v>7299</v>
       </c>
       <c r="G82" s="4" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="H82" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I82" s="2"/>
       <c r="J82" s="2"/>
       <c r="K82" s="2"/>
       <c r="L82" s="4"/>
       <c r="M82" s="2" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="83" spans="1:13" ht="13.8">
@@ -4691,22 +4689,22 @@
         <v>9</v>
       </c>
       <c r="C83" s="4" t="s">
+        <v>236</v>
+      </c>
+      <c r="D83" s="4" t="s">
         <v>237</v>
       </c>
-      <c r="D83" s="4" t="s">
+      <c r="E83" s="4" t="s">
         <v>238</v>
-      </c>
-      <c r="E83" s="4" t="s">
-        <v>239</v>
       </c>
       <c r="F83" s="3">
         <v>7299</v>
       </c>
       <c r="G83" s="4" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="H83" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I83" s="2">
         <v>67</v>
@@ -4718,7 +4716,7 @@
         <v>12</v>
       </c>
       <c r="L83" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="M83" s="5">
         <v>45420</v>
@@ -4732,29 +4730,29 @@
         <v>2</v>
       </c>
       <c r="C84" s="4" t="s">
+        <v>239</v>
+      </c>
+      <c r="D84" s="4" t="s">
         <v>240</v>
       </c>
-      <c r="D84" s="4" t="s">
+      <c r="E84" s="4" t="s">
         <v>241</v>
-      </c>
-      <c r="E84" s="4" t="s">
-        <v>242</v>
       </c>
       <c r="F84" s="3">
         <v>7299</v>
       </c>
       <c r="G84" s="4" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="H84" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I84" s="2"/>
       <c r="J84" s="2"/>
       <c r="K84" s="2"/>
       <c r="L84" s="4"/>
       <c r="M84" s="2" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="85" spans="1:13" ht="13.8">
@@ -4765,22 +4763,22 @@
         <v>0</v>
       </c>
       <c r="C85" s="4" t="s">
+        <v>242</v>
+      </c>
+      <c r="D85" s="4" t="s">
         <v>243</v>
       </c>
-      <c r="D85" s="4" t="s">
+      <c r="E85" s="4" t="s">
         <v>244</v>
-      </c>
-      <c r="E85" s="4" t="s">
-        <v>245</v>
       </c>
       <c r="F85" s="3">
         <v>7299</v>
       </c>
       <c r="G85" s="4" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="H85" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I85" s="2">
         <v>48</v>
@@ -4789,10 +4787,10 @@
         <v>152</v>
       </c>
       <c r="K85" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="L85" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="M85" s="5">
         <v>45420</v>
@@ -4806,29 +4804,29 @@
         <v>5</v>
       </c>
       <c r="C86" s="4" t="s">
+        <v>245</v>
+      </c>
+      <c r="D86" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="E86" s="4" t="s">
         <v>246</v>
-      </c>
-      <c r="D86" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="E86" s="4" t="s">
-        <v>247</v>
       </c>
       <c r="F86" s="3">
         <v>7299</v>
       </c>
       <c r="G86" s="4" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="H86" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I86" s="2"/>
       <c r="J86" s="2"/>
       <c r="K86" s="2"/>
       <c r="L86" s="4"/>
       <c r="M86" s="2" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="87" spans="1:13" ht="13.8">
@@ -4839,22 +4837,22 @@
         <v>1</v>
       </c>
       <c r="C87" s="4" t="s">
+        <v>247</v>
+      </c>
+      <c r="D87" s="4" t="s">
         <v>248</v>
       </c>
-      <c r="D87" s="4" t="s">
+      <c r="E87" s="4" t="s">
         <v>249</v>
-      </c>
-      <c r="E87" s="4" t="s">
-        <v>250</v>
       </c>
       <c r="F87" s="3">
         <v>7299</v>
       </c>
       <c r="G87" s="4" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="H87" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I87" s="2">
         <v>40</v>
@@ -4866,7 +4864,7 @@
         <v>12</v>
       </c>
       <c r="L87" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="M87" s="5">
         <v>45420</v>
@@ -4880,22 +4878,22 @@
         <v>9</v>
       </c>
       <c r="C88" s="4" t="s">
+        <v>250</v>
+      </c>
+      <c r="D88" s="4" t="s">
         <v>251</v>
       </c>
-      <c r="D88" s="4" t="s">
-        <v>252</v>
-      </c>
       <c r="E88" s="4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F88" s="3">
         <v>7299</v>
       </c>
       <c r="G88" s="4" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="H88" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I88" s="2">
         <v>52</v>
@@ -4904,10 +4902,10 @@
         <v>157</v>
       </c>
       <c r="K88" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="L88" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="M88" s="5">
         <v>45420</v>
@@ -4921,22 +4919,22 @@
         <v>1</v>
       </c>
       <c r="C89" s="4" t="s">
+        <v>252</v>
+      </c>
+      <c r="D89" s="4" t="s">
         <v>253</v>
       </c>
-      <c r="D89" s="4" t="s">
-        <v>254</v>
-      </c>
       <c r="E89" s="4" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F89" s="3">
         <v>7299</v>
       </c>
       <c r="G89" s="4" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="H89" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I89" s="2">
         <v>70</v>
@@ -4945,10 +4943,10 @@
         <v>170</v>
       </c>
       <c r="K89" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="L89" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="M89" s="5">
         <v>45420</v>
@@ -4962,22 +4960,22 @@
         <v>8</v>
       </c>
       <c r="C90" s="4" t="s">
+        <v>254</v>
+      </c>
+      <c r="D90" s="4" t="s">
         <v>255</v>
       </c>
-      <c r="D90" s="4" t="s">
+      <c r="E90" s="4" t="s">
         <v>256</v>
-      </c>
-      <c r="E90" s="4" t="s">
-        <v>257</v>
       </c>
       <c r="F90" s="3">
         <v>7299</v>
       </c>
       <c r="G90" s="4" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="H90" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I90" s="2">
         <v>45</v>
@@ -4989,7 +4987,7 @@
         <v>12</v>
       </c>
       <c r="L90" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="M90" s="5">
         <v>45420</v>
@@ -5003,22 +5001,22 @@
         <v>4</v>
       </c>
       <c r="C91" s="4" t="s">
+        <v>257</v>
+      </c>
+      <c r="D91" s="4" t="s">
         <v>258</v>
       </c>
-      <c r="D91" s="4" t="s">
+      <c r="E91" s="4" t="s">
         <v>259</v>
-      </c>
-      <c r="E91" s="4" t="s">
-        <v>260</v>
       </c>
       <c r="F91" s="3">
         <v>7299</v>
       </c>
       <c r="G91" s="4" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="H91" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I91" s="2">
         <v>71</v>
@@ -5027,10 +5025,10 @@
         <v>161</v>
       </c>
       <c r="K91" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="L91" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="M91" s="7">
         <v>45420</v>
@@ -5041,25 +5039,25 @@
         <v>23352607</v>
       </c>
       <c r="B92" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C92" s="4" t="s">
+        <v>260</v>
+      </c>
+      <c r="D92" s="4" t="s">
         <v>261</v>
       </c>
-      <c r="D92" s="4" t="s">
-        <v>262</v>
-      </c>
       <c r="E92" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F92" s="3">
         <v>7299</v>
       </c>
       <c r="G92" s="4" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="H92" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I92" s="2">
         <v>56</v>
@@ -5068,10 +5066,10 @@
         <v>154</v>
       </c>
       <c r="K92" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="L92" s="4" t="s">
         <v>18</v>
-      </c>
-      <c r="L92" s="4" t="s">
-        <v>19</v>
       </c>
       <c r="M92" s="5">
         <v>45420</v>
@@ -5085,22 +5083,22 @@
         <v>2</v>
       </c>
       <c r="C93" s="4" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="D93" s="4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E93" s="4" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="F93" s="3">
         <v>7299</v>
       </c>
       <c r="G93" s="4" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="H93" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I93" s="2">
         <v>48</v>
@@ -5112,7 +5110,7 @@
         <v>12</v>
       </c>
       <c r="L93" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="M93" s="5">
         <v>45420</v>
@@ -5126,22 +5124,22 @@
         <v>7</v>
       </c>
       <c r="C94" s="4" t="s">
+        <v>263</v>
+      </c>
+      <c r="D94" s="4" t="s">
         <v>264</v>
       </c>
-      <c r="D94" s="4" t="s">
+      <c r="E94" s="4" t="s">
         <v>265</v>
-      </c>
-      <c r="E94" s="4" t="s">
-        <v>266</v>
       </c>
       <c r="F94" s="3">
         <v>7299</v>
       </c>
       <c r="G94" s="4" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="H94" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I94" s="2">
         <v>37</v>
@@ -5150,10 +5148,10 @@
         <v>147</v>
       </c>
       <c r="K94" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="L94" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="M94" s="5">
         <v>45420</v>
@@ -5167,22 +5165,22 @@
         <v>0</v>
       </c>
       <c r="C95" s="4" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="D95" s="4" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E95" s="4" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F95" s="3">
         <v>7299</v>
       </c>
       <c r="G95" s="4" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="H95" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I95" s="2">
         <v>53</v>
@@ -5191,10 +5189,10 @@
         <v>155</v>
       </c>
       <c r="K95" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="L95" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="M95" s="5">
         <v>45420</v>
@@ -5208,22 +5206,22 @@
         <v>5</v>
       </c>
       <c r="C96" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="D96" s="4" t="s">
         <v>268</v>
       </c>
-      <c r="D96" s="4" t="s">
+      <c r="E96" s="4" t="s">
         <v>269</v>
-      </c>
-      <c r="E96" s="4" t="s">
-        <v>270</v>
       </c>
       <c r="F96" s="3">
         <v>7299</v>
       </c>
       <c r="G96" s="4" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="H96" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I96" s="2">
         <v>65</v>
@@ -5232,10 +5230,10 @@
         <v>172</v>
       </c>
       <c r="K96" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="L96" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="M96" s="5">
         <v>45420</v>
@@ -5249,22 +5247,22 @@
         <v>4</v>
       </c>
       <c r="C97" s="4" t="s">
+        <v>270</v>
+      </c>
+      <c r="D97" s="4" t="s">
         <v>271</v>
       </c>
-      <c r="D97" s="4" t="s">
-        <v>272</v>
-      </c>
       <c r="E97" s="4" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="F97" s="3">
         <v>7299</v>
       </c>
       <c r="G97" s="4" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="H97" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I97" s="2">
         <v>78</v>
@@ -5276,7 +5274,7 @@
         <v>12</v>
       </c>
       <c r="L97" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="M97" s="5">
         <v>45420</v>
@@ -5290,22 +5288,22 @@
         <v>4</v>
       </c>
       <c r="C98" s="4" t="s">
+        <v>272</v>
+      </c>
+      <c r="D98" s="4" t="s">
         <v>273</v>
       </c>
-      <c r="D98" s="4" t="s">
-        <v>274</v>
-      </c>
       <c r="E98" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F98" s="3">
         <v>7299</v>
       </c>
       <c r="G98" s="4" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="H98" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I98" s="2">
         <v>46</v>
@@ -5314,10 +5312,10 @@
         <v>156</v>
       </c>
       <c r="K98" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="L98" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="M98" s="5">
         <v>45420</v>
@@ -5331,22 +5329,22 @@
         <v>5</v>
       </c>
       <c r="C99" s="4" t="s">
+        <v>274</v>
+      </c>
+      <c r="D99" s="4" t="s">
         <v>275</v>
       </c>
-      <c r="D99" s="4" t="s">
-        <v>276</v>
-      </c>
       <c r="E99" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F99" s="3">
         <v>7299</v>
       </c>
       <c r="G99" s="4" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="H99" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I99" s="2">
         <v>51</v>
@@ -5358,7 +5356,7 @@
         <v>10</v>
       </c>
       <c r="L99" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="M99" s="5">
         <v>45420</v>
@@ -5372,22 +5370,22 @@
         <v>5</v>
       </c>
       <c r="C100" s="4" t="s">
+        <v>276</v>
+      </c>
+      <c r="D100" s="4" t="s">
         <v>277</v>
       </c>
-      <c r="D100" s="4" t="s">
-        <v>278</v>
-      </c>
       <c r="E100" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F100" s="3">
         <v>7299</v>
       </c>
       <c r="G100" s="4" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="H100" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I100" s="2">
         <v>63</v>
@@ -5399,7 +5397,7 @@
         <v>10</v>
       </c>
       <c r="L100" s="4" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="M100" s="5">
         <v>45390</v>
@@ -5413,22 +5411,22 @@
         <v>3</v>
       </c>
       <c r="C101" s="4" t="s">
+        <v>278</v>
+      </c>
+      <c r="D101" s="4" t="s">
         <v>279</v>
       </c>
-      <c r="D101" s="4" t="s">
-        <v>280</v>
-      </c>
       <c r="E101" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F101" s="3">
         <v>7299</v>
       </c>
       <c r="G101" s="4" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="H101" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I101" s="2">
         <v>55</v>
@@ -5440,7 +5438,7 @@
         <v>8</v>
       </c>
       <c r="L101" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="M101" s="5">
         <v>45390</v>
@@ -5454,22 +5452,22 @@
         <v>2</v>
       </c>
       <c r="C102" s="4" t="s">
+        <v>280</v>
+      </c>
+      <c r="D102" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="E102" s="4" t="s">
         <v>281</v>
-      </c>
-      <c r="D102" s="4" t="s">
-        <v>179</v>
-      </c>
-      <c r="E102" s="4" t="s">
-        <v>282</v>
       </c>
       <c r="F102" s="3">
         <v>7299</v>
       </c>
       <c r="G102" s="4" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="H102" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I102" s="2">
         <v>57</v>
@@ -5478,10 +5476,10 @@
         <v>156</v>
       </c>
       <c r="K102" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="L102" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="M102" s="5">
         <v>45420</v>
@@ -5495,22 +5493,22 @@
         <v>0</v>
       </c>
       <c r="C103" s="4" t="s">
+        <v>282</v>
+      </c>
+      <c r="D103" s="4" t="s">
         <v>283</v>
       </c>
-      <c r="D103" s="4" t="s">
+      <c r="E103" s="4" t="s">
         <v>284</v>
-      </c>
-      <c r="E103" s="4" t="s">
-        <v>285</v>
       </c>
       <c r="F103" s="3">
         <v>7299</v>
       </c>
       <c r="G103" s="4" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="H103" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I103" s="2">
         <v>78</v>
@@ -5522,7 +5520,7 @@
         <v>10</v>
       </c>
       <c r="L103" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="M103" s="5">
         <v>45420</v>
@@ -5536,22 +5534,22 @@
         <v>6</v>
       </c>
       <c r="C104" s="4" t="s">
+        <v>285</v>
+      </c>
+      <c r="D104" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="E104" s="4" t="s">
         <v>286</v>
-      </c>
-      <c r="D104" s="4" t="s">
-        <v>152</v>
-      </c>
-      <c r="E104" s="4" t="s">
-        <v>287</v>
       </c>
       <c r="F104" s="3">
         <v>7299</v>
       </c>
       <c r="G104" s="4" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="H104" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I104" s="2">
         <v>76</v>
@@ -5563,7 +5561,7 @@
         <v>11</v>
       </c>
       <c r="L104" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="M104" s="5">
         <v>45420</v>
@@ -5574,25 +5572,25 @@
         <v>23941429</v>
       </c>
       <c r="B105" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C105" s="4" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="D105" s="4" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E105" s="4" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="F105" s="3">
         <v>7299</v>
       </c>
       <c r="G105" s="4" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="H105" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I105" s="2">
         <v>84</v>
@@ -5601,10 +5599,10 @@
         <v>163</v>
       </c>
       <c r="K105" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="L105" s="4" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="M105" s="5">
         <v>45420</v>
@@ -5618,22 +5616,22 @@
         <v>0</v>
       </c>
       <c r="C106" s="4" t="s">
+        <v>288</v>
+      </c>
+      <c r="D106" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="E106" s="4" t="s">
         <v>289</v>
-      </c>
-      <c r="D106" s="4" t="s">
-        <v>121</v>
-      </c>
-      <c r="E106" s="4" t="s">
-        <v>290</v>
       </c>
       <c r="F106" s="3">
         <v>7299</v>
       </c>
       <c r="G106" s="4" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="H106" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I106" s="2">
         <v>41</v>
@@ -5642,10 +5640,10 @@
         <v>149</v>
       </c>
       <c r="K106" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="L106" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="M106" s="5">
         <v>45420</v>
@@ -5659,22 +5657,22 @@
         <v>5</v>
       </c>
       <c r="C107" s="4" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="D107" s="4" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E107" s="4" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F107" s="3">
         <v>7299</v>
       </c>
       <c r="G107" s="4" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="H107" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I107" s="2">
         <v>49</v>
@@ -5683,10 +5681,10 @@
         <v>151</v>
       </c>
       <c r="K107" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="L107" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="M107" s="5">
         <v>45420</v>
@@ -5700,28 +5698,28 @@
         <v>6</v>
       </c>
       <c r="C108" s="4" t="s">
+        <v>291</v>
+      </c>
+      <c r="D108" s="4" t="s">
         <v>292</v>
       </c>
-      <c r="D108" s="4" t="s">
-        <v>293</v>
-      </c>
       <c r="E108" s="4" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="F108" s="3">
         <v>7299</v>
       </c>
       <c r="G108" s="4" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="H108" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I108" s="2"/>
       <c r="J108" s="2"/>
       <c r="K108" s="2"/>
       <c r="L108" s="6" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="M108" s="2"/>
     </row>
@@ -5733,22 +5731,22 @@
         <v>4</v>
       </c>
       <c r="C109" s="4" t="s">
+        <v>293</v>
+      </c>
+      <c r="D109" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="E109" s="4" t="s">
         <v>294</v>
-      </c>
-      <c r="D109" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="E109" s="4" t="s">
-        <v>295</v>
       </c>
       <c r="F109" s="3">
         <v>7299</v>
       </c>
       <c r="G109" s="4" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="H109" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I109" s="2">
         <v>86</v>
@@ -5760,7 +5758,7 @@
         <v>10</v>
       </c>
       <c r="L109" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="M109" s="5">
         <v>45420</v>
@@ -5774,22 +5772,22 @@
         <v>6</v>
       </c>
       <c r="C110" s="4" t="s">
+        <v>295</v>
+      </c>
+      <c r="D110" s="4" t="s">
         <v>296</v>
       </c>
-      <c r="D110" s="4" t="s">
+      <c r="E110" s="4" t="s">
         <v>297</v>
-      </c>
-      <c r="E110" s="4" t="s">
-        <v>298</v>
       </c>
       <c r="F110" s="3">
         <v>7299</v>
       </c>
       <c r="G110" s="4" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="H110" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I110" s="2">
         <v>48</v>
@@ -5798,10 +5796,10 @@
         <v>152</v>
       </c>
       <c r="K110" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="L110" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="M110" s="5">
         <v>45420</v>
@@ -5815,22 +5813,22 @@
         <v>8</v>
       </c>
       <c r="C111" s="4" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D111" s="4" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="E111" s="4" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="F111" s="3">
         <v>7299</v>
       </c>
       <c r="G111" s="4" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="H111" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I111" s="2">
         <v>34</v>
@@ -5839,10 +5837,10 @@
         <v>146</v>
       </c>
       <c r="K111" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="L111" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="M111" s="5">
         <v>45420</v>
@@ -5856,22 +5854,22 @@
         <v>7</v>
       </c>
       <c r="C112" s="4" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="D112" s="4" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="E112" s="4" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="F112" s="3">
         <v>7299</v>
       </c>
       <c r="G112" s="4" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="H112" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I112" s="2">
         <v>38</v>
@@ -5880,10 +5878,10 @@
         <v>149</v>
       </c>
       <c r="K112" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="L112" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="M112" s="5">
         <v>45420</v>
@@ -5897,22 +5895,22 @@
         <v>4</v>
       </c>
       <c r="C113" s="4" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="D113" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E113" s="4" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="F113" s="3">
         <v>22758</v>
       </c>
       <c r="G113" s="4" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="H113" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I113" s="2">
         <v>44</v>
@@ -5921,10 +5919,10 @@
         <v>151</v>
       </c>
       <c r="K113" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="L113" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="M113" s="5">
         <v>45421</v>
@@ -5938,22 +5936,22 @@
         <v>6</v>
       </c>
       <c r="C114" s="4" t="s">
+        <v>302</v>
+      </c>
+      <c r="D114" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="E114" s="4" t="s">
         <v>303</v>
-      </c>
-      <c r="D114" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="E114" s="4" t="s">
-        <v>304</v>
       </c>
       <c r="F114" s="3">
         <v>22758</v>
       </c>
       <c r="G114" s="4" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="H114" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I114" s="2">
         <v>57</v>
@@ -5962,10 +5960,10 @@
         <v>166</v>
       </c>
       <c r="K114" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="L114" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="M114" s="5">
         <v>45421</v>
@@ -5979,22 +5977,22 @@
         <v>7</v>
       </c>
       <c r="C115" s="4" t="s">
+        <v>304</v>
+      </c>
+      <c r="D115" s="4" t="s">
         <v>305</v>
       </c>
-      <c r="D115" s="4" t="s">
-        <v>306</v>
-      </c>
       <c r="E115" s="4" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="F115" s="3">
         <v>22758</v>
       </c>
       <c r="G115" s="4" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="H115" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I115" s="2">
         <v>50</v>
@@ -6006,7 +6004,7 @@
         <v>11</v>
       </c>
       <c r="L115" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="M115" s="5">
         <v>45421</v>
@@ -6020,22 +6018,22 @@
         <v>7</v>
       </c>
       <c r="C116" s="4" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="D116" s="4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E116" s="4" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="F116" s="3">
         <v>22758</v>
       </c>
       <c r="G116" s="4" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="H116" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I116" s="2">
         <v>59</v>
@@ -6047,7 +6045,7 @@
         <v>10</v>
       </c>
       <c r="L116" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="M116" s="5">
         <v>45421</v>
@@ -6061,22 +6059,22 @@
         <v>0</v>
       </c>
       <c r="C117" s="4" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="D117" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E117" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F117" s="3">
         <v>22758</v>
       </c>
       <c r="G117" s="4" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="H117" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I117" s="2">
         <v>50</v>
@@ -6085,10 +6083,10 @@
         <v>151</v>
       </c>
       <c r="K117" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="L117" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="M117" s="5">
         <v>45421</v>
@@ -6102,22 +6100,22 @@
         <v>1</v>
       </c>
       <c r="C118" s="4" t="s">
+        <v>308</v>
+      </c>
+      <c r="D118" s="4" t="s">
         <v>309</v>
       </c>
-      <c r="D118" s="4" t="s">
-        <v>310</v>
-      </c>
       <c r="E118" s="4" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="F118" s="3">
         <v>22758</v>
       </c>
       <c r="G118" s="4" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="H118" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I118" s="2">
         <v>65</v>
@@ -6126,10 +6124,10 @@
         <v>160</v>
       </c>
       <c r="K118" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="L118" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="M118" s="5">
         <v>45421</v>
@@ -6143,22 +6141,22 @@
         <v>5</v>
       </c>
       <c r="C119" s="4" t="s">
+        <v>310</v>
+      </c>
+      <c r="D119" s="4" t="s">
         <v>311</v>
       </c>
-      <c r="D119" s="4" t="s">
+      <c r="E119" s="4" t="s">
         <v>312</v>
-      </c>
-      <c r="E119" s="4" t="s">
-        <v>313</v>
       </c>
       <c r="F119" s="3">
         <v>22758</v>
       </c>
       <c r="G119" s="4" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="H119" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I119" s="2">
         <v>60</v>
@@ -6170,7 +6168,7 @@
         <v>10</v>
       </c>
       <c r="L119" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="M119" s="5">
         <v>45421</v>
@@ -6181,25 +6179,25 @@
         <v>23851651</v>
       </c>
       <c r="B120" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C120" s="4" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="D120" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E120" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F120" s="3">
         <v>22758</v>
       </c>
       <c r="G120" s="4" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="H120" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I120" s="2">
         <v>56</v>
@@ -6211,7 +6209,7 @@
         <v>10</v>
       </c>
       <c r="L120" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="M120" s="5">
         <v>45421</v>
@@ -6225,22 +6223,22 @@
         <v>7</v>
       </c>
       <c r="C121" s="4" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="D121" s="4" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="E121" s="4" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="F121" s="3">
         <v>22758</v>
       </c>
       <c r="G121" s="4" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="H121" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I121" s="2">
         <v>52</v>
@@ -6249,10 +6247,10 @@
         <v>151</v>
       </c>
       <c r="K121" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="L121" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="M121" s="5">
         <v>45421</v>
@@ -6263,25 +6261,25 @@
         <v>23716699</v>
       </c>
       <c r="B122" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C122" s="4" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="D122" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E122" s="4" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="F122" s="3">
         <v>22758</v>
       </c>
       <c r="G122" s="4" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="H122" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I122" s="2">
         <v>78</v>
@@ -6290,10 +6288,10 @@
         <v>156</v>
       </c>
       <c r="K122" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="L122" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="M122" s="5">
         <v>45421</v>
@@ -6307,22 +6305,22 @@
         <v>0</v>
       </c>
       <c r="C123" s="4" t="s">
+        <v>316</v>
+      </c>
+      <c r="D123" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="E123" s="4" t="s">
         <v>317</v>
-      </c>
-      <c r="D123" s="4" t="s">
-        <v>134</v>
-      </c>
-      <c r="E123" s="4" t="s">
-        <v>318</v>
       </c>
       <c r="F123" s="3">
         <v>22758</v>
       </c>
       <c r="G123" s="4" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="H123" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I123" s="2">
         <v>32</v>
@@ -6331,10 +6329,10 @@
         <v>152</v>
       </c>
       <c r="K123" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="L123" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="M123" s="5">
         <v>45421</v>
@@ -6348,22 +6346,22 @@
         <v>8</v>
       </c>
       <c r="C124" s="4" t="s">
+        <v>318</v>
+      </c>
+      <c r="D124" s="4" t="s">
         <v>319</v>
       </c>
-      <c r="D124" s="4" t="s">
+      <c r="E124" s="4" t="s">
         <v>320</v>
-      </c>
-      <c r="E124" s="4" t="s">
-        <v>321</v>
       </c>
       <c r="F124" s="3">
         <v>22758</v>
       </c>
       <c r="G124" s="4" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="H124" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I124" s="2">
         <v>63</v>
@@ -6372,10 +6370,10 @@
         <v>162</v>
       </c>
       <c r="K124" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="L124" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="M124" s="5">
         <v>45421</v>
@@ -6389,22 +6387,22 @@
         <v>3</v>
       </c>
       <c r="C125" s="4" t="s">
+        <v>321</v>
+      </c>
+      <c r="D125" s="4" t="s">
         <v>322</v>
       </c>
-      <c r="D125" s="4" t="s">
-        <v>323</v>
-      </c>
       <c r="E125" s="4" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="F125" s="3">
         <v>22758</v>
       </c>
       <c r="G125" s="4" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="H125" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I125" s="2">
         <v>61</v>
@@ -6413,10 +6411,10 @@
         <v>163</v>
       </c>
       <c r="K125" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="L125" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="M125" s="5">
         <v>45421</v>
@@ -6430,22 +6428,22 @@
         <v>4</v>
       </c>
       <c r="C126" s="4" t="s">
+        <v>323</v>
+      </c>
+      <c r="D126" s="4" t="s">
         <v>324</v>
       </c>
-      <c r="D126" s="4" t="s">
+      <c r="E126" s="4" t="s">
         <v>325</v>
-      </c>
-      <c r="E126" s="4" t="s">
-        <v>326</v>
       </c>
       <c r="F126" s="3">
         <v>22758</v>
       </c>
       <c r="G126" s="4" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="H126" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I126" s="2">
         <v>72</v>
@@ -6454,10 +6452,10 @@
         <v>166</v>
       </c>
       <c r="K126" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="L126" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="M126" s="5">
         <v>45421</v>
@@ -6471,22 +6469,22 @@
         <v>7</v>
       </c>
       <c r="C127" s="4" t="s">
+        <v>326</v>
+      </c>
+      <c r="D127" s="4" t="s">
+        <v>237</v>
+      </c>
+      <c r="E127" s="4" t="s">
         <v>327</v>
-      </c>
-      <c r="D127" s="4" t="s">
-        <v>238</v>
-      </c>
-      <c r="E127" s="4" t="s">
-        <v>328</v>
       </c>
       <c r="F127" s="3">
         <v>22758</v>
       </c>
       <c r="G127" s="4" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="H127" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I127" s="2">
         <v>78</v>
@@ -6495,10 +6493,10 @@
         <v>164</v>
       </c>
       <c r="K127" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="L127" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="M127" s="5">
         <v>45421</v>
@@ -6512,22 +6510,22 @@
         <v>5</v>
       </c>
       <c r="C128" s="4" t="s">
+        <v>328</v>
+      </c>
+      <c r="D128" s="4" t="s">
         <v>329</v>
       </c>
-      <c r="D128" s="4" t="s">
-        <v>330</v>
-      </c>
       <c r="E128" s="4" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="F128" s="3">
         <v>22758</v>
       </c>
       <c r="G128" s="4" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="H128" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I128" s="2">
         <v>28</v>
@@ -6536,10 +6534,10 @@
         <v>142</v>
       </c>
       <c r="K128" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="L128" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="M128" s="5">
         <v>45421</v>
@@ -6553,29 +6551,29 @@
         <v>7</v>
       </c>
       <c r="C129" s="4" t="s">
+        <v>330</v>
+      </c>
+      <c r="D129" s="4" t="s">
         <v>331</v>
       </c>
-      <c r="D129" s="4" t="s">
+      <c r="E129" s="4" t="s">
         <v>332</v>
-      </c>
-      <c r="E129" s="4" t="s">
-        <v>333</v>
       </c>
       <c r="F129" s="3">
         <v>22758</v>
       </c>
       <c r="G129" s="4" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="H129" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I129" s="2"/>
       <c r="J129" s="2"/>
       <c r="K129" s="2"/>
       <c r="L129" s="4"/>
       <c r="M129" s="2" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="130" spans="1:13" ht="13.8">
@@ -6586,22 +6584,22 @@
         <v>6</v>
       </c>
       <c r="C130" s="4" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="D130" s="4" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="E130" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F130" s="3">
         <v>22758</v>
       </c>
       <c r="G130" s="4" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="H130" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I130" s="2">
         <v>67</v>
@@ -6613,7 +6611,7 @@
         <v>11</v>
       </c>
       <c r="L130" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="M130" s="5">
         <v>45421</v>
@@ -6627,22 +6625,22 @@
         <v>8</v>
       </c>
       <c r="C131" s="4" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="D131" s="4" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E131" s="4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F131" s="3">
         <v>22758</v>
       </c>
       <c r="G131" s="4" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="H131" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I131" s="2">
         <v>52</v>
@@ -6654,7 +6652,7 @@
         <v>11</v>
       </c>
       <c r="L131" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="M131" s="5">
         <v>45421</v>
@@ -6668,22 +6666,22 @@
         <v>2</v>
       </c>
       <c r="C132" s="4" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="D132" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E132" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F132" s="3">
         <v>22758</v>
       </c>
       <c r="G132" s="4" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="H132" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I132" s="2">
         <v>60</v>
@@ -6695,7 +6693,7 @@
         <v>11</v>
       </c>
       <c r="L132" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="M132" s="5">
         <v>45421</v>
@@ -6709,22 +6707,22 @@
         <v>2</v>
       </c>
       <c r="C133" s="4" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="D133" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E133" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F133" s="3">
         <v>22758</v>
       </c>
       <c r="G133" s="4" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="H133" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I133" s="2">
         <v>48</v>
@@ -6736,7 +6734,7 @@
         <v>11</v>
       </c>
       <c r="L133" s="4" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="M133" s="5">
         <v>45421</v>
@@ -6750,22 +6748,22 @@
         <v>5</v>
       </c>
       <c r="C134" s="4" t="s">
+        <v>337</v>
+      </c>
+      <c r="D134" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="E134" s="4" t="s">
         <v>338</v>
-      </c>
-      <c r="D134" s="4" t="s">
-        <v>110</v>
-      </c>
-      <c r="E134" s="4" t="s">
-        <v>339</v>
       </c>
       <c r="F134" s="3">
         <v>22758</v>
       </c>
       <c r="G134" s="4" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="H134" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I134" s="2">
         <v>45</v>
@@ -6774,10 +6772,10 @@
         <v>155</v>
       </c>
       <c r="K134" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="L134" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="M134" s="5">
         <v>45421</v>
@@ -6791,22 +6789,22 @@
         <v>7</v>
       </c>
       <c r="C135" s="4" t="s">
+        <v>339</v>
+      </c>
+      <c r="D135" s="4" t="s">
         <v>340</v>
       </c>
-      <c r="D135" s="4" t="s">
+      <c r="E135" s="4" t="s">
         <v>341</v>
-      </c>
-      <c r="E135" s="4" t="s">
-        <v>342</v>
       </c>
       <c r="F135" s="3">
         <v>22758</v>
       </c>
       <c r="G135" s="4" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="H135" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I135" s="2">
         <v>38</v>
@@ -6815,10 +6813,10 @@
         <v>149</v>
       </c>
       <c r="K135" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="L135" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="M135" s="5">
         <v>45421</v>
@@ -6832,22 +6830,22 @@
         <v>7</v>
       </c>
       <c r="C136" s="4" t="s">
+        <v>342</v>
+      </c>
+      <c r="D136" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="E136" s="4" t="s">
         <v>343</v>
-      </c>
-      <c r="D136" s="4" t="s">
-        <v>171</v>
-      </c>
-      <c r="E136" s="4" t="s">
-        <v>344</v>
       </c>
       <c r="F136" s="3">
         <v>22758</v>
       </c>
       <c r="G136" s="4" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="H136" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I136" s="2">
         <v>49</v>
@@ -6856,10 +6854,10 @@
         <v>152</v>
       </c>
       <c r="K136" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="L136" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="M136" s="5">
         <v>45421</v>
@@ -6873,22 +6871,22 @@
         <v>0</v>
       </c>
       <c r="C137" s="4" t="s">
+        <v>344</v>
+      </c>
+      <c r="D137" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="E137" s="4" t="s">
         <v>345</v>
-      </c>
-      <c r="D137" s="4" t="s">
-        <v>171</v>
-      </c>
-      <c r="E137" s="4" t="s">
-        <v>346</v>
       </c>
       <c r="F137" s="3">
         <v>22758</v>
       </c>
       <c r="G137" s="4" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="H137" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I137" s="2">
         <v>56</v>
@@ -6897,13 +6895,13 @@
         <v>152</v>
       </c>
       <c r="K137" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="L137" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="M137" s="5" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="138" spans="1:13" ht="13.8">
@@ -6914,22 +6912,22 @@
         <v>2</v>
       </c>
       <c r="C138" s="4" t="s">
+        <v>347</v>
+      </c>
+      <c r="D138" s="4" t="s">
         <v>348</v>
       </c>
-      <c r="D138" s="4" t="s">
-        <v>349</v>
-      </c>
       <c r="E138" s="4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F138" s="3">
         <v>22758</v>
       </c>
       <c r="G138" s="4" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="H138" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I138" s="2">
         <v>59</v>
@@ -6941,7 +6939,7 @@
         <v>10</v>
       </c>
       <c r="L138" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="M138" s="5">
         <v>45421</v>
@@ -6955,22 +6953,22 @@
         <v>0</v>
       </c>
       <c r="C139" s="4" t="s">
+        <v>349</v>
+      </c>
+      <c r="D139" s="4" t="s">
         <v>350</v>
       </c>
-      <c r="D139" s="4" t="s">
+      <c r="E139" s="4" t="s">
         <v>351</v>
-      </c>
-      <c r="E139" s="4" t="s">
-        <v>352</v>
       </c>
       <c r="F139" s="3">
         <v>22758</v>
       </c>
       <c r="G139" s="4" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="H139" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I139" s="2">
         <v>52</v>
@@ -6979,10 +6977,10 @@
         <v>152</v>
       </c>
       <c r="K139" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="L139" s="4" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="M139" s="5">
         <v>45421</v>
@@ -6996,22 +6994,22 @@
         <v>2</v>
       </c>
       <c r="C140" s="4" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="D140" s="4" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="E140" s="4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F140" s="3">
         <v>22758</v>
       </c>
       <c r="G140" s="4" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="H140" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I140" s="2"/>
       <c r="J140" s="2"/>
@@ -7027,29 +7025,29 @@
         <v>4</v>
       </c>
       <c r="C141" s="4" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="D141" s="4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E141" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F141" s="3">
         <v>22758</v>
       </c>
       <c r="G141" s="4" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="H141" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I141" s="2"/>
       <c r="J141" s="2"/>
       <c r="K141" s="2"/>
       <c r="L141" s="4"/>
       <c r="M141" s="2" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="142" spans="1:13" ht="13.8">
@@ -7060,22 +7058,22 @@
         <v>3</v>
       </c>
       <c r="C142" s="4" t="s">
+        <v>355</v>
+      </c>
+      <c r="D142" s="4" t="s">
         <v>356</v>
       </c>
-      <c r="D142" s="4" t="s">
-        <v>357</v>
-      </c>
       <c r="E142" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F142" s="3">
         <v>22758</v>
       </c>
       <c r="G142" s="4" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="H142" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I142" s="2"/>
       <c r="J142" s="2"/>
@@ -7091,22 +7089,22 @@
         <v>5</v>
       </c>
       <c r="C143" s="4" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="D143" s="4" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="E143" s="4" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="F143" s="3">
         <v>22758</v>
       </c>
       <c r="G143" s="4" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="H143" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I143" s="2"/>
       <c r="J143" s="2"/>
@@ -7122,22 +7120,22 @@
         <v>1</v>
       </c>
       <c r="C144" s="4" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="D144" s="4" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="E144" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F144" s="3">
         <v>22758</v>
       </c>
       <c r="G144" s="4" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="H144" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I144" s="2"/>
       <c r="J144" s="2"/>
@@ -7153,22 +7151,22 @@
         <v>0</v>
       </c>
       <c r="C145" s="4" t="s">
+        <v>359</v>
+      </c>
+      <c r="D145" s="4" t="s">
         <v>360</v>
       </c>
-      <c r="D145" s="4" t="s">
-        <v>361</v>
-      </c>
       <c r="E145" s="4" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="F145" s="3">
         <v>22758</v>
       </c>
       <c r="G145" s="4" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="H145" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I145" s="2">
         <v>83</v>
@@ -7177,10 +7175,10 @@
         <v>168</v>
       </c>
       <c r="K145" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="L145" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="M145" s="5">
         <v>45421</v>
@@ -7194,22 +7192,22 @@
         <v>4</v>
       </c>
       <c r="C146" s="4" t="s">
+        <v>361</v>
+      </c>
+      <c r="D146" s="4" t="s">
         <v>362</v>
       </c>
-      <c r="D146" s="4" t="s">
-        <v>363</v>
-      </c>
       <c r="E146" s="4" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="F146" s="3">
         <v>22758</v>
       </c>
       <c r="G146" s="4" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="H146" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I146" s="2">
         <v>60</v>
@@ -7221,7 +7219,7 @@
         <v>10</v>
       </c>
       <c r="L146" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="M146" s="5">
         <v>45421</v>
@@ -7235,22 +7233,22 @@
         <v>6</v>
       </c>
       <c r="C147" s="4" t="s">
+        <v>363</v>
+      </c>
+      <c r="D147" s="4" t="s">
         <v>364</v>
       </c>
-      <c r="D147" s="4" t="s">
-        <v>365</v>
-      </c>
       <c r="E147" s="4" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="F147" s="3">
         <v>22758</v>
       </c>
       <c r="G147" s="4" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="H147" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I147" s="2">
         <v>63</v>
@@ -7259,10 +7257,10 @@
         <v>164</v>
       </c>
       <c r="K147" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="L147" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="M147" s="5">
         <v>45421</v>
@@ -7276,22 +7274,22 @@
         <v>7</v>
       </c>
       <c r="C148" s="4" t="s">
+        <v>365</v>
+      </c>
+      <c r="D148" s="4" t="s">
         <v>366</v>
       </c>
-      <c r="D148" s="4" t="s">
+      <c r="E148" s="4" t="s">
         <v>367</v>
-      </c>
-      <c r="E148" s="4" t="s">
-        <v>368</v>
       </c>
       <c r="F148" s="3">
         <v>22758</v>
       </c>
       <c r="G148" s="4" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="H148" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I148" s="2">
         <v>60</v>
@@ -7303,7 +7301,7 @@
         <v>12</v>
       </c>
       <c r="L148" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="M148" s="5">
         <v>45421</v>
@@ -7317,22 +7315,22 @@
         <v>0</v>
       </c>
       <c r="C149" s="4" t="s">
+        <v>368</v>
+      </c>
+      <c r="D149" s="4" t="s">
         <v>369</v>
       </c>
-      <c r="D149" s="4" t="s">
-        <v>370</v>
-      </c>
       <c r="E149" s="4" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="F149" s="3">
         <v>22758</v>
       </c>
       <c r="G149" s="4" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="H149" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I149" s="2">
         <v>53</v>
@@ -7341,10 +7339,10 @@
         <v>166</v>
       </c>
       <c r="K149" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="L149" s="4" t="s">
         <v>18</v>
-      </c>
-      <c r="L149" s="4" t="s">
-        <v>19</v>
       </c>
       <c r="M149" s="5">
         <v>45421</v>
@@ -7358,22 +7356,22 @@
         <v>8</v>
       </c>
       <c r="C150" s="4" t="s">
+        <v>370</v>
+      </c>
+      <c r="D150" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="E150" s="4" t="s">
         <v>371</v>
-      </c>
-      <c r="D150" s="4" t="s">
-        <v>171</v>
-      </c>
-      <c r="E150" s="4" t="s">
-        <v>372</v>
       </c>
       <c r="F150" s="3">
         <v>22758</v>
       </c>
       <c r="G150" s="4" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="H150" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I150" s="2">
         <v>48</v>
@@ -7382,10 +7380,10 @@
         <v>161</v>
       </c>
       <c r="K150" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="L150" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="M150" s="5">
         <v>45421</v>
@@ -7396,25 +7394,25 @@
         <v>23721269</v>
       </c>
       <c r="B151" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C151" s="4" t="s">
+        <v>372</v>
+      </c>
+      <c r="D151" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="E151" s="4" t="s">
         <v>373</v>
-      </c>
-      <c r="D151" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="E151" s="4" t="s">
-        <v>374</v>
       </c>
       <c r="F151" s="3">
         <v>22758</v>
       </c>
       <c r="G151" s="4" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="H151" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I151" s="2"/>
       <c r="J151" s="2"/>
@@ -7430,22 +7428,22 @@
         <v>3</v>
       </c>
       <c r="C152" s="4" t="s">
+        <v>374</v>
+      </c>
+      <c r="D152" s="4" t="s">
         <v>375</v>
       </c>
-      <c r="D152" s="4" t="s">
+      <c r="E152" s="4" t="s">
         <v>376</v>
-      </c>
-      <c r="E152" s="4" t="s">
-        <v>377</v>
       </c>
       <c r="F152" s="3">
         <v>22758</v>
       </c>
       <c r="G152" s="4" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="H152" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I152" s="2"/>
       <c r="J152" s="2"/>
@@ -7461,22 +7459,22 @@
         <v>1</v>
       </c>
       <c r="C153" s="4" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="D153" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E153" s="4" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="F153" s="3">
         <v>22758</v>
       </c>
       <c r="G153" s="4" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="H153" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I153" s="2"/>
       <c r="J153" s="2"/>
